--- a/outputs_responses.xlsx
+++ b/outputs_responses.xlsx
@@ -654,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1072,24 +1072,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The FDA granted the petition in part and denied it in part.</t>
+          <t>Partially granted and partially denied</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>21 U.S.C. 355(b)(2), 21 CFR 314.94</t>
+          <t>FD&amp;C Act sections 505(b)(1), 505(b)(2), 505(c), 505(d), 505(j) (including 505(j)(2)(A), 505(j)(4), 505(j)(8)(A)(i), 505(j)(8)(B)(i)); 21 CFR 10.30(e)(2); 21 CFR 20.117; 21 CFR 314 (including 314.3, 314.54, 314.94); 21 CFR part 320 (including 320.1, 320.23)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>The FDA granted the petition regarding the therapeutic equivalence (TE) criteria, confirming that Vogelxo is therapeutically equivalent to Testim, as it satisfies all FDA TE criteria. The petition was denied in other parts, such as requiring additional labeling statements and conducting notice-and-comment rulemaking before issuing TE ratings, as the FDA found these requests unnecessary at this time.</t>
+          <t>FDA determined that Vogelxo meets therapeutic-equivalence criteria—pharmaceutical equivalence, bioequivalence demonstrated by comparative bioavailability study, adequate labeling, CGMP compliance—and that safety concerns (transfer, irritation, sensitization) are mitigated by study results; therefore petition request to block an A-rating was denied while the conditional request that TE criteria be fully satisfied was granted</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0371-0007_Petition_Approval_Denial_from_FDA_CDER.pdf</t>
+          <t>FDA-2013-P-0471-0006_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1109,24 +1109,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FD&amp;C Act sections 505(b)(1), 505(b)(2), 505(c), 505(d), 505(j) (including 505(j)(2)(A), 505(j)(4), 505(j)(8)(A)(i), 505(j)(8)(B)(i)); 21 CFR 10.30(e)(2); 21 CFR 20.117; 21 CFR 314 (including 314.3, 314.54, 314.94); 21 CFR part 320 (including 320.1, 320.23)</t>
+          <t>FD&amp;C Act §§ 505(b)(1), 505(b)(2), 505(c), 505(d), 505(j) (including 505(j)(2)(A), 505(j)(4), 505(j)(8)(A)(i), 505(j)(8)(B)(i)); 21 CFR 10.30(e)(2); 21 CFR 20.117; 21 CFR 314.3, 314.54, 314.94; 21 CFR part 320</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FDA determined that Vogelxo meets therapeutic-equivalence criteria—pharmaceutical equivalence, bioequivalence demonstrated by comparative bioavailability study, adequate labeling, CGMP compliance—and that safety concerns (transfer, irritation, sensitization) are mitigated by study results; therefore petition request to block an A-rating was denied while the conditional request that TE criteria be fully satisfied was granted</t>
+          <t>FDA concluded that Vogelxo meets all therapeutic-equivalence criteria—pharmaceutical equivalence, bioequivalence proven by comparative study, adequate labeling, and CGMP compliance—so the request to block an A-rating was denied, while the conditional request that TE criteria be fully satisfied was granted; other requested actions were denied because additional labeling or rulemaking was deemed unnecessary</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0471-0006_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-0522-0009_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>February 9, 2015</t>
+          <t>August 4, 2014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1136,29 +1136,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Partially granted and partially denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FD&amp;C Act §§ 505(b)(1), 505(b)(2), 505(c), 505(d), 505(j) (including 505(j)(2)(A), 505(j)(4), 505(j)(8)(A)(i), 505(j)(8)(B)(i)); 21 CFR 10.30(e)(2); 21 CFR 20.117; 21 CFR 314.3, 314.54, 314.94; 21 CFR part 320</t>
+          <t>FD&amp;C Act §§ 505(b)(1), 505(b)(2), 505(c), 505(d), 505(e)(1), 505(e)(2), 505(j), 505-1; 21 CFR 201.56, 201.57, 201.63, 201.66, 201.80; 21 CFR part 314 (including 314.50, 314.105, 314.126, 314.150, 314.200); 21 CFR part 320; 21 CFR part 341</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FDA concluded that Vogelxo meets all therapeutic-equivalence criteria—pharmaceutical equivalence, bioequivalence proven by comparative study, adequate labeling, and CGMP compliance—so the request to block an A-rating was denied, while the conditional request that TE criteria be fully satisfied was granted; other requested actions were denied because additional labeling or rulemaking was deemed unnecessary</t>
+          <t>FDA’s review of 26 cited articles and an additional 376 publications found no evidence that Diclegis (doxylamine + pyridoxine) disrupts fetal germ-line epigenetics or causes multigenerational harm; extensive human and animal data, meta-analyses, and decades of safe use support Category A status; existing OTC and prescription pregnancy warnings are adequate; requested blanket warnings and withdrawal or re-categorization lack scientific basis, so the petition was denied.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0522-0009_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-0608-0008_Agency_Response_Letter_from_FDA_CDER_to_Janssen_Re.pdf</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>August 4, 2014</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1168,61 +1168,61 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FD&amp;C Act §§ 505(b)(1), 505(b)(2), 505(c), 505(d), 505(e)(1), 505(e)(2), 505(j), 505-1; 21 CFR 201.56, 201.57, 201.63, 201.66, 201.80; 21 CFR part 314 (including 314.50, 314.105, 314.126, 314.150, 314.200); 21 CFR part 320; 21 CFR part 341</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FDA’s review of 26 cited articles and an additional 376 publications found no evidence that Diclegis (doxylamine + pyridoxine) disrupts fetal germ-line epigenetics or causes multigenerational harm; extensive human and animal data, meta-analyses, and decades of safe use support Category A status; existing OTC and prescription pregnancy warnings are adequate; requested blanket warnings and withdrawal or re-categorization lack scientific basis, so the petition was denied.</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0608-0008_Agency_Response_Letter_from_FDA_CDER_to_Janssen_Re.pdf</t>
+          <t>FDA-2013-P-0615-0004_Response_letter_from_FDA_CDRH_to_State_of_Californ.pdf</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Date of Response: Not Mentioned</t>
+          <t>August 31, 2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Devices and Radiological Health (CDRH)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Response to Petition: Not Mentioned</t>
+          <t>Other (Application for exemption declared moot—no action required)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Not Mentioned</t>
+          <t>21 CFR §§ 801.420, 801.421 (removed), 801.422; 21 CFR part 808 (including § 808.55); 21 CFR § 800.30(h); FD&amp;C Act § 521 (21 U.S.C. § 360k); FDARA § 709(b)(4); 87 FR 50698 (Aug 17 2022); 86 FR 58170 (Oct 20 2021)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Justification for Response: Not Mentioned</t>
+          <t>FDA’s 2022 final rule on over-the-counter hearing aids repealed the federal requirements (§§ 801.420, 801.421) that the California petition sought exemption from; those federal provisions and earlier exemption decisions no longer exist, and newer pre-emption language in FDARA § 709(b)(4) bars such exemptions, so the petition is now moot.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0615-0004_Response_letter_from_FDA_CDRH_to_State_of_Californ.pdf</t>
+          <t>FDA-2013-P-0667-0008_Citizen_Petition_Denial_Response_from_FDA_CDRH_to_.pdf</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>August 31, 2023</t>
+          <t>July 31, 2014</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1232,24 +1232,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Other (Application for exemption declared moot—no action required)</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21 CFR §§ 801.420, 801.421 (removed), 801.422; 21 CFR part 808 (including § 808.55); 21 CFR § 800.30(h); FD&amp;C Act § 521 (21 U.S.C. § 360k); FDARA § 709(b)(4); 87 FR 50698 (Aug 17 2022); 86 FR 58170 (Oct 20 2021)</t>
+          <t>21 CFR 10.30; 21 U.S.C. § 321(h); 21 CFR 809.3; 21 CFR 807.3; Federal Food, Drug, and Cosmetic Act (FD&amp;C Act) device provisions; Clinical Laboratory Improvement Amendments of 1988 (CLIA)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FDA’s 2022 final rule on over-the-counter hearing aids repealed the federal requirements (§§ 801.420, 801.421) that the California petition sought exemption from; those federal provisions and earlier exemption decisions no longer exist, and newer pre-emption language in FDARA § 709(b)(4) bars such exemptions, so the petition is now moot.</t>
+          <t>FDA concluded that laboratory-developed tests (LDTs) meet the statutory definition of a medical device, fall under FDA’s jurisdiction, and require appropriate oversight; the agency therefore rejected the petition’s request that FDA disavow regulation of LDTs and halt related guidance or rulemaking.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0667-0008_Citizen_Petition_Denial_Response_from_FDA_CDRH_to_.pdf</t>
+          <t>FDA-2013-P-0671-0004_Response_Letter_from_FDA_CDER_to_Lachman_Consultan.pdf</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1269,1336 +1269,1336 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21 CFR 10.30; 21 U.S.C. § 321(h); 21 CFR 809.3; 21 CFR 807.3; Federal Food, Drug, and Cosmetic Act (FD&amp;C Act) device provisions; Clinical Laboratory Improvement Amendments of 1988 (CLIA)</t>
+          <t>21 U.S.C. §321(h); 21 U.S.C. §360 (including §§360c, 360e, 360k, 360bbb-3, 379a); 21 U.S.C. §396; 21 U.S.C. §334; 21 CFR 809.3(a); 21 CFR Part 807 (including 21 CFR 807.3(b) and 807.65(f), 807.65(i)); 21 CFR 801; 42 U.S.C. §263a (CLIA)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FDA concluded that laboratory-developed tests (LDTs) meet the statutory definition of a medical device, fall under FDA’s jurisdiction, and require appropriate oversight; the agency therefore rejected the petition’s request that FDA disavow regulation of LDTs and halt related guidance or rulemaking.</t>
+          <t>FDA concluded that laboratory-developed tests (LDTs) are medical devices under 21 U.S.C. §321(h); FDA has statutory authority concurrent with CMS’s CLIA program to regulate the safety and effectiveness of such devices; modern LDTs present increased risk because they use complex technology and guide critical clinical decisions; continued enforcement discretion could harm public health; CLIA oversight focuses on laboratory operations, not device safety/effectiveness; issuing guidance to phase in oversight is appropriate and within FDA’s discretion; therefore the petition seeking to bar FDA regulation of LDTs is denied</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0671-0004_Response_Letter_from_FDA_CDER_to_Lachman_Consultan.pdf</t>
+          <t>FDA-2013-P-0701-0004_Citizen_Petition_Denial_Letter_from_FDA_CFSAN_to_O.pdf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Date of Response: July 31, 2014</t>
+          <t>November 25, 2014 :contentReference[oaicite:0]{index=0}&amp;#8203;:contentReference[oaicite:1]{index=1}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Responding FDA Center: Center for Devices and Radiological Health (CDRH)</t>
+          <t>Center for Food Safety and Applied Nutrition (CFSAN) :contentReference[oaicite:2]{index=2}&amp;#8203;:contentReference[oaicite:3]{index=3}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied – FDA denied the 2013 citizen petition in its entirety :contentReference[oaicite:4]{index=4}&amp;#8203;:contentReference[oaicite:5]{index=5}</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 U.S.C. §321(h); 21 U.S.C. §360 (including §§360c, 360e, 360k, 360bbb-3, 379a); 21 U.S.C. §396; 21 U.S.C. §334; 21 CFR 809.3(a); 21 CFR Part 807 (including 21 CFR 807.3(b) and 807.65(f), 807.65(i)); 21 CFR 801; 42 U.S.C. §263a (CLIA)</t>
+          <t>21 CFR 1240.61; 21 CFR 10.40(a)(2); 21 CFR 10.30(e)(3); 42 U.S.C. § 264(a) :contentReference[oaicite:6]{index=6}</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA concluded that laboratory-developed tests (LDTs) are medical devices under 21 U.S.C. §321(h); FDA has statutory authority concurrent with CMS’s CLIA program to regulate the safety and effectiveness of such devices; modern LDTs present increased risk because they use complex technology and guide critical clinical decisions; continued enforcement discretion could harm public health; CLIA oversight focuses on laboratory operations, not device safety/effectiveness; issuing guidance to phase in oversight is appropriate and within FDA’s discretion; therefore the petition seeking to bar FDA regulation of LDTs is denied</t>
+          <t>Petition presented no reasonable grounds or evidence to modify prior denial; raw milk still poses demonstrated safety risks, and amending 21 CFR 1240.61 would not serve public health objectives :contentReference[oaicite:7]{index=7}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0671-0004_Response_Letter_from_FDA_CDER_to_Lachman_Consultan.pdf</t>
+          <t>FDA-2013-P-0701-0004_Citizen_Petition_Denial_Letter_from_FDA_CFSAN_to_O.pdf</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1. Date of Response: October 23, 2013 :contentReference[oaicite:0]{index=0}&amp;#8203;:contentReference[oaicite:1]{index=1}</t>
+          <t>November 25, 2014</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER) :contentReference[oaicite:2]{index=2}&amp;#8203;:contentReference[oaicite:3]{index=3}</t>
+          <t>CFSAN</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Granted – FDA determined PARAFLEX (Chlorzoxazone) Tablets, 250 mg, was not withdrawn for reasons of safety or effectiveness :contentReference[oaicite:4]{index=4}&amp;#8203;:contentReference[oaicite:5]{index=5}</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 314.161; 21 CFR 314.162; 21 CFR 10.30 :contentReference[oaicite:6]{index=6}&amp;#8203;:contentReference[oaicite:7]{index=7}</t>
+          <t>21 CFR 1240.61; 21 CFR 10.30(e)(3); 21 CFR 10.40(a)(2); 42 U.S.C. § 264(a) (PHSA §361(a)); Federal Food, Drug, and Cosmetic Act (FDCA) sections 301(a), 301(b), 301(c), 301(k) (21 U.S.C. §§ 331(a)-(c), (k)); 21 U.S.C. § 342(a)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5. Justification for Response: FDA reviewed its records and found the drug’s discontinuation was unrelated to safety or efficacy, so it remains listed in the Orange Book’s Discontinued Drug Product List :contentReference[oaicite:8]{index=8}&amp;#8203;:contentReference[oaicite:9]{index=9}</t>
+          <t>FDA denied the petition to allow interstate distribution of raw milk, concluding that raw milk poses significant public health risks due to potential pathogen contamination. The petitioner failed to provide new scientific evidence demonstrating the safety of raw milk or justifying the requested regulatory changes. FDA found that pasteurization remains necessary for public health protection and that state regulation or voluntary standards do not adequately ensure raw milk safety.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0701-0004_Citizen_Petition_Denial_Letter_from_FDA_CFSAN_to_O.pdf</t>
+          <t>FDA-2013-P-0766-0006_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1. Date of Response: November 25, 2014 :contentReference[oaicite:0]{index=0}&amp;#8203;:contentReference[oaicite:1]{index=1}</t>
+          <t>February 19, 2016</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Food Safety and Applied Nutrition (CFSAN) :contentReference[oaicite:2]{index=2}&amp;#8203;:contentReference[oaicite:3]{index=3}</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied – FDA denied the 2013 citizen petition in its entirety :contentReference[oaicite:4]{index=4}&amp;#8203;:contentReference[oaicite:5]{index=5}</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 1240.61; 21 CFR 10.40(a)(2); 21 CFR 10.30(e)(3); 42 U.S.C. § 264(a) :contentReference[oaicite:6]{index=6}</t>
+          <t>21 U.S.C. 355(j); 21 CFR 314.94(a); 21 CFR 320.1(e); 21 CFR 320.23(b); 21 CFR 320.24(b); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); Physical Attributes Guidance</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5. Justification for Response: Petition presented no reasonable grounds or evidence to modify prior denial; raw milk still poses demonstrated safety risks, and amending 21 CFR 1240.61 would not serve public health objectives :contentReference[oaicite:7]{index=7}</t>
+          <t>FDA denied the petition because the current bioequivalence requirements based on the parent drug, albendazole, are scientifically sufficient; the agency found no need to require bioequivalence testing based on the metabolite albendazole sulfoxide. FDA also concluded that labeling for generic albendazole products does not need to identically match the original pediatric instructions from Albenza labeling and that differences, if any, can be evaluated during ANDA review. Finally, FDA found no evidence of significant choking risk associated with 200 mg tablets and determined that compliance with the Physical Attributes Guidance would sufficiently ensure patient safety without the need for additional simulated use testing.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0701-0004_Citizen_Petition_Denial_Letter_from_FDA_CFSAN_to_O.pdf</t>
+          <t>FDA-2013-P-0768-0005_Letter_from_FDA_CDER_from_Salus_Pharma_LLC.pdf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Date of Response: November 25, 2014</t>
+          <t>February 18, 2015</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CFSAN</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 1240.61; 21 CFR 10.30(e)(3); 21 CFR 10.40(a)(2); 42 U.S.C. § 264(a) (PHSA §361(a)); Federal Food, Drug, and Cosmetic Act (FDCA) sections 301(a), 301(b), 301(c), 301(k) (21 U.S.C. §§ 331(a)-(c), (k)); 21 U.S.C. § 342(a)</t>
+          <t>21 CFR 314.94(a)(9)(iii); 21 CFR 320.24; 21 CFR 314.127(a)(6); 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition to allow interstate distribution of raw milk, concluding that raw milk poses significant public health risks due to potential pathogen contamination. The petitioner failed to provide new scientific evidence demonstrating the safety of raw milk or justifying the requested regulatory changes. FDA found that pasteurization remains necessary for public health protection and that state regulation or voluntary standards do not adequately ensure raw milk safety.</t>
+          <t>FDA denied the petition because it determined that Salus Pharma's request for in vivo bioequivalence testing for generic potassium chloride oral solutions was not warranted. FDA concluded that in vitro bioequivalence studies are sufficient for these solutions based on their pharmaceutical characteristics (e.g., simple aqueous solutions) and history of safe and effective use, and requiring in vivo studies would be unnecessary and inconsistent with established regulatory practice.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0735-0003_Redacted_Petition_Response_from_FDA_CDRH_to_Mario_.pdf</t>
+          <t>FDA-2013-P-0799-0003_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Date of Response: June 19, 2014</t>
+          <t>Not Explicitly Mentioned (likely around early 2015 based on context)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDRH</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Response to Petition: Partially granted and partially denied</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 860.7(c)(1); 21 CFR 860.7(c)(2)</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); 21 CFR 314.94(a)(9)(iii)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA granted the request to forward the citizen petition comments to the Executive Secretariat and provided a response to a referenced email. The remaining requests were denied because citizen petitions are posted publicly and not attached to specific safety communications. FDA reiterated that there is no valid scientific evidence demonstrating the effectiveness of the CCSVI procedure for multiple sclerosis, and personal anecdotes do not qualify as valid scientific evidence.</t>
+          <t>FDA approved the petition because the proposed change in drug strength (from 250 mg to 187.5 mg and 375 mg) does not pose questions of safety or effectiveness. The uses, dosage form, and route of administration are the same as the listed drug product. The proposed strengths are consistent with dosing recommendations in the labeling of the reference product, and if bioequivalence requirements are met, the products can be expected to have the same therapeutic effect without requiring significant labeling changes or additional investigations.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0766-0006_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-0846-0003_Citizen_Petition_Denial_Reponse_Letter_from_FDA_CD.pdf</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Date of Response: February 19, 2016</t>
+          <t>November 17, 2014</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 U.S.C. 355(j); 21 CFR 314.94(a); 21 CFR 320.1(e); 21 CFR 320.23(b); 21 CFR 320.24(b); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); Physical Attributes Guidance</t>
+          <t>Section 505(j) of the FD&amp;C Act; 21 CFR 314.3; Section 505(j)(7) of the FD&amp;C Act; Section 505(j)(2)(A)(iv) of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because the current bioequivalence requirements based on the parent drug, albendazole, are scientifically sufficient; the agency found no need to require bioequivalence testing based on the metabolite albendazole sulfoxide. FDA also concluded that labeling for generic albendazole products does not need to identically match the original pediatric instructions from Albenza labeling and that differences, if any, can be evaluated during ANDA review. Finally, FDA found no evidence of significant choking risk associated with 200 mg tablets and determined that compliance with the Physical Attributes Guidance would sufficiently ensure patient safety without the need for additional simulated use testing.</t>
+          <t>FDA denied the petition because the Israeli-approved version of KUVAN is not a listed drug under the Federal Food, Drug, and Cosmetic Act, and therefore cannot be used as a reference standard for bioequivalence studies. The agency emphasized that small differences between a foreign-approved product and the U.S. RLD could affect critical performance characteristics, and FDA policy does not allow bioequivalence studies using foreign versions unless equivalence to the U.S. RLD has been demonstrated.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0768-0005_Letter_from_FDA_CDER_from_Salus_Pharma_LLC.pdf</t>
+          <t>FDA-2013-P-0847-0003_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Date of Response: February 18, 2015</t>
+          <t>Not Explicitly Mentioned (likely March 2024 based on signature timestamp)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 314.94(a)(9)(iii); 21 CFR 320.24; 21 CFR 314.127(a)(6); 21 U.S.C. 355(j)</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); 21 CFR 314.94(a)(9)(iii)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because it determined that Salus Pharma's request for in vivo bioequivalence testing for generic potassium chloride oral solutions was not warranted. FDA concluded that in vitro bioequivalence studies are sufficient for these solutions based on their pharmaceutical characteristics (e.g., simple aqueous solutions) and history of safe and effective use, and requiring in vivo studies would be unnecessary and inconsistent with established regulatory practice.</t>
+          <t>FDA approved the petition because the proposed change in strength from 4 mg to 8 mg does not pose questions of safety or effectiveness. The uses, dose, dosage form, and route of administration remain the same as the listed drug product. The change is consistent with dosing recommendations in the listed drug’s labeling, and if bioequivalence is demonstrated, the proposed product can be expected to have the same therapeutic effect without requiring significant labeling changes or additional investigations.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0799-0003_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
+          <t>FDA-2013-P-0862-0006_Denial_Response_Letter_from_FDA_CVM_to_Spec_Pharma.pdf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Date of Response: Not Explicitly Mentioned (likely around early 2015 based on context)</t>
+          <t>October 28, 2014</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Response to Petition: Approved</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); 21 CFR 314.94(a)(9)(iii)</t>
+          <t>21 CFR 514.1(a); 21 CFR 514.100(a)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA approved the petition because the proposed change in drug strength (from 250 mg to 187.5 mg and 375 mg) does not pose questions of safety or effectiveness. The uses, dosage form, and route of administration are the same as the listed drug product. The proposed strengths are consistent with dosing recommendations in the labeling of the reference product, and if bioequivalence requirements are met, the products can be expected to have the same therapeutic effect without requiring significant labeling changes or additional investigations.</t>
+          <t>FDA denied the petition because Luitpold Pharmaceuticals is the applicant of record for the Beta Beta ANDA, and Luitpold provided certifications through FDA Form 356v affirming the validity of its submission. FDA policy allows reliance on the applicant’s certifications and does not require resolution of private ownership disputes before proceeding with regulatory review. The Agency concluded that it was appropriate to continue its review of Beta Vet without requiring Spec Pharma’s consent.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0846-0003_Citizen_Petition_Denial_Reponse_Letter_from_FDA_CD.pdf</t>
+          <t>FDA-2013-P-0885-0003_Interim_Response_from_FDA_CDER__to_AMAG_Pharmaceut.pdf</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Date of Response: November 17, 2014</t>
+          <t>December 4, 2014</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Interim Response (Final response pending)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Section 505(j) of the FD&amp;C Act; 21 CFR 314.3; Section 505(j)(7) of the FD&amp;C Act; Section 505(j)(2)(A)(iv) of the FD&amp;C Act</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because the Israeli-approved version of KUVAN is not a listed drug under the Federal Food, Drug, and Cosmetic Act, and therefore cannot be used as a reference standard for bioequivalence studies. The agency emphasized that small differences between a foreign-approved product and the U.S. RLD could affect critical performance characteristics, and FDA policy does not allow bioequivalence studies using foreign versions unless equivalence to the U.S. RLD has been demonstrated.</t>
+          <t>FDA issued an interim response because it had not yet reached a final decision on the petition due to the need for further review and consideration. The Agency indicated that it would respond fully once the review was complete.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0847-0003_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
+          <t>FDA-2013-P-0886-0005_Response_Letter_from_FDA_CDER_to_Arnall_Golden_Gre.pdf</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Date of Response: Not Explicitly Mentioned (likely March 2024 based on signature timestamp)</t>
+          <t>August 29, 2014</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Response to Petition: Approved</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); 21 CFR 314.94(a)(9)(iii)</t>
+          <t>21 CFR 314.161; 21 CFR 314.162; 21 U.S.C. 355(j)(7)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA approved the petition because the proposed change in strength from 4 mg to 8 mg does not pose questions of safety or effectiveness. The uses, dose, dosage form, and route of administration remain the same as the listed drug product. The change is consistent with dosing recommendations in the listed drug’s labeling, and if bioequivalence is demonstrated, the proposed product can be expected to have the same therapeutic effect without requiring significant labeling changes or additional investigations.</t>
+          <t>FDA approved the petition after determining that JADELLE (levonorgestrel implant, 75 mg) was not withdrawn from sale for reasons of safety or effectiveness. FDA reviewed agency records, postmarketing adverse event data, and literature, concluding there was no evidence of safety or effectiveness concerns prompting the withdrawal. As a result, JADELLE will remain listed in the Discontinued Drug Product List, allowing approval of ANDAs referencing the product if all other legal and regulatory requirements are met.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0862-0006_Denial_Response_Letter_from_FDA_CVM_to_Spec_Pharma.pdf</t>
+          <t>FDA-2013-P-0944-0003_Response_Letter_from_FDA_CDRH_to_Jeffrey_G__Thomas.pdf</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Date of Response: October 28, 2014</t>
+          <t>February 4, 2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CVM</t>
+          <t>CDRH</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied (one request denied as moot, all others denied)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 514.1(a); 21 CFR 514.100(a)</t>
+          <t>21 CFR 814.82; 21 CFR 814.47; Section 515(g)(1) of the FD&amp;C Act; Section 515(e)(3) of the FD&amp;C Act; 21 CFR 801.5; 21 CFR 801.109; 21 CFR 314.161; 21 CFR 314.162; 21 CFR 803.9; 21 CFR 20.63(f)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because Luitpold Pharmaceuticals is the applicant of record for the Beta Beta ANDA, and Luitpold provided certifications through FDA Form 356v affirming the validity of its submission. FDA policy allows reliance on the applicant’s certifications and does not require resolution of private ownership disputes before proceeding with regulatory review. The Agency concluded that it was appropriate to continue its review of Beta Vet without requiring Spec Pharma’s consent.</t>
+          <t>FDA denied the petition because the post-approval study was already completed, labeling was found adequate to ensure safe use, no new evidence justified additional warnings, adverse event reporting compliance did not warrant further FDA investigation, the disclosure requests were outside the scope of a citizen petition, and suspension of the PMA was not supported by any evidence showing serious adverse health consequences or death risk.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0885-0003_Interim_Response_from_FDA_CDER__to_AMAG_Pharmaceut.pdf</t>
+          <t>FDA-2013-P-0945-0003_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Date of Response: December 4, 2014</t>
+          <t>April 17, 2020</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Response to Petition: Interim Response (Final response pending)</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); Section 505(j)(2)(A) and (B) of the Act; Section 505(j)(2)(A)(iv) of the Act</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA issued an interim response because it had not yet reached a final decision on the petition due to the need for further review and consideration. The Agency indicated that it would respond fully once the review was complete.</t>
+          <t>FDA approved the petition because the proposed change in strength from 250 mg to 300 mg does not pose questions of safety or effectiveness. The uses, dose, dosage form, and route of administration are the same as the listed drug. The proposed change is consistent with dosing recommendations in the existing labeling, and if bioequivalence is demonstrated, the new product can be expected to have the same therapeutic effect without requiring significant labeling changes or additional investigations.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0886-0005_Response_Letter_from_FDA_CDER_to_Arnall_Golden_Gre.pdf</t>
+          <t>FDA-2013-P-0947-0003_Letter_from_FDA_CDER_to_Hyman_Phelps_and_McNamara_.pdf</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Date of Response: August 29, 2014</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Response to Petition: Approved</t>
+          <t>Interim Response (Final response pending)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 314.161; 21 CFR 314.162; 21 U.S.C. 355(j)(7)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA approved the petition after determining that JADELLE (levonorgestrel implant, 75 mg) was not withdrawn from sale for reasons of safety or effectiveness. FDA reviewed agency records, postmarketing adverse event data, and literature, concluding there was no evidence of safety or effectiveness concerns prompting the withdrawal. As a result, JADELLE will remain listed in the Discontinued Drug Product List, allowing approval of ANDAs referencing the product if all other legal and regulatory requirements are met.</t>
+          <t>FDA issued an interim response because it had not yet reached a final decision on the petition. The Agency stated that it was still reviewing the petition and would respond fully once the review was complete.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0944-0003_Response_Letter_from_FDA_CDRH_to_Jeffrey_G__Thomas.pdf</t>
+          <t>FDA-2013-P-0949-0008_Response_Letter_from_FDA_CDRH_to_Garrett_Skelly__E.pdf</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Date of Response: February 4, 2023</t>
+          <t>May 30, 2020</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDRH</t>
+          <t>CDRH</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied (one request denied as moot, all others denied)</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 814.82; 21 CFR 814.47; Section 515(g)(1) of the FD&amp;C Act; Section 515(e)(3) of the FD&amp;C Act; 21 CFR 801.5; 21 CFR 801.109; 21 CFR 314.161; 21 CFR 314.162; 21 CFR 803.9; 21 CFR 20.63(f)</t>
+          <t>21 CFR 10.33(i); 21 CFR 10.30(e); 21 CFR 801.109; 21 CFR 890.9; 21 CFR 820.198; 21 CFR 820.200; Section 520(e) of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because the post-approval study was already completed, labeling was found adequate to ensure safe use, no new evidence justified additional warnings, adverse event reporting compliance did not warrant further FDA investigation, the disclosure requests were outside the scope of a citizen petition, and suspension of the PMA was not supported by any evidence showing serious adverse health consequences or death risk.</t>
+          <t>FDA reaffirmed its prior denial because the reconsideration petition did not raise new issues that warranted a different outcome. The agency maintained that changes in labeling require a new 510(k) submission by the manufacturer, that prosthetists properly fulfill their role under the prescription use requirement, and that allegations regarding fraud and ADA discrimination were either outside the scope of reconsideration or irrelevant to FDA’s statutory authority. The request to revoke premarket clearance and amend regulatory requirements was also denied.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0945-0003_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
+          <t>FDA-2013-P-0990-0003_Letter_from_FDA_CDER_to_Corporate_Social_Responsib.pdf</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Date of Response: April 17, 2020</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Response to Petition: Approved</t>
+          <t>Interim Response (Final response pending)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); Section 505(j)(2)(A) and (B) of the Act; Section 505(j)(2)(A)(iv) of the Act</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA approved the petition because the proposed change in strength from 250 mg to 300 mg does not pose questions of safety or effectiveness. The uses, dose, dosage form, and route of administration are the same as the listed drug. The proposed change is consistent with dosing recommendations in the existing labeling, and if bioequivalence is demonstrated, the new product can be expected to have the same therapeutic effect without requiring significant labeling changes or additional investigations.</t>
+          <t>FDA issued an interim response stating that it had not yet reached a final decision on the petition and would fully respond once its review of the petition was complete.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0947-0003_Letter_from_FDA_CDER_to_Hyman_Phelps_and_McNamara_.pdf</t>
+          <t>FDA-2013-P-0997-0005_Petition_Response_Letter_from_FDA_CDRH_to_Thomas_J.pdf</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Date of Response: Not Mentioned</t>
+          <t>June 21, 2020</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDRH</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Response to Petition: Interim Response (Final response pending)</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Not Mentioned</t>
+          <t>21 CFR Part 1030; 21 CFR Part 820; 21 CFR Part 803; 21 CFR Part 801; Sections 501, 502, 519, and 520(f) of the FD&amp;C Act; 21 CFR Parts 1002, 1003, and 1004; Section 531(2) of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA issued an interim response because it had not yet reached a final decision on the petition. The Agency stated that it was still reviewing the petition and would respond fully once the review was complete.</t>
+          <t>FDA denied the petition because it failed to provide sufficient justification demonstrating that new performance standards for Nuclear Magnetic Resonance Imaging devices are necessary. The agency stated that existing regulatory controls, including premarket review, good manufacturing practices, adverse event reporting, and participation in consensus standards development, already ensure the safety and effectiveness of these devices.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0949-0008_Response_Letter_from_FDA_CDRH_to_Garrett_Skelly__E.pdf</t>
+          <t>FDA-2013-P-0998-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Date of Response: May 30, 2020</t>
+          <t>February 9, 2015</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDRH</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 10.33(i); 21 CFR 10.30(e); 21 CFR 801.109; 21 CFR 890.9; 21 CFR 820.198; 21 CFR 820.200; Section 520(e) of the FD&amp;C Act</t>
+          <t>21 U.S.C. 355(j); 21 CFR 314.94(a); 21 CFR 320.1(e); 21 CFR 320.23(b); 21 CFR 320.24(b); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA reaffirmed its prior denial because the reconsideration petition did not raise new issues that warranted a different outcome. The agency maintained that changes in labeling require a new 510(k) submission by the manufacturer, that prosthetists properly fulfill their role under the prescription use requirement, and that allegations regarding fraud and ADA discrimination were either outside the scope of reconsideration or irrelevant to FDA’s statutory authority. The request to revoke premarket clearance and amend regulatory requirements was also denied.</t>
+          <t>FDA denied the petition because the bioequivalence requirements based on the parent drug, albendazole, were found scientifically sufficient. The agency determined there was no need to require bioequivalence testing based on the metabolite albendazole sulfoxide, and differences in labeling and tablet size for generic products did not warrant additional restrictions or studies beyond existing regulatory standards.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0990-0003_Letter_from_FDA_CDER_to_Corporate_Social_Responsib.pdf</t>
+          <t>FDA-2013-P-1000-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Date of Response: Not Mentioned</t>
+          <t>February 9, 2015</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Response to Petition: Interim Response (Final response pending)</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Not Mentioned</t>
+          <t>21 U.S.C. 355(j); 21 CFR 314.94(a); 21 CFR 320.24(b)(1); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA issued an interim response stating that it had not yet reached a final decision on the petition and would fully respond once its review of the petition was complete.</t>
+          <t>FDA denied the petition because the current bioequivalence testing requirements based on the parent compound (albendazole) were deemed scientifically appropriate and sufficient. The agency concluded that additional testing requirements based on the active metabolite were unnecessary, and that existing regulatory requirements ensure product safety and efficacy.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0997-0005_Petition_Response_Letter_from_FDA_CDRH_to_Thomas_J.pdf</t>
+          <t>FDA-2013-P-1001-0005_Response_Letter_from_FDA_CDER_to_Weill_Cornell_Med.pdf</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Date of Response: June 21, 2020</t>
+          <t>March 7, 2022</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDRH</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR Part 1030; 21 CFR Part 820; 21 CFR Part 803; 21 CFR Part 801; Sections 501, 502, 519, and 520(f) of the FD&amp;C Act; 21 CFR Parts 1002, 1003, and 1004; Section 531(2) of the FD&amp;C Act</t>
+          <t>21 CFR Part 341; 21 CFR Part 338; 21 CFR Part 336; 21 CFR 201.63; 21 CFR 201.66(c)(5); 21 USC 352(f)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because it failed to provide sufficient justification demonstrating that new performance standards for Nuclear Magnetic Resonance Imaging devices are necessary. The agency stated that existing regulatory controls, including premarket review, good manufacturing practices, adverse event reporting, and participation in consensus standards development, already ensure the safety and effectiveness of these devices.</t>
+          <t>FDA denied the petition because existing warnings on OTC drugs with anticholinergic effects were deemed sufficient to convey the risks of CNS effects like drowsiness. The agency found that the scientific evidence presented by the petitioner was largely based on prescription drugs, not OTC products, and lacked sufficient specificity to warrant a new mandatory warning for confusion or cognitive impairment. FDA concluded that available postmarketing data and literature did not demonstrate a sufficiently high risk of serious adverse events to justify a labeling change.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0998-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1055-0003_Interim_Response_from_FDA_CDER_to_Actavis_Elizabet.pdf</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Date of Response: February 9, 2015</t>
+          <t>December 4, 2014</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Interim Response (Final response pending)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 U.S.C. 355(j); 21 CFR 314.94(a); 21 CFR 320.1(e); 21 CFR 320.23(b); 21 CFR 320.24(b); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because the bioequivalence requirements based on the parent drug, albendazole, were found scientifically sufficient. The agency determined there was no need to require bioequivalence testing based on the metabolite albendazole sulfoxide, and differences in labeling and tablet size for generic products did not warrant additional restrictions or studies beyond existing regulatory standards.</t>
+          <t>FDA issued an interim response because it had not yet reached a final decision on the petition and required additional time for review and consideration before issuing a full response.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1000-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1056-0004_Letter_from_FDA_CDER_to__Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Date of Response: February 9, 2015</t>
+          <t>December 21, 2018</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Interim Response (Final response pending)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 U.S.C. 355(j); 21 CFR 314.94(a); 21 CFR 320.24(b)(1); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because the current bioequivalence testing requirements based on the parent compound (albendazole) were deemed scientifically appropriate and sufficient. The agency concluded that additional testing requirements based on the active metabolite were unnecessary, and that existing regulatory requirements ensure product safety and efficacy.</t>
+          <t>FDA issued an interim response indicating that additional time was needed to review and fully respond to the citizen petition. A final decision had not yet been made at the time of the letter.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1001-0005_Response_Letter_from_FDA_CDER_to_Weill_Cornell_Med.pdf</t>
+          <t>FDA-2013-P-1079-0010_Petition_Interim_Response_from_FDA_OP_to_MIWG.pdf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Date of Response: March 7, 2022</t>
+          <t>July 28, 2017</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>Office of Policy (OP)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Interim Response (Final response pending)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR Part 341; 21 CFR Part 338; 21 CFR Part 336; 21 CFR 201.63; 21 CFR 201.66(c)(5); 21 USC 352(f)</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because existing warnings on OTC drugs with anticholinergic effects were deemed sufficient to convey the risks of CNS effects like drowsiness. The agency found that the scientific evidence presented by the petitioner was largely based on prescription drugs, not OTC products, and lacked sufficient specificity to warrant a new mandatory warning for confusion or cognitive impairment. FDA concluded that available postmarketing data and literature did not demonstrate a sufficiently high risk of serious adverse events to justify a labeling change.</t>
+          <t>FDA issued an interim response because the petition raised complex issues that required further review and analysis. The agency had delayed the effective date of the related final rule and was still reviewing comments received during the extended comment period before making a final decision.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1055-0003_Interim_Response_from_FDA_CDER_to_Actavis_Elizabet.pdf</t>
+          <t>FDA-2013-P-1080-0004_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Date of Response: December 4, 2014</t>
+          <t>June 2, 2014</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDRH</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Response to Petition: Interim Response (Final response pending)</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Not Mentioned</t>
+          <t>21 CFR 820.198; 21 CFR 820.1(a); Federal Register Vol 61, No 195 (October 7, 1996); Medtronic, Inc. v. Lohr, 116 S. Ct. 2240 (1996)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA issued an interim response because it had not yet reached a final decision on the petition and required additional time for review and consideration before issuing a full response.</t>
+          <t>FDA denied the petition because the requested amendment would impose specific requirements on manufacturers for a particular device type, which is inconsistent with the general and flexible framework of 21 CFR Part 820. The Quality System Regulation is designed to apply broadly across all device types without prescribing detailed requirements for individual devices.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1056-0004_Letter_from_FDA_CDER_to__Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1127-0020_Citizen_Petition_Final_Response_from_FDA_CTP_to_To.pdf</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Date of Response: December 21, 2018</t>
+          <t>May 5, 2016</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>Center for Tobacco Products (CTP)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Response to Petition: Interim Response (Final response pending)</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Not Mentioned</t>
+          <t>5 U.S.C. 551 et seq. (Administrative Procedure Act); 21 CFR 10.30(f); 21 CFR 10.40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA issued an interim response indicating that additional time was needed to review and fully respond to the citizen petition. A final decision had not yet been made at the time of the letter.</t>
+          <t>FDA granted the petition to initiate rulemaking to deem certain non-cigarette tobacco products subject to regulation under Chapter IX of the Federal Food, Drug, and Cosmetic Act, as amended by the Family Smoking Prevention and Tobacco Control Act. FDA had already published a proposed rule in April 2014 and finalized the rule, extending many cigarette and smokeless tobacco restrictions to all tobacco products.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1079-0010_Petition_Interim_Response_from_FDA_OP_to_MIWG.pdf</t>
+          <t>FDA-2013-P-1153-0017_Memorandum_of_Meeting_from_FDA_CDER_re_Meeting_wit.pdf</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Date of Response: July 28, 2017</t>
+          <t>May 1, 2014</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Responding FDA Center: Office of Policy (OP)</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Response to Petition: Interim Response (Final response pending)</t>
+          <t>Not Mentioned (Meeting Memorandum Only)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 10.30(e)(2)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA issued an interim response because the petition raised complex issues that required further review and analysis. The agency had delayed the effective date of the related final rule and was still reviewing comments received during the extended comment period before making a final decision.</t>
+          <t>Not applicable — the document is a meeting memorandum summarizing a listening session with the National Council for Prescription Drug Programs (NCPDP) regarding concerns about nonproprietary naming of biological products and its impact on healthcare systems. No regulatory decision or petition ruling was issued.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1080-0004_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1199-0004_Citizen_Petition_Response_from_FDA_CDER_to_CorePha.pdf</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Date of Response: June 2, 2014</t>
+          <t>March 17, 2014</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDRH</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 820.198; 21 CFR 820.1(a); Federal Register Vol 61, No 195 (October 7, 1996); Medtronic, Inc. v. Lohr, 116 S. Ct. 2240 (1996)</t>
+          <t>21 CFR 10.30(e)(3); 21 CFR 314.94(a)(9)(iii); 21 CFR 320.24</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because the requested amendment would impose specific requirements on manufacturers for a particular device type, which is inconsistent with the general and flexible framework of 21 CFR Part 820. The Quality System Regulation is designed to apply broadly across all device types without prescribing detailed requirements for individual devices.</t>
+          <t>FDA denied the petition because it determined that in vitro bioequivalence studies are appropriate and sufficient for potassium chloride oral solutions, given their simple aqueous nature and history of safe use. The agency concluded that requiring in vivo studies would be unnecessary and inconsistent with established scientific standards.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1127-0020_Citizen_Petition_Final_Response_from_FDA_CTP_to_To.pdf</t>
+          <t>FDA-2013-P-1203-0003_Suitability_Petition_Approval_Letter_from_FDA_CDER.pdf</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Date of Response: May 5, 2016</t>
+          <t>March 17, 2014</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Responding FDA Center: Center for Tobacco Products (CTP)</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Response to Petition: Approved</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 5 U.S.C. 551 et seq. (Administrative Procedure Act); 21 CFR 10.30(f); 21 CFR 10.40</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA granted the petition to initiate rulemaking to deem certain non-cigarette tobacco products subject to regulation under Chapter IX of the Federal Food, Drug, and Cosmetic Act, as amended by the Family Smoking Prevention and Tobacco Control Act. FDA had already published a proposed rule in April 2014 and finalized the rule, extending many cigarette and smokeless tobacco restrictions to all tobacco products.</t>
+          <t>FDA approved the petition because the proposed change in strength from a 200 mL infusion bottle to a 500 mL infusion bag at the same 2 mg/mL concentration does not raise safety or effectiveness concerns. The proposed product shares the same uses, dosage form, dose, and route of administration as the listed drug, and if bioequivalence is demonstrated, it is expected to have the same therapeutic effect without requiring significant labeling changes or additional clinical investigations.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1153-0017_Memorandum_of_Meeting_from_FDA_CDER_re_Meeting_wit.pdf</t>
+          <t>FDA-2013-P-1286-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Date of Response: May 1, 2014</t>
+          <t>February 9, 2015</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Response to Petition: Not Mentioned (Meeting Memorandum Only)</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Not Mentioned</t>
+          <t>21 CFR 314.94(a); 21 CFR 320.1(e); 21 CFR 320.24(b); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Justification for Response: Not applicable — the document is a meeting memorandum summarizing a listening session with the National Council for Prescription Drug Programs (NCPDP) regarding concerns about nonproprietary naming of biological products and its impact on healthcare systems. No regulatory decision or petition ruling was issued.</t>
+          <t>FDA denied the petition because it found that existing requirements for bioequivalence testing based on the parent drug substance are scientifically sufficient and appropriate. FDA concluded that additional bioequivalence testing based on metabolites was unnecessary and that labeling differences raised in the petition did not justify changing the current standards for approval of generic versions of the referenced drug.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1199-0004_Citizen_Petition_Response_from_FDA_CDER_to_CorePha.pdf</t>
+          <t>FDA-2013-P-1287-0004_Citizen_Petition_Dennial_Response_from_FDA_CDER_to.pdf</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Date of Response: March 17, 2014</t>
+          <t>February 9, 2015</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 10.30(e)(3); 21 CFR 314.94(a)(9)(iii); 21 CFR 320.24</t>
+          <t>21 CFR 314.94(a); 21 CFR 320.24(b); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because it determined that in vitro bioequivalence studies are appropriate and sufficient for potassium chloride oral solutions, given their simple aqueous nature and history of safe use. The agency concluded that requiring in vivo studies would be unnecessary and inconsistent with established scientific standards.</t>
+          <t>FDA denied the petition because the bioequivalence requirements based on the parent drug were considered scientifically sufficient. The agency concluded that additional bioequivalence testing based on metabolites was unnecessary and that the labeling concerns raised did not justify changing current standards for the approval of generic versions of the drug.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1203-0003_Suitability_Petition_Approval_Letter_from_FDA_CDER.pdf</t>
+          <t>FDA-2013-P-1288-0007_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Date of Response: March 17, 2014</t>
+          <t>February 9, 2015</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Response to Petition: Approved</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii)</t>
+          <t>21 CFR 314.94(a); 21 CFR 320.24(b); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA approved the petition because the proposed change in strength from a 200 mL infusion bottle to a 500 mL infusion bag at the same 2 mg/mL concentration does not raise safety or effectiveness concerns. The proposed product shares the same uses, dosage form, dose, and route of administration as the listed drug, and if bioequivalence is demonstrated, it is expected to have the same therapeutic effect without requiring significant labeling changes or additional clinical investigations.</t>
+          <t>FDA denied the petition because it determined that bioequivalence testing based on the parent drug is scientifically sufficient. The agency found no need for additional metabolite-based bioequivalence studies or additional restrictions, concluding that the current standards adequately ensure generic drug safety and effectiveness.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1286-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1289-0006_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Date of Response: February 9, 2015</t>
+          <t>February 9, 2015</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 314.94(a); 21 CFR 320.1(e); 21 CFR 320.24(b); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
+          <t>21 CFR 314.94(a); 21 CFR 320.24(b); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because it found that existing requirements for bioequivalence testing based on the parent drug substance are scientifically sufficient and appropriate. FDA concluded that additional bioequivalence testing based on metabolites was unnecessary and that labeling differences raised in the petition did not justify changing the current standards for approval of generic versions of the referenced drug.</t>
+          <t>FDA denied the petition because it concluded that bioequivalence testing based on the parent drug was scientifically appropriate and sufficient. The agency determined that additional metabolite-based bioequivalence studies and labeling restrictions were not necessary to ensure the safety and effectiveness of generic products.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1287-0004_Citizen_Petition_Dennial_Response_from_FDA_CDER_to.pdf</t>
+          <t>FDA-2013-P-1293-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Date of Response: February 9, 2015</t>
+          <t>February 9, 2015</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 314.94(a); 21 CFR 320.24(b); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
+          <t>21 CFR 314.94(a); 21 CFR 320.24(b); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because the bioequivalence requirements based on the parent drug were considered scientifically sufficient. The agency concluded that additional bioequivalence testing based on metabolites was unnecessary and that the labeling concerns raised did not justify changing current standards for the approval of generic versions of the drug.</t>
+          <t>FDA denied the petition because it found that bioequivalence testing based on the parent drug is scientifically sufficient. The agency determined that requiring additional bioequivalence studies based on metabolites or imposing further labeling restrictions was unnecessary to ensure the safety and efficacy of generic drug products.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1288-0007_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1294-0005_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Date of Response: February 9, 2015</t>
+          <t>June 5, 2015</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 314.94(a); 21 CFR 320.24(b); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
+          <t>21 CFR 314.126; 21 CFR 201.57(c)(5); 21 CFR 201.80; Section 505(b)(1) of the FD&amp;C Act; Section 505(c) of the FD&amp;C Act; Section 505(d) of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because it determined that bioequivalence testing based on the parent drug is scientifically sufficient. The agency found no need for additional metabolite-based bioequivalence studies or additional restrictions, concluding that the current standards adequately ensure generic drug safety and effectiveness.</t>
+          <t>FDA denied the petition because while it agreed that objective evidence is important to define the patient population for injectable iron therapy outside of chronic kidney disease (CKD), it declined to mandate a run-in study design. FDA maintained that various scientifically sound methodologies, such as review of medical records, could adequately document intolerance or unsatisfactory response to oral iron. The Agency also denied the request to impose automatic labeling contraindications based on study exclusions, explaining that contraindications must be based on clinical evidence that the risk clearly outweighs any possible benefit.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1289-0006_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1296-0003_Letter_from_FDA_CDER_to_Lannett_Company__Inc_.pdf</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Date of Response: February 9, 2015</t>
+          <t>Not Explicitly Stated (context suggests around April 9, 2019)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDER (Office of Generic Drugs)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 314.94(a); 21 CFR 320.24(b); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
+          <t>Section 505(j)(2)(C) of the FD&amp;C Act; Section 505(j)(2)(A) and (B) of the FD&amp;C Act; Section 505B of the FD&amp;C Act (PREA); 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because it concluded that bioequivalence testing based on the parent drug was scientifically appropriate and sufficient. The agency determined that additional metabolite-based bioequivalence studies and labeling restrictions were not necessary to ensure the safety and effectiveness of generic products.</t>
+          <t>FDA approved the petition because the proposed change in dosage form from extended-release capsules to extended-release tablets does not pose questions of safety or effectiveness. The proposed product shares the same uses, dose, and route of administration as the listed drug, and if bioequivalence is demonstrated, the product can be expected to have the same therapeutic effect. Additionally, pediatric studies were not required because the product does not provide a meaningful therapeutic benefit over existing therapies for pediatric patients under age 12 and is properly labeled for use in older pediatric populations.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1293-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1297-0025_Response_to_Citizen_Petition_from_FDA_CDRH_to_Kevi.pdf</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Date of Response: February 9, 2015</t>
+          <t>March 7, 2022</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>CDRH</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 314.94(a); 21 CFR 320.24(b); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
+          <t>Section 201(h) of the FD&amp;C Act; 21 CFR 801.4; 21 CFR 10.30(e)(1); 21 CFR 10.30(k)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because it found that bioequivalence testing based on the parent drug is scientifically sufficient. The agency determined that requiring additional bioequivalence studies based on metabolites or imposing further labeling restrictions was unnecessary to ensure the safety and efficacy of generic drug products.</t>
+          <t>FDA denied the petition because it determined that addressing the request would require extensive resource commitments not justified by the relatively narrow public health impact of the issue. The Agency concluded that determining the intended use of Harmony Cone Ear Candles would be resource-intensive and that FDA's limited resources are better spent on broader public health priorities. Additionally, the request to stay enforcement actions and the request for a public hearing were denied.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1294-0005_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1297-0025_Response_to_Citizen_Petition_from_FDA_CDRH_to_Kevi.pdf</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Date of Response: June 5, 2015</t>
+          <t>March 7, 2022</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER</t>
+          <t>Center for Devices and Radiological Health (CDRH)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: 21 CFR 314.126; 21 CFR 201.57(c)(5); 21 CFR 201.80; Section 505(b)(1) of the FD&amp;C Act; Section 505(c) of the FD&amp;C Act; Section 505(d) of the FD&amp;C Act</t>
+          <t>21 CFR 10.30(e), 21 CFR 801.4, 21 CFR 10.30(k), 21 U.S.C. 321(h)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because while it agreed that objective evidence is important to define the patient population for injectable iron therapy outside of chronic kidney disease (CKD), it declined to mandate a run-in study design. FDA maintained that various scientifically sound methodologies, such as review of medical records, could adequately document intolerance or unsatisfactory response to oral iron. The Agency also denied the request to impose automatic labeling contraindications based on study exclusions, explaining that contraindications must be based on clinical evidence that the risk clearly outweighs any possible benefit.</t>
+          <t>FDA denied the petition because evaluating the intended use of Harmony Cone Ear Candles (HCEC) to determine if they are devices would require significant Agency resources better allocated elsewhere. Additionally, the request to stay enforcement action was outside the scope of the citizen petition process, and FDA had not initiated any enforcement actions during the petition’s pendency. The agency emphasized the limited public health impact and resource prioritization in declining the petition.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1296-0003_Letter_from_FDA_CDER_to_Lannett_Company__Inc_.pdf</t>
+          <t>FDA-2013-P-1374-0005_Interim_Response_Lette_from_FDA_CDRH_to_Pharmists_.pdf</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Date of Response: Not Explicitly Stated (context suggests around April 9, 2019)</t>
+          <t>March 7, 2014</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDER (Office of Generic Drugs)</t>
+          <t>Center for Devices and Radiological Health (CDRH)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Response to Petition: Approved</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Section 505(j)(2)(C) of the FD&amp;C Act; Section 505(j)(2)(A) and (B) of the FD&amp;C Act; Section 505B of the FD&amp;C Act (PREA); 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii)</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA approved the petition because the proposed change in dosage form from extended-release capsules to extended-release tablets does not pose questions of safety or effectiveness. The proposed product shares the same uses, dose, and route of administration as the listed drug, and if bioequivalence is demonstrated, the product can be expected to have the same therapeutic effect. Additionally, pediatric studies were not required because the product does not provide a meaningful therapeutic benefit over existing therapies for pediatric patients under age 12 and is properly labeled for use in older pediatric populations.</t>
+          <t>FDA issued an interim response stating that it has not yet reached a decision on the citizen petition submitted by Pharmists, Inc. due to the need for further review and analysis. The agency committed to responding to the petition's request once a decision has been made.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1297-0025_Response_to_Citizen_Petition_from_FDA_CDRH_to_Kevi.pdf</t>
+          <t>FDA-2013-P-1376-0004_Final_Response_from_FDA_CDER_to_Buchanan_Ingersoll.pdf</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Date of Response: March 7, 2022</t>
+          <t>August 10, 2017</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Responding FDA Center: CDRH</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Response to Petition: Denied</t>
+          <t>Partially Approved</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cited Statutes or Regulations: Section 201(h) of the FD&amp;C Act; 21 CFR 801.4; 21 CFR 10.30(e)(1); 21 CFR 10.30(k)</t>
+          <t>21 CFR 314.50, 21 CFR 314.94, 21 CFR 320.24, 21 CFR 10.30, 21 CFR 10.45, 21 CFR 314.70(b)(2), 21 CFR 211.110, 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Justification for Response: FDA denied the petition because it determined that addressing the request would require extensive resource commitments not justified by the relatively narrow public health impact of the issue. The Agency concluded that determining the intended use of Harmony Cone Ear Candles would be resource-intensive and that FDA's limited resources are better spent on broader public health priorities. Additionally, the request to stay enforcement actions and the request for a public hearing were denied.</t>
+          <t>FDA dismissed the Exclusivity Petition as moot because any exclusivity would have expired. FDA partially granted the Testing and Bioequivalence Petitions by agreeing that certain testing and study designs for digoxin (an NTI drug) were appropriate, recommending four-way crossover bioequivalence studies using reference-scaled average bioequivalence methodology. However, FDA denied requests to impose fixed narrower bioequivalence intervals (90–111.11%), to revise drug substance assay ranges, and to downgrade TE codes for existing generic digoxin products, citing scientific rationale, current bioequivalence practices, and lack of supporting data for therapeutic nonequivalence.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1297-0025_Response_to_Citizen_Petition_from_FDA_CDRH_to_Kevi.pdf</t>
+          <t>FDA-2013-P-1377-0004_Final_Response_from_FDA_CDER_to_Buchanan_Ingersoll.pdf</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>March 7, 2022</t>
+          <t>August 10, 2017</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Center for Devices and Radiological Health (CDRH)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Partially Approved</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e), 21 CFR 801.4, 21 CFR 10.30(k), 21 U.S.C. 321(h)</t>
+          <t>21 CFR 314.50, 21 CFR 314.94, 21 CFR 320.24, 21 CFR 10.30, 21 CFR 10.45, 21 CFR 314.70(b)(2), 21 CFR 211.110, 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>FDA denied the petition because evaluating the intended use of Harmony Cone Ear Candles (HCEC) to determine if they are devices would require significant Agency resources better allocated elsewhere. Additionally, the request to stay enforcement action was outside the scope of the citizen petition process, and FDA had not initiated any enforcement actions during the petition’s pendency. The agency emphasized the limited public health impact and resource prioritization in declining the petition.</t>
+          <t>FDA dismissed the Exclusivity Petition as moot because the requested exclusivity would have expired. FDA partially granted the Testing and Bioequivalence Petitions by recommending updated bioequivalence study designs for digoxin as a narrow therapeutic index (NTI) drug, including four-way crossover studies with reference-scaled average bioequivalence (RSABE) methodology. FDA denied requests to impose fixed narrower bioequivalence intervals (90–111.11%), to narrow drug substance assay ranges (95–105%), and to downgrade therapeutic equivalence (TE) codes for approved generics, citing scientific evidence supporting the RSABE approach and lack of data to justify changes.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1374-0005_Interim_Response_Lette_from_FDA_CDRH_to_Pharmists_.pdf</t>
+          <t>FDA-2013-P-1379-0004_Letter_from_FDA_CDER_to_Lachman_Consultant_Service.pdf</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>March 7, 2014</t>
+          <t>July 8, 2014</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Center for Devices and Radiological Health (CDRH)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e)(2)</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>FDA issued an interim response stating that it has not yet reached a decision on the citizen petition submitted by Pharmists, Inc. due to the need for further review and analysis. The agency committed to responding to the petition's request once a decision has been made.</t>
+          <t>FDA approved the petition to allow submission of an ANDA for Ondansetron Orally Disintegrating Tablets USP, 4 mg and 8 mg, packaged in unit-dose blister packs, even though the reference listed drug is packaged in child-resistant packaging. The Agency determined that this difference in packaging does not affect the drug’s safety or effectiveness, and therefore does not preclude ANDA submission without additional clinical investigations.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1375-0003_Citizen_Petition_Denial_Response_from_FDA_OC_to_Kl.pdf</t>
+          <t>FDA-2013-P-1398-0013_Memorandum_of_Meeting_from_FDA_CDER_re_Meeting_wit.pdf</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>March 25, 2014</t>
+          <t>May 1, 2014</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Office of the Commissioner (OC)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>21 CFR 10.30, 21 CFR 10.45</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it requested the issuance of a regulation or order based on general dissatisfaction with agency procedures, without providing sufficient factual or legal basis. The petition failed to present specific facts demonstrating that the requested action was warranted under applicable law or regulations.</t>
+          <t>The document is a memorandum summarizing a listening session between FDA and the National Council for Prescription Drug Programs (NCPDP) regarding concerns about nonproprietary naming of biological products. The meeting was informational only, and FDA did not make any decisions or take action regarding the citizen petitions discussed. The summary was posted to the public dockets for transparency.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1376-0004_Final_Response_from_FDA_CDER_to_Buchanan_Ingersoll.pdf</t>
+          <t>FDA-2013-P-1507-0004_Letter_from_FDA_CDER_to_PharmD.pdf</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>August 10, 2017</t>
+          <t>July 26, 2019</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2608,29 +2608,29 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Partially Approved</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>21 CFR 314.50, 21 CFR 314.94, 21 CFR 320.24, 21 CFR 10.30, 21 CFR 10.45, 21 CFR 314.70(b)(2), 21 CFR 211.110, 21 U.S.C. 355(j)</t>
+          <t>21 CFR 10.30, 21 CFR 10.45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FDA dismissed the Exclusivity Petition as moot because any exclusivity would have expired. FDA partially granted the Testing and Bioequivalence Petitions by agreeing that certain testing and study designs for digoxin (an NTI drug) were appropriate, recommending four-way crossover bioequivalence studies using reference-scaled average bioequivalence methodology. However, FDA denied requests to impose fixed narrower bioequivalence intervals (90–111.11%), to revise drug substance assay ranges, and to downgrade TE codes for existing generic digoxin products, citing scientific rationale, current bioequivalence practices, and lack of supporting data for therapeutic nonequivalence.</t>
+          <t>FDA denied the petition because it requested the Agency to ban certain homeopathic drugs without presenting sufficient evidence to demonstrate that regulatory action was warranted. FDA stated that it exercises enforcement discretion over homeopathic products based on public health risk and other factors and that enforcement priorities are addressed through broader regulatory policy rather than individual citizen petitions.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1377-0004_Final_Response_from_FDA_CDER_to_Buchanan_Ingersoll.pdf</t>
+          <t>FDA-2013-P-1508-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>August 10, 2017</t>
+          <t>July 26, 2019</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2640,29 +2640,29 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Partially Approved</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>21 CFR 314.50, 21 CFR 314.94, 21 CFR 320.24, 21 CFR 10.30, 21 CFR 10.45, 21 CFR 314.70(b)(2), 21 CFR 211.110, 21 U.S.C. 355(j)</t>
+          <t>21 CFR 10.30, 21 CFR 10.45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>FDA dismissed the Exclusivity Petition as moot because the requested exclusivity would have expired. FDA partially granted the Testing and Bioequivalence Petitions by recommending updated bioequivalence study designs for digoxin as a narrow therapeutic index (NTI) drug, including four-way crossover studies with reference-scaled average bioequivalence (RSABE) methodology. FDA denied requests to impose fixed narrower bioequivalence intervals (90–111.11%), to narrow drug substance assay ranges (95–105%), and to downgrade therapeutic equivalence (TE) codes for approved generics, citing scientific evidence supporting the RSABE approach and lack of data to justify changes.</t>
+          <t>FDA denied the petition because it requested that FDA ban all homeopathic drugs from the market without providing adequate scientific evidence or legal justification. FDA reiterated that it regulates homeopathic products through a risk-based enforcement approach, focusing on products that pose the greatest risk to public health, rather than issuing a blanket ban as requested.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1379-0004_Letter_from_FDA_CDER_to_Lachman_Consultant_Service.pdf</t>
+          <t>FDA-2013-P-1509-0003_Interim_Response_Letter_from_FDA_CDER_to_Dr_S_Albe.pdf</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>July 8, 2014</t>
+          <t>June 18, 2014</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2672,29 +2672,29 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>FDA approved the petition to allow submission of an ANDA for Ondansetron Orally Disintegrating Tablets USP, 4 mg and 8 mg, packaged in unit-dose blister packs, even though the reference listed drug is packaged in child-resistant packaging. The Agency determined that this difference in packaging does not affect the drug’s safety or effectiveness, and therefore does not preclude ANDA submission without additional clinical investigations.</t>
+          <t>FDA issued an interim response stating that it has not yet reached a decision on the citizen petition submitted by Dr. S. Albert regarding the regulation of certain prescription drugs. The Agency explained that it requires additional time to fully evaluate the issues raised and committed to responding once a final decision is made.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1398-0013_Memorandum_of_Meeting_from_FDA_CDER_re_Meeting_wit.pdf</t>
+          <t>FDA-2013-P-1515-0004_Citizen_Petition_Response_from_FDA_CDER_to_Lachman.pdf</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>May 1, 2014</t>
+          <t>September 23, 2014</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2704,61 +2704,61 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>The document is a memorandum summarizing a listening session between FDA and the National Council for Prescription Drug Programs (NCPDP) regarding concerns about nonproprietary naming of biological products. The meeting was informational only, and FDA did not make any decisions or take action regarding the citizen petitions discussed. The summary was posted to the public dockets for transparency.</t>
+          <t>FDA approved the petition to allow submission of an ANDA referencing Seroquel XR (quetiapine fumarate extended-release tablets) with differences in labeling related to exclusivity-protected information. FDA concluded that the differences in labeling (specifically, removal of indications protected by exclusivity) do not render the proposed generic product less safe or effective for the conditions of use that remain and therefore, no additional clinical investigations were necessary.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1507-0004_Letter_from_FDA_CDER_to_PharmD.pdf</t>
+          <t>FDA-2013-P-1552-0002_Letter_from_FDA_CDRH_to_Hearing_Industries_Associa.pdf</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>July 26, 2019</t>
+          <t>December 5, 2013</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Devices and Radiological Health (CDRH)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>21 CFR 10.30, 21 CFR 10.45</t>
+          <t>21 CFR 874.3305</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it requested the Agency to ban certain homeopathic drugs without presenting sufficient evidence to demonstrate that regulatory action was warranted. FDA stated that it exercises enforcement discretion over homeopathic products based on public health risk and other factors and that enforcement priorities are addressed through broader regulatory policy rather than individual citizen petitions.</t>
+          <t>The letter acknowledges receipt of the petition requesting the reclassification of Wireless Air Conduction Hearing Aids from class II to class I but does not provide a substantive decision on the petition's merits. It only confirms that FDA received the petition.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1508-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1606-0003_Interim_Response_from_FDA_CDER_to_Pharmacists_Plan.pdf</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>July 26, 2019</t>
+          <t>February 3, 2014</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2768,34 +2768,34 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>21 CFR 10.30, 21 CFR 10.45</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it requested that FDA ban all homeopathic drugs from the market without providing adequate scientific evidence or legal justification. FDA reiterated that it regulates homeopathic products through a risk-based enforcement approach, focusing on products that pose the greatest risk to public health, rather than issuing a blanket ban as requested.</t>
+          <t>FDA issued an interim response stating that it has not yet reached a decision on the citizen petition submitted by Pharmacists Planning Services, Inc. The Agency explained that additional time is needed for thorough review and analysis of the petition's issues and committed to responding once a final decision has been made.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1509-0003_Interim_Response_Letter_from_FDA_CDER_to_Dr_S_Albe.pdf</t>
+          <t>FDA-2013-P-1612-0408_Correction_from_FDA_DDM.pdf</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>June 18, 2014</t>
+          <t>February 4, 2014</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
+          <t>Division of Dockets Management (DDM)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2805,61 +2805,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e)(2)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>FDA issued an interim response stating that it has not yet reached a decision on the citizen petition submitted by Dr. S. Albert regarding the regulation of certain prescription drugs. The Agency explained that it requires additional time to fully evaluate the issues raised and committed to responding once a final decision is made.</t>
+          <t>The letter acknowledges receipt and filing of the petition requesting FDA to overturn the decision to rescind the Special Protocol Assessment for VASCEPA and delay the PDUFA date for the ANCHOR sNDA. It clarifies that acceptance for filing is a procedural action and does not reflect any decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1515-0004_Citizen_Petition_Response_from_FDA_CDER_to_Lachman.pdf</t>
+          <t>FDA-2013-P-1614-0003_Interim_Response_from_FDA_CFSAN_to_Global_Shea_All.pdf</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>September 23, 2014</t>
+          <t>August 11, 2015</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Food Safety and Applied Nutrition (CFSAN)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act</t>
+          <t>21 CFR 10.30(e)(2), 21 CFR 163.123, 21 CFR 163.124, 21 CFR 163.130</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>FDA approved the petition to allow submission of an ANDA referencing Seroquel XR (quetiapine fumarate extended-release tablets) with differences in labeling related to exclusivity-protected information. FDA concluded that the differences in labeling (specifically, removal of indications protected by exclusivity) do not render the proposed generic product less safe or effective for the conditions of use that remain and therefore, no additional clinical investigations were necessary.</t>
+          <t>FDA issued an interim response stating that it has not yet reached a decision on the petition requesting amendment of the standards of identity for chocolate to allow optional use of shea-based ingredients. The delay was due to competing agency priorities, and FDA committed to completing its review and considering regulatory amendments as warranted.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1552-0002_Letter_from_FDA_CDRH_to_Hearing_Industries_Associa.pdf</t>
+          <t>FDA-2013-P-1636-0002_Acknowledgement_Letter_from_FDA_DDM_to_Lannett_Com.pdf</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>December 5, 2013</t>
+          <t>December 16, 2013</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Center for Devices and Radiological Health (CDRH)</t>
+          <t>Division of Dockets Management (DDM)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2869,24 +2869,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>21 CFR 874.3305</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>The letter acknowledges receipt of the petition requesting the reclassification of Wireless Air Conduction Hearing Aids from class II to class I but does not provide a substantive decision on the petition's merits. It only confirms that FDA received the petition.</t>
+          <t>The letter acknowledges receipt and filing of the petition requesting a determination that ANDAs may be submitted for Hydromorphone Hydrochloride tablets (1 mg, scored) and Hydromorphone Hydrochloride Oral Solution (1 mg per 5 ml). It clarifies that acceptance of the petition for filing is a procedural matter and does not reflect an agency decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1606-0003_Interim_Response_from_FDA_CDER_to_Pharmacists_Plan.pdf</t>
+          <t>FDA-2013-P-1637-0004_Citizen_Petition_Approval_Letter_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>February 3, 2014</t>
+          <t>November 14, 2014</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2896,175 +2896,47 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e)(2)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>FDA issued an interim response stating that it has not yet reached a decision on the citizen petition submitted by Pharmacists Planning Services, Inc. The Agency explained that additional time is needed for thorough review and analysis of the petition's issues and committed to responding once a final decision has been made.</t>
+          <t>FDA approved Lemtrada (alemtuzumab) for the treatment of multiple sclerosis (MS), thereby granting the relief requested in the petition. The petition had emphasized the urgent need for additional MS treatments due to the severity of the disorder and limitations of existing therapies. FDA’s approval rendered the remaining issues raised in the petition moot.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1612-0408_Correction_from_FDA_DDM.pdf</t>
+          <t>FDA-2013-P-1711-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>February 4, 2014</t>
+          <t>June 12, 2014</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Division of Dockets Management (DDM)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 10.30, 21 CFR 10.45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
-        <is>
-          <t>The letter acknowledges receipt and filing of the petition requesting FDA to overturn the decision to rescind the Special Protocol Assessment for VASCEPA and delay the PDUFA date for the ANCHOR sNDA. It clarifies that acceptance for filing is a procedural action and does not reflect any decision on the substantive merits of the petition.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>FDA-2013-P-1614-0003_Interim_Response_from_FDA_CFSAN_to_Global_Shea_All.pdf</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>August 11, 2015</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Center for Food Safety and Applied Nutrition (CFSAN)</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>21 CFR 10.30(e)(2), 21 CFR 163.123, 21 CFR 163.124, 21 CFR 163.130</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>FDA issued an interim response stating that it has not yet reached a decision on the petition requesting amendment of the standards of identity for chocolate to allow optional use of shea-based ingredients. The delay was due to competing agency priorities, and FDA committed to completing its review and considering regulatory amendments as warranted.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>FDA-2013-P-1636-0002_Acknowledgement_Letter_from_FDA_DDM_to_Lannett_Com.pdf</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>December 16, 2013</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Division of Dockets Management (DDM)</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Not Mentioned</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>The letter acknowledges receipt and filing of the petition requesting a determination that ANDAs may be submitted for Hydromorphone Hydrochloride tablets (1 mg, scored) and Hydromorphone Hydrochloride Oral Solution (1 mg per 5 ml). It clarifies that acceptance of the petition for filing is a procedural matter and does not reflect an agency decision on the substantive merits of the petition.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>FDA-2013-P-1637-0004_Citizen_Petition_Approval_Letter_from_FDA_CDER_to_.pdf</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>November 14, 2014</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Not Mentioned</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>FDA approved Lemtrada (alemtuzumab) for the treatment of multiple sclerosis (MS), thereby granting the relief requested in the petition. The petition had emphasized the urgent need for additional MS treatments due to the severity of the disorder and limitations of existing therapies. FDA’s approval rendered the remaining issues raised in the petition moot.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>FDA-2013-P-1711-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>June 12, 2014</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Denied</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>21 CFR 10.30, 21 CFR 10.45</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
         <is>
           <t>FDA denied the petition requesting the withdrawal of approval of all prescription drugs containing hydrocodone combined with another active ingredient, citing that the petitioner failed to present sufficient evidence demonstrating that such a withdrawal would be scientifically justified. FDA emphasized that decisions regarding withdrawal of drug approvals are made based on a thorough review of all relevant scientific data.</t>
         </is>
@@ -3084,7 +2956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
@@ -3785,12 +3657,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Division of Dockets Management (DMB)</t>
+          <t>Division of Dockets Management (Office of Management Programs, FDA)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other (Acknowledgement of receipt and filing; no substantive decision)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3800,29 +3672,29 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>The letter is an acknowledgment of receipt and filing of a citizen petition requesting a determination on whether Cefotan (cefotetan injection) was withdrawn for reasons of safety or effectiveness. It clarifies that the acceptance of the petition is a procedural matter and does not reflect a decision on its substantive merits.</t>
+          <t>Petition was accepted for filing as a procedural matter that does not reflect any agency decision on the substantive merits</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0151-0003_Acknowledgement_Letter_from_FDA_DMB_to_B__Braun_Me.pdf</t>
+          <t>FDA-2006-P-0203-0005_Interim_Response_from_FDA_CDER_to_Mylan_Pharmaceut.pdf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>October 3, 2006</t>
+          <t>December 5, 2006</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Division of Dockets Management (Office of Management Programs, FDA)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Other (Acknowledgement of receipt and filing; no substantive decision)</t>
+          <t>Other (Interim response; decision not yet made)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3832,29 +3704,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Petition was accepted for filing as a procedural matter that does not reflect any agency decision on the substantive merits</t>
+          <t>FDA has not yet resolved the issues raised due to the need to address other Agency priorities. The response will be provided as soon as possible given the Agency's resource demands.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0203-0005_Interim_Response_from_FDA_CDER_to_Mylan_Pharmaceut.pdf</t>
+          <t>FDA-2006-P-0208-0006_Memo_response_from_FDA_CFSAN_to_Close_Citizen_Peti.pdf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>December 5, 2006</t>
+          <t>July 20, 2020</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Food Safety and Applied Nutrition (CFSAN)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Other (Interim response; decision not yet made)</t>
+          <t>Other (Closed the petition due to lack of response from the petitioner)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3864,29 +3736,29 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FDA has not yet resolved the issues raised due to the need to address other Agency priorities. The response will be provided as soon as possible given the Agency's resource demands.</t>
+          <t>The petition was closed after failing to receive a written response from Dr. Shapses, despite attempts to contact her, and after the 30-day notice period expired.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0208-0006_Memo_response_from_FDA_CFSAN_to_Close_Citizen_Peti.pdf</t>
+          <t>FDA-2006-P-0212-0002_Acknowledgment_Letter_from_FDA_DMB_to_Monosol_Rx__.pdf</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>July 20, 2020</t>
+          <t>March 2, 2006</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Center for Food Safety and Applied Nutrition (CFSAN)</t>
+          <t>Division of Dockets Management (Office of Management Programs, FDA)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Other (Closed the petition due to lack of response from the petitioner)</t>
+          <t>Other (Acknowledgement of receipt and filing; no substantive decision)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3896,29 +3768,29 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>The petition was closed after failing to receive a written response from Dr. Shapses, despite attempts to contact her, and after the 30-day notice period expired.</t>
+          <t>The petition was accepted for filing as a procedural matter that does not reflect any agency decision on the substantive merits</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0212-0002_Acknowledgment_Letter_from_FDA_DMB_to_Monosol_Rx__.pdf</t>
+          <t>FDA-2006-P-0215-0005_Letter_from_FDA_CDER_to_West_ward_Pharmaceutical_C.pdf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>March 2, 2006</t>
+          <t>July 1, 2007</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Division of Dockets Management (Office of Management Programs, FDA)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Other (Acknowledgement of receipt and filing; no substantive decision)</t>
+          <t>FDA determined that Triamcinolone Diacetate Suspension (40 mg/mL) was not withdrawn for safety or efficacy reasons. It will remain in the Discontinued Drug Product List.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3928,19 +3800,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>The petition was accepted for filing as a procedural matter that does not reflect any agency decision on the substantive merits</t>
+          <t>The FDA reviewed its records and determined that the drug was not withdrawn for safety or effectiveness.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0215-0005_Letter_from_FDA_CDER_to_West_ward_Pharmaceutical_C.pdf</t>
+          <t>FDA-2006-P-0265-0005_Interim_Response_Letter_from_FDA_CDER_to_B__Braum_.pdf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>July 1, 2007</t>
+          <t>June 7, 2007</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3950,7 +3822,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FDA determined that Triamcinolone Diacetate Suspension (40 mg/mL) was not withdrawn for safety or efficacy reasons. It will remain in the Discontinued Drug Product List.</t>
+          <t>The FDA determined that CEFOTAN (cefotetan disodium for injection), equivalent 1 g base/vial and 2 g base/vial, was not withdrawn from sale for reasons of safety or effectiveness. The product will remain in the 'Discontinued Drug Product List' of the Orange Book.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3960,19 +3832,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>The FDA reviewed its records and determined that the drug was not withdrawn for safety or effectiveness.</t>
+          <t>The FDA reviewed its records and determined that CEFOTAN was not withdrawn for safety or effectiveness reasons. No data or information was found to suggest otherwise.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0265-0005_Interim_Response_Letter_from_FDA_CDER_to_B__Braum_.pdf</t>
+          <t>FDA-2006-P-0267-0005_Citizen_Petition_Denial_Letter_from_FDA_CDER_to_Ce.pdf</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>June 7, 2007</t>
+          <t>February 21, 2017</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3982,29 +3854,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>The FDA determined that CEFOTAN (cefotetan disodium for injection), equivalent 1 g base/vial and 2 g base/vial, was not withdrawn from sale for reasons of safety or effectiveness. The product will remain in the 'Discontinued Drug Product List' of the Orange Book.</t>
+          <t>FDA denied the citizen petitions requesting the withdrawal of Ziana Gel's approval and the initiation of long-term safety studies on antibiotic resistance. The petitions were denied based on a review of the available evidence.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 U.S.C. 355(e), 21 U.S.C. 355(o), 21 CFR 314.150, 21 CFR 314.161, 21 CFR 7.45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>The FDA reviewed its records and determined that CEFOTAN was not withdrawn for safety or effectiveness reasons. No data or information was found to suggest otherwise.</t>
+          <t>FDA found no evidence to support the withdrawal of Ziana's NDA or the initiation of safety studies. The concerns raised about antibiotic resistance did not warrant a recall or further studies. The available evidence does not indicate that Ziana is linked to significant safety concerns related to antibiotic resistance.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0267-0005_Citizen_Petition_Denial_Letter_from_FDA_CDER_to_Ce.pdf</t>
+          <t>FDA-2006-P-0269-0003_Letter_from_FDA_CDER_to_Hospira__Inc_.pdf</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>February 21, 2017</t>
+          <t>February 2, 2007</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4014,29 +3886,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FDA denied the citizen petitions requesting the withdrawal of Ziana Gel's approval and the initiation of long-term safety studies on antibiotic resistance. The petitions were denied based on a review of the available evidence.</t>
+          <t>The FDA has not yet resolved the issues raised in the citizen petition and is providing an interim response. The petition remains under review due to other Agency priorities and the complexity of the issues.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>21 U.S.C. 355(e), 21 U.S.C. 355(o), 21 CFR 314.150, 21 CFR 314.161, 21 CFR 7.45</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FDA found no evidence to support the withdrawal of Ziana's NDA or the initiation of safety studies. The concerns raised about antibiotic resistance did not warrant a recall or further studies. The available evidence does not indicate that Ziana is linked to significant safety concerns related to antibiotic resistance.</t>
+          <t>The FDA has not reached a decision on the petition yet due to the need for further review and analysis of the issues raised. The response is pending.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0269-0003_Letter_from_FDA_CDER_to_Hospira__Inc_.pdf</t>
+          <t>FDA-2006-P-0271-0003_Letter_from_FDA_CDER_to_Caraco_Pharmaceutical_Lab_.pdf</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>February 2, 2007</t>
+          <t>February 21, 2007</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4063,7 +3935,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0271-0003_Letter_from_FDA_CDER_to_Caraco_Pharmaceutical_Lab_.pdf</t>
+          <t>FDA-2006-P-0275-0006_Citizen_Petition_Denial_from_FDA_CDER_to_KV_Pharma.pdf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4078,39 +3950,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The FDA has not yet resolved the issues raised in the citizen petition and is providing an interim response. The petition remains under review due to other Agency priorities and the complexity of the issues.</t>
+          <t>The FDA has denied the citizen petition. The petition is moot because the requested actions have already been addressed, including the relisting of the patent and the approval of KV's ANDA.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e)(2)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>The FDA has not reached a decision on the petition yet due to the need for further review and analysis of the issues raised. The response is pending.</t>
+          <t>the '714 patent was relisted in the Orange Book, ANDA No. 76-640 was approved, and KV's 180-day exclusivity was recognized.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0275-0006_Citizen_Petition_Denial_from_FDA_CDER_to_KV_Pharma.pdf</t>
+          <t>FDA-2006-P-0281-0002_Acknowledgement_Letter_from_FDA_DMB_to_Kendle_Inte.pdf</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>February 21, 2007</t>
+          <t>September 27, 2006</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
+          <t>Division of Dockets Management, Office of Management Programs</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>The FDA has denied the citizen petition. The petition is moot because the requested actions have already been addressed, including the relisting of the patent and the approval of KV's ANDA.</t>
+          <t>The petition was accepted for filing, but this does not reflect an agency decision on the substantive merits of the petition.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -4120,19 +3992,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>The FDA found the petition moot because the requested actions were already taken: the '714 patent was relisted in the Orange Book, ANDA No. 76-640 was approved, and KV's 180-day exclusivity was recognized.</t>
+          <t>The acceptance of the petition for filing is a procedural matter and does not indicate a decision on the substantive issues raised by the petition.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0281-0002_Acknowledgement_Letter_from_FDA_DMB_to_Kendle_Inte.pdf</t>
+          <t>FDA-2006-P-0286-0002_Acknowledgment_Letter_from_FDA_DMB_to_Strides_Inc_.pdf</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>September 27, 2006</t>
+          <t>May 15, 2006</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4159,108 +4031,108 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0286-0002_Acknowledgment_Letter_from_FDA_DMB_to_Strides_Inc_.pdf</t>
+          <t>FDA-2006-P-0331-0008_Citizen_Petition_Approval_Denial_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>May 15, 2006</t>
+          <t>September 15, 2009</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Division of Dockets Management, Office of Management Programs</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>The petition was accepted for filing, but this does not reflect an agency decision on the substantive merits of the petition.</t>
+          <t>The FDA granted the Sandoz, Rakoczy, and Orchid Petitions and granted Wyeth's petition in part and denied it in part.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 U.S.C. 355(j), 21 CFR 314.94(a)(9)(iii), 21 CFR 314.99(b), 21 CFR 314.127(a)(8)(ii)(B)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>The acceptance of the petition for filing is a procedural matter and does not indicate a decision on the substantive issues raised by the petition.</t>
+          <t>The FDA determined that the original Zosyn formulation was not discontinued for reasons of safety or efficacy. It also determined that Orchid's generic piperacillin and tazobactam for injection, duplicating the original formulation, meets safety and efficacy standards under the labeled conditions of use. The agency granted approval for ANDAs for piperacillin and tazobactam for injection, provided the regulatory requirements are met.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0331-0008_Citizen_Petition_Approval_Denial_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2006-P-0332-0003_Citizen_Petition_Approval_from_FDA_CVM_to_Sparhawk.pdf</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>September 15, 2009</t>
+          <t>September 6, 2006</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Veterinary Medicine (CVM)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>The FDA granted the Sandoz, Rakoczy, and Orchid Petitions and granted Wyeth's petition in part and denied it in part.</t>
+          <t>The FDA approved the suitability petition, allowing Sparhawk Laboratories to submit an abbreviated new animal drug application (ANADA) for a generic product with a change in dosage form.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>21 U.S.C. 355(j), 21 CFR 314.94(a)(9)(iii), 21 CFR 314.99(b), 21 CFR 314.127(a)(8)(ii)(B)</t>
+          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act (FFDCA)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>The FDA determined that the original Zosyn formulation was not discontinued for reasons of safety or efficacy. It also determined that Orchid's generic piperacillin and tazobactam for injection, duplicating the original formulation, meets safety and efficacy standards under the labeled conditions of use. The agency granted approval for ANDAs for piperacillin and tazobactam for injection, provided the regulatory requirements are met.</t>
+          <t>The FDA approved the petition because the proposed change in dosage form (from soluble powder to oral solution) is permissible under section 512(n)(3) of the FFDCA. The approval does not guarantee approval of the ANADA but permits the submission of the ANADA for review.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0332-0003_Citizen_Petition_Approval_from_FDA_CVM_to_Sparhawk.pdf</t>
+          <t>FDA-2006-P-0334-0004_Acknowledgment_Letter_from_FDA_DMB_to_Center_for_S.pdf</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>September 6, 2006</t>
+          <t>December 19, 2006</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Center for Veterinary Medicine (CVM)</t>
+          <t>Division of Dockets Management, Office of Management Programs</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>The FDA approved the suitability petition, allowing Sparhawk Laboratories to submit an abbreviated new animal drug application (ANADA) for a generic product with a change in dosage form.</t>
+          <t>The FDA acknowledged the petition and closed Docket Number 2006P-0506, transferring all documents to Docket Number 2006P-0498.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act (FFDCA)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>The FDA approved the petition because the proposed change in dosage form (from soluble powder to oral solution) is permissible under section 512(n)(3) of the FFDCA. The approval does not guarantee approval of the ANADA but permits the submission of the ANADA for review.</t>
+          <t>The acceptance of the petition for filing is a procedural matter and does not reflect a decision on the substantive merits of the petition. The FDA closed one docket number and consolidated the documents into another.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0334-0004_Acknowledgment_Letter_from_FDA_DMB_to_Center_for_S.pdf</t>
+          <t>FDA-2006-P-0345-0005_Acknowledgment_Letter_from_FDA_DMB_to_King___Spald.pdf</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>December 19, 2006</t>
+          <t>February 22, 2006</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4270,7 +4142,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The FDA acknowledged the petition and closed Docket Number 2006P-0506, transferring all documents to Docket Number 2006P-0498.</t>
+          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0084/CP1.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4280,19 +4152,19 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>The acceptance of the petition for filing is a procedural matter and does not reflect a decision on the substantive merits of the petition. The FDA closed one docket number and consolidated the documents into another.</t>
+          <t>The acceptance of the petition for filing is a procedural matter and does not reflect a decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0345-0005_Acknowledgment_Letter_from_FDA_DMB_to_King___Spald.pdf</t>
+          <t>FDA-2006-P-0387-0001_Acknowledgment_Letter_from_FDA_DMB_to_Orchid_Healt.pdf</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>February 22, 2006</t>
+          <t>June 20, 2006</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4302,7 +4174,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0084/CP1.</t>
+          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0255/CP1.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4319,12 +4191,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0387-0001_Acknowledgment_Letter_from_FDA_DMB_to_Orchid_Healt.pdf</t>
+          <t>FDA-2006-P-0389-0003_Acknowledgment_Letter_from_FDA_DMB_to_M__McDole.pdf</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>June 20, 2006</t>
+          <t>November 29, 2006</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4334,7 +4206,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0255/CP1.</t>
+          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0484/CP1.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4351,76 +4223,76 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0389-0003_Acknowledgment_Letter_from_FDA_DMB_to_M__McDole.pdf</t>
+          <t>FDA-2006-P-0391-0012_Citizen_Petition_Approval_from_FDA_CDER_to_Orchid_.pdf</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>November 29, 2006</t>
+          <t>September 15, 2009</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Division of Dockets Management, Office of Management Programs</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0484/CP1.</t>
+          <t>The FDA granted the Sandoz, Rakoczy, and Orchid petitions and granted Wyeth's petition in part and denied it in part.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 U.S.C. 355(j), 21 CFR 314.94(a)(9)(iii), 21 CFR 314.99(b), 21 CFR 314.127(a)(8)(ii)(B)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>The acceptance of the petition for filing is a procedural matter and does not reflect a decision on the substantive merits of the petition.</t>
+          <t>The FDA determined that the original Zosyn formulation was not discontinued for reasons of safety or efficacy. It also determined that Orchid's generic piperacillin and tazobactam for injection, duplicating the original formulation, meets safety and efficacy standards under the labeled conditions of use. The agency granted approval for ANDAs for piperacillin and tazobactam for injection, provided the regulatory requirements are met.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0391-0012_Citizen_Petition_Approval_from_FDA_CDER_to_Orchid_.pdf</t>
+          <t>FDA-2006-P-0401-0002_Acknowledgment_Letter_from_FDA_DMB_to_Sicor_Pharma.pdf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>September 15, 2009</t>
+          <t>May 1, 2006</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
+          <t>Division of Dockets Management, Office of Management Programs</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>The FDA granted the Sandoz, Rakoczy, and Orchid petitions and granted Wyeth's petition in part and denied it in part.</t>
+          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0177/CP1.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>21 U.S.C. 355(j), 21 CFR 314.94(a)(9)(iii), 21 CFR 314.99(b), 21 CFR 314.127(a)(8)(ii)(B)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>The FDA determined that the original Zosyn formulation was not discontinued for reasons of safety or efficacy. It also determined that Orchid's generic piperacillin and tazobactam for injection, duplicating the original formulation, meets safety and efficacy standards under the labeled conditions of use. The agency granted approval for ANDAs for piperacillin and tazobactam for injection, provided the regulatory requirements are met.</t>
+          <t>The acceptance of the petition for filing is a procedural matter and does not reflect a decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0401-0002_Acknowledgment_Letter_from_FDA_DMB_to_Sicor_Pharma.pdf</t>
+          <t>FDA-2006-P-0442-0002_Acknowledgment_Letter_from_FDA_DMB_to_West_Ward_Ph.pdf</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>May 1, 2006</t>
+          <t>May 10, 2006</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4430,7 +4302,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0177/CP1.</t>
+          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0196/CP1.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4447,44 +4319,44 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0442-0002_Acknowledgment_Letter_from_FDA_DMB_to_West_Ward_Ph.pdf</t>
+          <t>FDA-2006-P-0450-0003_Letter_from_FDA_CDER_to_Lord__Bissell___Brook_LLP.pdf</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>May 10, 2006</t>
+          <t>September 5, 2006</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Division of Dockets Management, Office of Management Programs</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0196/CP1.</t>
+          <t>The FDA has not yet resolved the issues raised in the citizen petition and is providing an interim response.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>The acceptance of the petition for filing is a procedural matter and does not reflect a decision on the substantive merits of the petition.</t>
+          <t>The FDA has not made a decision on the petition yet, as it involves complex issues that require extensive review and analysis by Agency officials. This interim response was issued in accordance with FDA regulations on citizen petitions.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0450-0003_Letter_from_FDA_CDER_to_Lord__Bissell___Brook_LLP.pdf</t>
+          <t>FDA-2006-P-0453-0003_Interim_Response_from_FDA_CDER_to_John_C_Kulli_MD.pdf</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>September 5, 2006</t>
+          <t>September 6, 2006</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4511,12 +4383,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0453-0003_Interim_Response_from_FDA_CDER_to_John_C_Kulli_MD.pdf</t>
+          <t>FDA-2006-P-0458-0007_Memorandum_of_Withdrawal_from_FDA_CDER_to_DDM.pdf</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>September 6, 2006</t>
+          <t>November 27, 2015</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4526,29 +4398,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>The FDA has not yet resolved the issues raised in the citizen petition and is providing an interim response.</t>
+          <t>The citizen petition was voluntarily withdrawn without prejudice to resubmission.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e)(2)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>The FDA has not made a decision on the petition yet, as it involves complex issues that require extensive review and analysis by Agency officials. This interim response was issued in accordance with FDA regulations on citizen petitions.</t>
+          <t>The petition was withdrawn because no response was received from the petitioner after being notified by the FDA. The withdrawal was done in accordance with the FDA's procedural regulations and does not prevent the petition from being resubmitted in the future.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0458-0007_Memorandum_of_Withdrawal_from_FDA_CDER_to_DDM.pdf</t>
+          <t>FDA-2006-P-0461-0015_Denial_of_Citizen_Petition_from_FDA_CDER_to_UCB__I.pdf</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>November 27, 2015</t>
+          <t>September 5, 2006</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4558,7 +4430,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>The citizen petition was voluntarily withdrawn without prejudice to resubmission.</t>
+          <t>The FDA denied the citizen petition.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4568,29 +4440,29 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>The petition was withdrawn because no response was received from the petitioner after being notified by the FDA. The withdrawal was done in accordance with the FDA's procedural regulations and does not prevent the petition from being resubmitted in the future.</t>
+          <t>The petition was denied based on the FDA's review, which concluded that the safety and efficacy concerns raised in the petition did not warrant the requested action. The agency found no grounds to change its approval status based on the provided evidence.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0461-0015_Denial_of_Citizen_Petition_from_FDA_CDER_to_UCB__I.pdf</t>
+          <t>FDA-2006-P-0514-0002_Acknowledgement_Letter_from_FDA_DMB_to_Kirkpatrick.pdf</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>September 5, 2006</t>
+          <t>September 7, 2006</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
+          <t>Division of Dockets Management, Office of Management Programs</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>The FDA denied the citizen petition.</t>
+          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0369/CP1.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4600,19 +4472,19 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>The petition was denied based on the FDA's review, which concluded that the safety and efficacy concerns raised in the petition did not warrant the requested action. The agency found no grounds to change its approval status based on the provided evidence.</t>
+          <t>The acceptance of the petition for filing is a procedural matter and does not reflect a decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0514-0002_Acknowledgement_Letter_from_FDA_DMB_to_Kirkpatrick.pdf</t>
+          <t>FDA-2006-P-0534-0004_Acknowledgment_Letter_from_FDA_DMB_to_B__Braun_Med.pdf</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>September 7, 2006</t>
+          <t>October 3, 2006</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4622,7 +4494,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0369/CP1.</t>
+          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0403/CP1.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4639,22 +4511,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FDA-2006-P-0534-0004_Acknowledgment_Letter_from_FDA_DMB_to_B__Braun_Med.pdf</t>
+          <t>FDA-2006-P-0542-0004_Citizen_Petition_Denial_from_FDA_CDER_to_James_Q__.pdf</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>October 3, 2006</t>
+          <t>July 25, 2006</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Division of Dockets Management, Office of Management Programs</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>The FDA acknowledged the petition and filed it under docket number 2006P-0403/CP1.</t>
+          <t>The FDA denied the citizen petition.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4663,38 +4535,6 @@
         </is>
       </c>
       <c r="F49" t="inlineStr">
-        <is>
-          <t>The acceptance of the petition for filing is a procedural matter and does not reflect a decision on the substantive merits of the petition.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>FDA-2006-P-0542-0004_Citizen_Petition_Denial_from_FDA_CDER_to_James_Q__.pdf</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>July 25, 2006</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>The FDA denied the citizen petition.</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Not Mentioned</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
         <is>
           <t>The petition was denied because the FDA concluded that there is no basis for making the requested changes to NIST Handbook 44 or the USP. The FDA explained that the determination of average pill weight for dispensing is a pharmacy practice regulated by state law, not by the FDA. Additionally, the requested changes to NIST and USP do not reflect an FDA requirement, and the agency does not regulate pharmacy quality control procedures in this context.</t>
         </is>
@@ -4886,7 +4726,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The letter confirms receipt of a citizen petition requesting FDA to: (1) revise its Safety Communication to allow gene-drug interaction information in genetic test reports; (2) allow medication-specific information in PGx test reports under the First Amendment and practice of medicine provisions without premarket submission; and (3) follow notice-and-comment rulemaking and hold a public hearing for future PGx policy development. The letter clarifies that acceptance for filing is procedural and does not reflect a decision on the petition’s merits.</t>
+          <t>(1) revise its Safety Communication to allow gene-drug interaction information in genetic test reports; (2) allow medication-specific information in PGx test reports under the First Amendment and practice of medicine provisions without premarket submission; and (3) follow notice-and-comment rulemaking and hold a public hearing for future PGx policy development. The letter clarifies that acceptance for filing is procedural and does not reflect a decision on the petition’s merits.</t>
         </is>
       </c>
     </row>
@@ -4918,7 +4758,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The FDA acknowledged receipt of the citizen petition from Sidley Austin LLP on behalf of Vifor. The petition requested FDA to: (1) issue guidance that the ANDA pathway is not appropriate for certain complex drugs already identified as harder-to-copy, and (2) clarify in planned guidance that a follow-on complex drug approved under 505(b)(2) can be deemed therapeutically equivalent to its RLD when it meets specific criteria. The letter notes that acceptance for filing is procedural and does not indicate a decision on the petition’s merits.</t>
+          <t>(1) issue guidance that the ANDA pathway is not appropriate for certain complex drugs already identified as harder-to-copy, and (2) clarify in planned guidance that a follow-on complex drug approved under 505(b)(2) can be deemed therapeutically equivalent to its RLD when it meets specific criteria. The letter notes that acceptance for filing is procedural and does not indicate a decision on the petition’s merits.</t>
         </is>
       </c>
     </row>
@@ -7074,27 +6914,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1. Date of Response: January 26, 2023</t>
+          <t>January 26, 2023</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Food Safety and Applied Nutrition (CFSAN)</t>
+          <t>Center for Food Safety and Applied Nutrition (CFSAN)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 U.S.C. 321(ff)(3)(B), 21 U.S.C. 350b, 21 CFR 10.30, 21 CFR 190.6, 21 U.S.C. 342(f)(1)(B), 7 U.S.C. § 1639r(c)</t>
+          <t>21 U.S.C. 321(ff)(3)(B), 21 U.S.C. 350b, 21 CFR 10.30, 21 CFR 190.6, 21 U.S.C. 342(f)(1)(B), 7 U.S.C. § 1639r(c)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition due to significant safety concerns regarding the use of cannabidiol (CBD) as a dietary supplement. These concerns include potential harm to the liver, reproductive system, and interactions with other medications. The FDA concluded that current evidence does not demonstrate a safe level of CBD and that CBD does not meet the safety standard for dietary supplements under the FD&amp;C Act. The agency also stated that the exclusion clause in section 201(ff)(3)(B) of the FD&amp;C Act still applies and that the 2018 Farm Bill did not alter FDA's regulatory authority in this context.</t>
+          <t>The FDA denied the petition due to significant safety concerns regarding the use of cannabidiol (CBD) as a dietary supplement. These concerns include potential harm to the liver, reproductive system, and interactions with other medications. The FDA concluded that current evidence does not demonstrate a safe level of CBD and that CBD does not meet the safety standard for dietary supplements under the FD&amp;C Act. The agency also stated that the exclusion clause in section 201(ff)(3)(B) of the FD&amp;C Act still applies and that the 2018 Farm Bill did not alter FDA's regulatory authority in this context.</t>
         </is>
       </c>
     </row>
@@ -7138,27 +6978,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1. Date of Response: June 23, 2020</t>
+          <t>June 23, 2020</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter states that the acceptance of the petition for filing is a procedural matter and does not reflect an agency decision on the substantive merits of the petition</t>
+          <t>The letter states that the acceptance of the petition for filing is a procedural matter and does not reflect an agency decision on the substantive merits of the petition</t>
         </is>
       </c>
     </row>
@@ -7170,27 +7010,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1. Date of Response: May 19, 2023</t>
+          <t>May 19, 2023</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 201.56, 21 CFR 201.57, 21 CFR 201.100(c), 21 CFR 201.80, 21 CFR 201.57(c)(5), 21 CFR 201.57(c)(1), 21 CFR 201.57(c)(6)(i), Sections 201(n) and 502(a) of the Federal Food, Drug, and Cosmetic Act, Section 505(o)(4) of the Federal Food, Drug, and Cosmetic Act</t>
+          <t>21 CFR 201.56, 21 CFR 201.57, 21 CFR 201.100(c), 21 CFR 201.80, 21 CFR 201.57(c)(5), 21 CFR 201.57(c)(1), 21 CFR 201.57(c)(6)(i), Sections 201(n) and 502(a) of the Federal Food, Drug, and Cosmetic Act, Section 505(o)(4) of the Federal Food, Drug, and Cosmetic Act</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA concluded that although SGLT2 inhibitors are not approved for use in type 1 diabetes mellitus (T1DM), existing labeling appropriately warns of the associated risks, such as diabetic ketoacidosis (DKA), in the WARNINGS AND PRECAUTIONS section. The FDA determined that current evidence does not warrant a contraindication or boxed warning and that existing safety labeling already reflects essential information for prescribers. Data cited in the petition were deemed insufficient or problematic due to variability in trial quality, lack of peer review, inconsistent DKA adjudication, and limitations in the meta-analysis and adverse event data interpretation.</t>
+          <t>The FDA concluded that although SGLT2 inhibitors are not approved for use in type 1 diabetes mellitus (T1DM), existing labeling appropriately warns of the associated risks, such as diabetic ketoacidosis (DKA), in the WARNINGS AND PRECAUTIONS section. The FDA determined that current evidence does not warrant a contraindication or boxed warning and that existing safety labeling already reflects essential information for prescribers. Data cited in the petition were deemed insufficient or problematic due to variability in trial quality, lack of peer review, inconsistent DKA adjudication, and limitations in the meta-analysis and adverse event data interpretation.</t>
         </is>
       </c>
     </row>
@@ -7202,27 +7042,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1. Date of Response: December 18, 2020</t>
+          <t>December 18, 2020</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER), Office of Regulatory Policy</t>
+          <t>Center for Drug Evaluation and Research (CDER), Office of Regulatory Policy</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Interim response; no final decision yet</t>
+          <t>Interim response; no final decision yet</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e)(2)</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA stated that the petition raises complex issues requiring extensive review and analysis, and therefore a final decision has not yet been reached. The interim response is issued in accordance with FDA regulations on citizen petitions.</t>
+          <t>The FDA stated that the petition raises complex issues requiring extensive review and analysis, and therefore a final decision has not yet been reached. The interim response is issued in accordance with FDA regulations on citizen petitions.</t>
         </is>
       </c>
     </row>
@@ -7234,27 +7074,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1. Date of Response: December 11, 2020</t>
+          <t>December 11, 2020</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER), Office of Regulatory Policy</t>
+          <t>Center for Drug Evaluation and Research (CDER), Office of Regulatory Policy</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Interim response; no final decision yet</t>
+          <t>Interim response; no final decision yet</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e)(2)</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA stated that the petition raises complex issues that require extensive review and analysis by Agency officials. As a result, a final decision has not yet been reached, and an interim response is issued in accordance with the relevant regulations.</t>
+          <t>The FDA stated that the petition raises complex issues that require extensive review and analysis by Agency officials. As a result, a final decision has not yet been reached, and an interim response is issued in accordance with the relevant regulations.</t>
         </is>
       </c>
     </row>
@@ -7266,27 +7106,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1. Date of Response: November 29, 2022</t>
+          <t>November 29, 2022</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Biologics Evaluation and Research (CBER)</t>
+          <t>Center for Biologics Evaluation and Research (CBER)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Granted in part and denied in part</t>
+          <t>Granted in part and denied in part</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 42 U.S.C. 262(i), 21 U.S.C. 321(g), 42 U.S.C. 262(a)(2)(C), 42 U.S.C. 262(a)(3), 21 U.S.C. 355(i), 21 CFR Part 312, 21 CFR 10.25(a), 21 CFR 10.3(a), 21 CFR 10.30(e), 21 CFR 10.30(k)</t>
+          <t>42 U.S.C. 262(i), 21 U.S.C. 321(g), 42 U.S.C. 262(a)(2)(C), 42 U.S.C. 262(a)(3), 21 U.S.C. 355(i), 21 CFR Part 312, 21 CFR 10.25(a), 21 CFR 10.3(a), 21 CFR 10.30(e), 21 CFR 10.30(k)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA finalized the 2016 draft guidance with the 2022 FMT Enforcement Policy Guidance, which maintains enforcement discretion under limited circumstances but excludes stool banks due to safety concerns. FDA considered the request to expand or revise its enforcement policy but found no need for further guidance or policy revisions at this time. The Agency also declined to state that the guidance is interim or commit to future changes based on hypothetical product approvals, emphasizing ongoing policy evaluation as scientific evidence evolves.</t>
+          <t>The FDA finalized the 2016 draft guidance with the 2022 FMT Enforcement Policy Guidance, which maintains enforcement discretion under limited circumstances but excludes stool banks due to safety concerns. FDA considered the request to expand or revise its enforcement policy but found no need for further guidance or policy revisions at this time. The Agency also declined to state that the guidance is interim or commit to future changes based on hypothetical product approvals, emphasizing ongoing policy evaluation as scientific evidence evolves.</t>
         </is>
       </c>
     </row>
@@ -7298,27 +7138,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1. Date of Response: July 8, 2020</t>
+          <t>July 8, 2020</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter states that the acceptance of the petition for filing is a procedural matter and does not reflect an agency decision on the substantive merits of the petition.</t>
+          <t>The letter states that the acceptance of the petition for filing is a procedural matter and does not reflect an agency decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -7330,27 +7170,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1. Date of Response: December 21, 2020</t>
+          <t>December 21, 2020</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER), Office of Regulatory Policy</t>
+          <t>Center for Drug Evaluation and Research (CDER), Office of Regulatory Policy</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied (FDA determined the drug was not withdrawn for safety or effectiveness reasons)</t>
+          <t>Denied (FDA determined the drug was not withdrawn for safety or effectiveness reasons)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>5. Justification for Response: FDA reviewed its records and concluded that Dobutrex (dobutamine hydrochloride) was not withdrawn from sale for reasons of safety or effectiveness. Therefore, it will remain listed in the Discontinued Drug Product List section of the Orange Book.</t>
+          <t>FDA reviewed its records and concluded that Dobutrex (dobutamine hydrochloride) was not withdrawn from sale for reasons of safety or effectiveness. Therefore, it will remain listed in the Discontinued Drug Product List section of the Orange Book.</t>
         </is>
       </c>
     </row>
@@ -7362,27 +7202,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1. Date of Response: July 13, 2020</t>
+          <t>July 13, 2020</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter clarifies that acceptance of the petition for filing is a procedural matter and does not reflect a decision on the substantive merits of the petition.</t>
+          <t>The letter clarifies that acceptance of the petition for filing is a procedural matter and does not reflect a decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -7394,27 +7234,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 17, 2021</t>
+          <t>September 17, 2021</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 U.S.C. 360n (FD&amp;C Act §524), 21 U.S.C. 321(g), 21 U.S.C. 355(i), 21 CFR Part 312, 21 U.S.C. 355f (FD&amp;C Act §505E(d)), 21 U.S.C. 360ff (FD&amp;C Act §529), 21 U.S.C. 360bb (FD&amp;C Act §526)</t>
+          <t>21 U.S.C. 360n (FD&amp;C Act §524), 21 U.S.C. 321(g), 21 U.S.C. 355(i), 21 CFR Part 312, 21 U.S.C. 355f (FD&amp;C Act §505E(d)), 21 U.S.C. 360ff (FD&amp;C Act §529), 21 U.S.C. 360bb (FD&amp;C Act §526)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition to add sickle cell disease to the Neglected Tropical Disease Priority Review Voucher list because, by statutory definition, tropical diseases must be infectious. Sickle cell disease is a genetic condition and thus does not meet the criteria. The FDA also denied the creation of a new PRV list for non-infectious diseases affecting underserved populations, stating this falls outside the authority granted by the current law. However, FDA acknowledged the importance of treatments for sickle cell disease and pointed to other available incentive programs such as rare pediatric disease and orphan drug designations.</t>
+          <t>The FDA denied the petition to add sickle cell disease to the Neglected Tropical Disease Priority Review Voucher list because, by statutory definition, tropical diseases must be infectious. Sickle cell disease is a genetic condition and thus does not meet the criteria. The FDA also denied the creation of a new PRV list for non-infectious diseases affecting underserved populations, stating this falls outside the authority granted by the current law. However, FDA acknowledged the importance of treatments for sickle cell disease and pointed to other available incentive programs such as rare pediatric disease and orphan drug designations.</t>
         </is>
       </c>
     </row>
@@ -7426,27 +7266,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1. Date of Response: January 15, 2021</t>
+          <t>January 15, 2021</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER), Office of Regulatory Policy</t>
+          <t>Center for Drug Evaluation and Research (CDER), Office of Regulatory Policy</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Interim response; no final decision yet</t>
+          <t>Interim response; no final decision yet</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e)(2)</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA stated that a final decision has not been reached due to the need to address other agency priorities. An interim response is being provided in accordance with the regulations governing citizen petitions.</t>
+          <t>The FDA stated that a final decision has not been reached due to the need to address other agency priorities. An interim response is being provided in accordance with the regulations governing citizen petitions.</t>
         </is>
       </c>
     </row>
@@ -7458,27 +7298,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1. Date of Response: December 18, 2024</t>
+          <t>December 18, 2024</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Biologics Evaluation and Research (CBER)</t>
+          <t>Center for Biologics Evaluation and Research (CBER)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied (first request), Moot (second request)</t>
+          <t>Denied (first request), Moot (second request)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e)(3), 21 CFR 601.3(a), 21 CFR 601.3(b), 42 U.S.C. § 262(a), 21 CFR 600.3(s), 21 CFR 314.126, 21 CFR 312.80, 21 CFR 314.126(b)(2)(v), 21 U.S.C. § 355(d), 21 U.S.C. § 360ff, 21 U.S.C. § 355f</t>
+          <t>21 CFR 10.30(e)(3), 21 CFR 601.3(a), 21 CFR 601.3(b), 42 U.S.C. § 262(a), 21 CFR 600.3(s), 21 CFR 314.126, 21 CFR 312.80, 21 CFR 314.126(b)(2)(v), 21 U.S.C. § 355(d), 21 U.S.C. § 360ff, 21 U.S.C. § 355f</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition to delay approval of RYONCIL (remestemcel-L) for pediatric steroid-refractory acute graft-versus-host disease (SR-aGVHD) on the basis that the submitted Biologics License Application met the regulatory standards for substantial evidence of effectiveness. This conclusion was based on an adequate and well-controlled single-arm study (MSB-GVHD001) and confirmatory pharmacodynamic evidence. The FDA determined that a randomized controlled trial was not required given the life-threatening nature of the disease, the unmet need for this pediatric population, and the appropriateness of a historically controlled design in this context. The second request, to provide the petition to an Advisory Committee, was ruled moot since the petition had already been shared at a prior advisory meeting.</t>
+          <t>The FDA denied the petition to delay approval of RYONCIL (remestemcel-L) for pediatric steroid-refractory acute graft-versus-host disease (SR-aGVHD) on the basis that the submitted Biologics License Application met the regulatory standards for substantial evidence of effectiveness. This conclusion was based on an adequate and well-controlled single-arm study (MSB-GVHD001) and confirmatory pharmacodynamic evidence. The FDA determined that a randomized controlled trial was not required given the life-threatening nature of the disease, the unmet need for this pediatric population, and the appropriateness of a historically controlled design in this context. The second request, to provide the petition to an Advisory Committee, was ruled moot since the petition had already been shared at a prior advisory meeting.</t>
         </is>
       </c>
     </row>
@@ -7490,27 +7330,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1. Date of Response: January 19, 2021</t>
+          <t>January 19, 2021</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Food Safety and Applied Nutrition (CFSAN)</t>
+          <t>Center for Food Safety and Applied Nutrition (CFSAN)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(b), 21 CFR 10.30(e)(2), 21 U.S.C. § 343(a)(1), 21 U.S.C. § 321(n), 21 CFR 101.13(i)(3), 21 CFR 101.14(a)(1), 21 CFR 101.14(c), 21 CFR 101.14(d)(2), 21 CFR 101.14(e)(6), 21 CFR 101.70, 21 CFR 101.9(k)(1), 21 CFR 101.9(k)(2), 21 CFR 101.9(k)(4), 21 CFR 101.93</t>
+          <t>21 CFR 10.30(b), 21 CFR 10.30(e)(2), 21 U.S.C. § 343(a)(1), 21 U.S.C. § 321(n), 21 CFR 101.13(i)(3), 21 CFR 101.14(a)(1), 21 CFR 101.14(c), 21 CFR 101.14(d)(2), 21 CFR 101.14(e)(6), 21 CFR 101.70, 21 CFR 101.9(k)(1), 21 CFR 101.9(k)(2), 21 CFR 101.9(k)(4), 21 CFR 101.93</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition requesting changes to food labeling regulations to allow structure/function claims for conventional foods without meeting the current significant scientific agreement (SSA) standard. The FDA maintained that such changes would undermine consumer protections against misleading claims, emphasizing that existing statutory and regulatory requirements ensure labeling is truthful and not misleading. FDA also noted that there is already an established process for qualified health claims where SSA is not met, and that the petition did not provide sufficient evidence to support revising the regulations for structure/function claims on conventional foods.</t>
+          <t>The FDA denied the petition requesting changes to food labeling regulations to allow structure/function claims for conventional foods without meeting the current significant scientific agreement (SSA) standard. The FDA maintained that such changes would undermine consumer protections against misleading claims, emphasizing that existing statutory and regulatory requirements ensure labeling is truthful and not misleading. FDA also noted that there is already an established process for qualified health claims where SSA is not met, and that the petition did not provide sufficient evidence to support revising the regulations for structure/function claims on conventional foods.</t>
         </is>
       </c>
     </row>
@@ -7522,27 +7362,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1. Date of Response: November 21, 2023</t>
+          <t>November 21, 2023</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 202.1, 21 U.S.C. § 352(n), 21 U.S.C. § 321(n), 21 CFR 202.1(e), 21 CFR 202.1(e)(2)(i), 21 CFR 202.1(e)(5), Public Law 110–85 (FDAAA), 21 CFR 202.1(e)(1)</t>
+          <t>21 CFR 202.1, 21 U.S.C. § 352(n), 21 U.S.C. § 321(n), 21 CFR 202.1(e), 21 CFR 202.1(e)(2)(i), 21 CFR 202.1(e)(5), Public Law 110–85 (FDAAA), 21 CFR 202.1(e)(1)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the request to amend regulations to categorically ban background music during risk presentations in direct-to-consumer prescription drug ads. The FDA emphasized its current regulatory framework already allows it to evaluate the use of background music in context, considering whether it undermines effective risk communication. Existing rules require clear and balanced risk disclosures, and newly finalized regulations further address risk presentation in TV and radio ads. The FDA maintains that case-by-case evaluation is more appropriate than a blanket ban and noted constitutional and policy considerations in any future rulemaking.</t>
+          <t>The FDA denied the request to amend regulations to categorically ban background music during risk presentations in direct-to-consumer prescription drug ads. The FDA emphasized its current regulatory framework already allows it to evaluate the use of background music in context, considering whether it undermines effective risk communication. Existing rules require clear and balanced risk disclosures, and newly finalized regulations further address risk presentation in TV and radio ads. The FDA maintains that case-by-case evaluation is more appropriate than a blanket ban and noted constitutional and policy considerations in any future rulemaking.</t>
         </is>
       </c>
     </row>
@@ -7554,27 +7394,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1. Date of Response: August 3, 2020</t>
+          <t>August 3, 2020</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter indicates that the petition was received and assigned a docket number. It clarifies that the acceptance of the petition for filing is a procedural matter and does not reflect an agency decision on the substantive merits of the petition.</t>
+          <t>The letter indicates that the petition was received and assigned a docket number. It clarifies that the acceptance of the petition for filing is a procedural matter and does not reflect an agency decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -7586,27 +7426,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1. Date of Response: July 8, 2024</t>
+          <t>July 8, 2024</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 314.93, 21 CFR 314.93(e)(1)(vi), 21 CFR 314.93(e)(1)(iv), Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act</t>
+          <t>21 CFR 314.93, 21 CFR 314.93(e)(1)(vi), 21 CFR 314.93(e)(1)(iv), Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition to submit an ANDA for Loperamide Hydrochloride Capsules in both 1 mg and 4 mg strengths. The 1 mg strength was denied because a drug with this strength was already approved under NDA 021855, violating the criterion that no approved NDA exist for the requested change. The 4 mg strength was denied due to safety concerns, as this strength would require significant labeling changes regarding cardiac risks and overdose potential. Such changes would jeopardize safe use and exceed permissible differences for ANDA submission.</t>
+          <t>The FDA denied the petition to submit an ANDA for Loperamide Hydrochloride Capsules in both 1 mg and 4 mg strengths. The 1 mg strength was denied because a drug with this strength was already approved under NDA 021855, violating the criterion that no approved NDA exist for the requested change. The 4 mg strength was denied due to safety concerns, as this strength would require significant labeling changes regarding cardiac risks and overdose potential. Such changes would jeopardize safe use and exceed permissible differences for ANDA submission.</t>
         </is>
       </c>
     </row>
@@ -7618,27 +7458,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1. Date of Response: August 14, 2020</t>
+          <t>August 14, 2020</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter indicates that the petition was received and assigned a docket number. It clarifies that the acceptance of the petition for filing is a procedural matter and does not reflect an agency decision on the substantive merits of the petition.</t>
+          <t>The letter indicates that the petition was received and assigned a docket number. It clarifies that the acceptance of the petition for filing is a procedural matter and does not reflect an agency decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -7650,27 +7490,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1. Date of Response: July 18, 2023</t>
+          <t>July 18, 2023</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Biologics Evaluation and Research (CBER)</t>
+          <t>Center for Biologics Evaluation and Research (CBER)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Dismissed as moot</t>
+          <t>Dismissed as moot</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e), 21 CFR 10.35(e)</t>
+          <t>21 CFR 10.30(e), 21 CFR 10.35(e)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA dismissed the petitions related to the ChAdOx1 nCoV-19 vaccine because AstraZeneca publicly announced it would not submit a Biologics License Application (BLA) for the vaccine in the U.S. As a result, the requested FDA actions regarding the study design before licensure were rendered moot, and there were no regulatory issues remaining to resolve.</t>
+          <t>The FDA dismissed the petitions related to the ChAdOx1 nCoV-19 vaccine because AstraZeneca publicly announced it would not submit a Biologics License Application (BLA) for the vaccine in the U.S. As a result, the requested FDA actions regarding the study design before licensure were rendered moot, and there were no regulatory issues remaining to resolve.</t>
         </is>
       </c>
     </row>
@@ -7682,27 +7522,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1. Date of Response: December 18, 2020</t>
+          <t>December 18, 2020</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Biologics Evaluation and Research (CBER)</t>
+          <t>Center for Biologics Evaluation and Research (CBER)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e)(3), 21 CFR 10.35(e), 21 CFR 312.2, 21 CFR 312.20(a), 21 CFR 312.22(a), 21 CFR 312.32(c)(1)(i), 21 CFR 312.42, 21 CFR 601.2(a), 21 CFR 601.2(d), 42 U.S.C. § 262(a)(2)(C)(i)(I), 21 U.S.C. § 360bbb-3</t>
+          <t>21 CFR 10.30(e)(3), 21 CFR 10.35(e), 21 CFR 312.2, 21 CFR 312.20(a), 21 CFR 312.22(a), 21 CFR 312.32(c)(1)(i), 21 CFR 312.42, 21 CFR 601.2(a), 21 CFR 601.2(d), 42 U.S.C. § 262(a)(2)(C)(i)(I), 21 U.S.C. § 360bbb-3</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition requesting changes to the Phase III trial design of Moderna’s mRNA-1273 COVID-19 vaccine. The agency found no reasonable grounds for requiring documentation of all adverse events for extended periods, expanded sample sizes, or mandatory T-cell reactivity testing. It stated that the existing study design met regulatory requirements, was informed by scientific evidence, and ensured safety and efficacy through randomized controls and robust follow-up. FDA emphasized that excessive data collection could obscure meaningful safety signals and complicate analysis, and that randomization sufficiently balanced confounders like preexisting immunity. Therefore, the petition was denied under applicable statutory and regulatory provisions.</t>
+          <t>The FDA denied the petition requesting changes to the Phase III trial design of Moderna’s mRNA-1273 COVID-19 vaccine. The agency found no reasonable grounds for requiring documentation of all adverse events for extended periods, expanded sample sizes, or mandatory T-cell reactivity testing. It stated that the existing study design met regulatory requirements, was informed by scientific evidence, and ensured safety and efficacy through randomized controls and robust follow-up. FDA emphasized that excessive data collection could obscure meaningful safety signals and complicate analysis, and that randomization sufficiently balanced confounders like preexisting immunity. Therefore, the petition was denied under applicable statutory and regulatory provisions.</t>
         </is>
       </c>
     </row>
@@ -7714,27 +7554,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1. Date of Response: December 11, 2020</t>
+          <t>December 11, 2020</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Biologics Evaluation and Research (CBER)</t>
+          <t>Center for Biologics Evaluation and Research (CBER)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e)(3), 21 CFR 10.35(e), 21 CFR 312.2, 21 CFR 312.20(a), 21 CFR 312.22(a), 21 CFR 312.32(c)(1)(i), 21 CFR 312.42, 21 CFR 601.2(a), 21 CFR 601.2(d), 42 U.S.C. § 262(a)(2)(C)(i)(I), 21 U.S.C. § 360bbb-3</t>
+          <t>21 CFR 10.30(e)(3), 21 CFR 10.35(e), 21 CFR 312.2, 21 CFR 312.20(a), 21 CFR 312.22(a), 21 CFR 312.32(c)(1)(i), 21 CFR 312.42, 21 CFR 601.2(a), 21 CFR 601.2(d), 42 U.S.C. § 262(a)(2)(C)(i)(I), 21 U.S.C. § 360bbb-3</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the citizen petitions and petition for administrative stay of action concerning the Phase III trial of the BNT162b COVID-19 vaccine. The FDA found no reasonable grounds for the requested actions, such as extending the duration of adverse event documentation, increasing sample size, or mandating T-cell reactivity testing. The agency concluded that the trial design met regulatory standards and scientific rigor, including safety monitoring protocols, sample sizes adequate to detect rare adverse events, and randomized controls that account for confounders like preexisting immunity. The FDA further held that the trial's structure allowed for clear evaluation of safety and efficacy, and the public interest weighed against halting the trial.</t>
+          <t>The FDA denied the citizen petitions and petition for administrative stay of action concerning the Phase III trial of the BNT162b COVID-19 vaccine. The FDA found no reasonable grounds for the requested actions, such as extending the duration of adverse event documentation, increasing sample size, or mandating T-cell reactivity testing. The agency concluded that the trial design met regulatory standards and scientific rigor, including safety monitoring protocols, sample sizes adequate to detect rare adverse events, and randomized controls that account for confounders like preexisting immunity. The FDA further held that the trial's structure allowed for clear evaluation of safety and efficacy, and the public interest weighed against halting the trial.</t>
         </is>
       </c>
     </row>
@@ -7746,27 +7586,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1. Date of Response: August 18, 2020</t>
+          <t>August 18, 2020</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter states that the petition was received and assigned a docket number, and that its acceptance is purely procedural and does not reflect any decision on the petition's substantive merits.</t>
+          <t>The letter states that the petition was received and assigned a docket number, and that its acceptance is purely procedural and does not reflect any decision on the petition's substantive merits.</t>
         </is>
       </c>
     </row>
@@ -7778,27 +7618,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1. Date of Response: August 19, 2020</t>
+          <t>August 19, 2020</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter confirms receipt of the petition and clarifies that the petition’s acceptance for filing is a procedural matter and does not indicate any decision on the petition’s substantive merits.</t>
+          <t>The letter confirms receipt of the petition and clarifies that the petition’s acceptance for filing is a procedural matter and does not indicate any decision on the petition’s substantive merits.</t>
         </is>
       </c>
     </row>
@@ -7810,27 +7650,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1. Date of Response: August 21, 2020</t>
+          <t>August 21, 2020</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges receipt of the petition and clarifies that its acceptance for filing is a procedural matter that does not indicate any decision on the substantive merits of the petition.</t>
+          <t>The letter acknowledges receipt of the petition and clarifies that its acceptance for filing is a procedural matter that does not indicate any decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -7842,27 +7682,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1. Date of Response: February 12, 2021</t>
+          <t>February 12, 2021</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Tobacco Products (CTP)</t>
+          <t>Center for Tobacco Products (CTP)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Dismissed as moot and, in the alternative, denied</t>
+          <t>Dismissed as moot and, in the alternative, denied</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e)(2)(iii), 21 CFR 10.30(k), 21 CFR 10.45, Sections 905 and 910 of the Federal Food, Drug, and Cosmetic Act</t>
+          <t>21 CFR 10.30(e)(2)(iii), 21 CFR 10.30(k), 21 CFR 10.45, Sections 905 and 910 of the Federal Food, Drug, and Cosmetic Act</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA dismissed the petition as moot because the requested extension of the September 9, 2020 PMTA deadline had already passed. In the alternative, the petition was denied because FDA independently adopted the same deadline based on public health priorities and guidance. The agency emphasized its commitment to enforcing requirements for ENDS products lacking premarket authorization and noted that applicants’ efforts and COVID-19-related challenges would be considered during scientific review and enforcement decisions.</t>
+          <t>The FDA dismissed the petition as moot because the requested extension of the September 9, 2020 PMTA deadline had already passed. In the alternative, the petition was denied because FDA independently adopted the same deadline based on public health priorities and guidance. The agency emphasized its commitment to enforcing requirements for ENDS products lacking premarket authorization and noted that applicants’ efforts and COVID-19-related challenges would be considered during scientific review and enforcement decisions.</t>
         </is>
       </c>
     </row>
@@ -7874,27 +7714,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1. Date of Response: March 28, 2023</t>
+          <t>March 28, 2023</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>5. Justification for Response: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
     </row>
@@ -7906,27 +7746,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 2, 2020</t>
+          <t>September 2, 2020</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter confirms receipt of the petition and clarifies that its acceptance is a procedural formality and does not reflect any judgment on the substantive merits of the petition.</t>
+          <t>The letter confirms receipt of the petition and clarifies that its acceptance is a procedural formality and does not reflect any judgment on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -7938,27 +7778,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 3, 2020</t>
+          <t>September 3, 2020</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges receipt of the petition and clarifies that acceptance for filing is procedural and does not indicate any decision on the petition’s substantive merits.</t>
+          <t>The letter acknowledges receipt of the petition and clarifies that acceptance for filing is procedural and does not indicate any decision on the petition’s substantive merits.</t>
         </is>
       </c>
     </row>
@@ -7970,27 +7810,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 8, 2020</t>
+          <t>September 8, 2020</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter confirms receipt of the petition and notes that its acceptance for filing is procedural and does not reflect any decision regarding the merits of the petition.</t>
+          <t>The letter confirms receipt of the petition and notes that its acceptance for filing is procedural and does not reflect any decision regarding the merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -8002,27 +7842,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 8, 2020</t>
+          <t>September 8, 2020</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter confirms receipt of the petition and states that its acceptance is a procedural matter and does not reflect any decision on the substantive merits of the petition.</t>
+          <t>The letter confirms receipt of the petition and states that its acceptance is a procedural matter and does not reflect any decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -8034,27 +7874,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 11, 2020</t>
+          <t>September 11, 2020</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges receipt of the petition and clarifies that its acceptance is purely procedural and does not reflect a decision on the substantive merits of the petition.</t>
+          <t>The letter acknowledges receipt of the petition and clarifies that its acceptance is purely procedural and does not reflect a decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -8066,27 +7906,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 14, 2020</t>
+          <t>September 14, 2020</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges receipt of the petition and clarifies that its acceptance is a procedural matter and does not indicate any decision on the substantive merits of the petition.</t>
+          <t>The letter acknowledges receipt of the petition and clarifies that its acceptance is a procedural matter and does not indicate any decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -8098,27 +7938,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1. Date of Response: July 22, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Food Safety and Applied Nutrition (CFSAN)</t>
+          <t>Center for Food Safety and Applied Nutrition (CFSAN)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 101.9(c)(6)(i), 21 CFR 10.30(e)(3), 21 CFR 101.9(c)(8)(ii)</t>
+          <t>21 CFR 101.9(c)(6)(i), 21 CFR 10.30(e)(3), 21 CFR 101.9(c)(8)(ii)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition to include Isomaltodextrin (IMD) in the regulatory definition of dietary fiber due to insufficient scientific evidence demonstrating that IMD has a beneficial physiological effect on human health. Although structurally similar to resistant maltodextrin/dextrin (RMD/RD), IMD lacks some specific non-digestible bond linkages and the petition did not include human intervention studies to support its effects. Therefore, the FDA concluded it could not evaluate IMD as meeting the criteria for dietary fiber and declined to propose an amendment to 21 CFR 101.9(c)(6)(i).</t>
+          <t>The FDA denied the petition to include Isomaltodextrin (IMD) in the regulatory definition of dietary fiber due to insufficient scientific evidence demonstrating that IMD has a beneficial physiological effect on human health. Although structurally similar to resistant maltodextrin/dextrin (RMD/RD), IMD lacks some specific non-digestible bond linkages and the petition did not include human intervention studies to support its effects. Therefore, the FDA concluded it could not evaluate IMD as meeting the criteria for dietary fiber and declined to propose an amendment to 21 CFR 101.9(c)(6)(i).</t>
         </is>
       </c>
     </row>
@@ -8130,27 +7970,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 18, 2020</t>
+          <t>September 18, 2020</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter confirms receipt of the petition and clarifies that its acceptance is a procedural formality and does not reflect any decision on the substantive merits of the petition.</t>
+          <t>The letter confirms receipt of the petition and clarifies that its acceptance is a procedural formality and does not reflect any decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -8162,27 +8002,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1. Date of Response: April 1, 2021</t>
+          <t>April 1, 2021</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied (FDA determined the drug was not withdrawn for safety or effectiveness reasons)</t>
+          <t>Denied (FDA determined the drug was not withdrawn for safety or effectiveness reasons)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>5. Justification for Response: FDA reviewed its records and concluded that Serentil (mesoridazine besylate) tablets were not withdrawn from sale for reasons of safety or effectiveness. As a result, the drug will remain listed in the Discontinued Drug Product List section of the Orange Book.</t>
+          <t>FDA reviewed its records and concluded that Serentil (mesoridazine besylate) tablets were not withdrawn from sale for reasons of safety or effectiveness. As a result, the drug will remain listed in the Discontinued Drug Product List section of the Orange Book.</t>
         </is>
       </c>
     </row>
@@ -8194,27 +8034,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 17, 2020</t>
+          <t>September 17, 2020</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter confirms receipt of the petition and clarifies that its acceptance is procedural and does not reflect a decision on the substantive merits of the petition.</t>
+          <t>The letter confirms receipt of the petition and clarifies that its acceptance is procedural and does not reflect a decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -8226,27 +8066,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 17, 2020</t>
+          <t>September 17, 2020</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges receipt of the petition and clarifies that its acceptance for filing is a procedural formality and does not reflect any decision on the substantive merits of the petition.</t>
+          <t>The letter acknowledges receipt of the petition and clarifies that its acceptance for filing is a procedural formality and does not reflect any decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -8258,27 +8098,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1. Date of Response: November 19, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied (FDA determined the drug was not withdrawn for safety or effectiveness reasons)</t>
+          <t>Denied (FDA determined the drug was not withdrawn for safety or effectiveness reasons)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>5. Justification for Response: FDA reviewed its records and concluded that Hydrocortone (hydrocortisone sodium phosphate) injection, EQ 50 mg base/mL, was not withdrawn for safety or effectiveness reasons. Therefore, it will remain listed in the Discontinued Drug Product List section of the Orange Book.</t>
+          <t>FDA reviewed its records and concluded that Hydrocortone (hydrocortisone sodium phosphate) injection, EQ 50 mg base/mL, was not withdrawn for safety or effectiveness reasons. Therefore, it will remain listed in the Discontinued Drug Product List section of the Orange Book.</t>
         </is>
       </c>
     </row>
@@ -8290,27 +8130,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1. Date of Response: December 15, 2021</t>
+          <t>December 15, 2021</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Food Safety and Applied Nutrition (CFSAN)</t>
+          <t>Center for Food Safety and Applied Nutrition (CFSAN)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Other (Petition under consideration; no final decision issued)</t>
+          <t>Other (Petition under consideration; no final decision issued)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>5. Justification for Response: FDA acknowledged the complex scientific and regulatory issues raised in the petition regarding cumulative effects of chemically- or pharmacologically related substances. FDA noted that chemically related substances may have differing metabolic or toxicological profiles and that receptor-binding similarity does not necessarily imply toxicological equivalence. The agency expressed the need to ensure regulatory definitions remain flexible to allow for the use of all relevant scientific evidence in safety evaluations.</t>
+          <t>FDA acknowledged the complex scientific and regulatory issues raised in the petition regarding cumulative effects of chemically- or pharmacologically related substances. FDA noted that chemically related substances may have differing metabolic or toxicological profiles and that receptor-binding similarity does not necessarily imply toxicological equivalence. The agency expressed the need to ensure regulatory definitions remain flexible to allow for the use of all relevant scientific evidence in safety evaluations.</t>
         </is>
       </c>
     </row>
@@ -8322,27 +8162,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 23, 2020</t>
+          <t>September 23, 2020</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff, FDA/Office of Operations (OO)</t>
+          <t>Dockets Management Staff, FDA/Office of Operations (OO)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Procedural acknowledgment only; no substantive decision issued</t>
+          <t>Procedural acknowledgment only; no substantive decision issued</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges receipt of the petition and clarifies that its acceptance for filing is a procedural matter and does not reflect any decision on the substantive merits of the petition.</t>
+          <t>The letter acknowledges receipt of the petition and clarifies that its acceptance for filing is a procedural matter and does not reflect any decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -8354,27 +8194,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1. Date of Response: July 25, 2023</t>
+          <t>July 25, 2023</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Approved</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act, 21 CFR 314.93, 21 CFR 314.93(e)(1), 21 CFR 314.94(a)(3)(iii), Section 505(j)(2)(A) and (B), Section 505(j)(2)(A)(iv)</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act, 21 CFR 314.93, 21 CFR 314.93(e)(1), 21 CFR 314.94(a)(3)(iii), Section 505(j)(2)(A) and (B), Section 505(j)(2)(A)(iv)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA approved the petition to submit an ANDA for Potassium Chloride Extended-Release Tablets USP, 15 mEq, determining that the change in strength from the listed drug product does not raise safety or efficacy concerns. The proposed change is consistent with the dosing recommendations of the listed drug, and if bioequivalence is demonstrated, it would be expected to have the same therapeutic effect without requiring significant labeling changes or additional safety and effectiveness investigations.</t>
+          <t>The FDA approved the petition to submit an ANDA for Potassium Chloride Extended-Release Tablets USP, 15 mEq, determining that the change in strength from the listed drug product does not raise safety or efficacy concerns. The proposed change is consistent with the dosing recommendations of the listed drug, and if bioequivalence is demonstrated, it would be expected to have the same therapeutic effect without requiring significant labeling changes or additional safety and effectiveness investigations.</t>
         </is>
       </c>
     </row>
@@ -8386,27 +8226,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1. Date of Response: April 22, 2021</t>
+          <t>April 22, 2021</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Devices and Radiological Health (CDRH)</t>
+          <t>Center for Devices and Radiological Health (CDRH)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e)(3), 21 CFR 812.2(c)(3), 21 CFR 820.3(m), 21 CFR 807.81(a)(3), Section 513(i)(1)(E) of the FDCA</t>
+          <t>21 CFR 10.30(e)(3), 21 CFR 812.2(c)(3), 21 CFR 820.3(m), 21 CFR 807.81(a)(3), Section 513(i)(1)(E) of the FDCA</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition because the petitioner did not provide sufficient information to justify exempting the specified devices from premarket notification requirements. The FDA emphasized that such exemptions must align with public health protection and are typically enacted through rulemaking. The agency noted that existing regulatory frameworks already provide pathways for low-risk devices and that the petition failed to demonstrate that the suggested exemption met the criteria under current statutes and regulations.</t>
+          <t>The FDA denied the petition because the petitioner did not provide sufficient information to justify exempting the specified devices from premarket notification requirements. The FDA emphasized that such exemptions must align with public health protection and are typically enacted through rulemaking. The agency noted that existing regulatory frameworks already provide pathways for low-risk devices and that the petition failed to demonstrate that the suggested exemption met the criteria under current statutes and regulations.</t>
         </is>
       </c>
     </row>
@@ -8418,27 +8258,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1. Date of Response: April 26, 2021</t>
+          <t>April 26, 2021</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Devices and Radiological Health (CDRH)</t>
+          <t>Center for Devices and Radiological Health (CDRH)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e)(3), 21 CFR 814.39, Section 515 of the FDCA</t>
+          <t>21 CFR 10.30(e)(3), 21 CFR 814.39, Section 515 of the FDCA</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition because it determined that the requested actions, which involved modifying the approval process for certain Class III devices, were inconsistent with statutory and regulatory requirements. The agency stated that the petition lacked adequate justification for bypassing or altering the supplemental premarket approval (PMA) process and emphasized that changes to such regulatory procedures must be addressed through established rulemaking and not individual petitions.</t>
+          <t>The FDA denied the petition because it determined that the requested actions, which involved modifying the approval process for certain Class III devices, were inconsistent with statutory and regulatory requirements. The agency stated that the petition lacked adequate justification for bypassing or altering the supplemental premarket approval (PMA) process and emphasized that changes to such regulatory procedures must be addressed through established rulemaking and not individual petitions.</t>
         </is>
       </c>
     </row>
@@ -8450,27 +8290,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 25, 2020</t>
+          <t>September 25, 2020</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff (DMS), Office of Operations</t>
+          <t>Dockets Management Staff (DMS), Office of Operations</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Acknowledged (no substantive decision made)</t>
+          <t>Acknowledged (no substantive decision made)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges receipt and filing of the citizen petition regarding the designation of an ANDA reference standard (RS) for Lidocaine Hydrochloride Topical Jelly, 2%. It explicitly states that the acceptance for filing is a procedural matter and does not indicate any decision on the merits of the petition.</t>
+          <t>The letter acknowledges receipt and filing of the citizen petition regarding the designation of an ANDA reference standard (RS) for Lidocaine Hydrochloride Topical Jelly, 2%. It explicitly states that the acceptance for filing is a procedural matter and does not indicate any decision on the merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -8482,27 +8322,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 28, 2020</t>
+          <t>September 28, 2020</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff (DMS), Office of Operations</t>
+          <t>Dockets Management Staff (DMS), Office of Operations</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Acknowledged (no substantive decision made)</t>
+          <t>Acknowledged (no substantive decision made)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges receipt and filing of the citizen petition requesting the designation of Nicardipine Hydrochloride Premixed Injection as alternative reference listed drugs (RLDs). It clarifies that this acceptance is procedural and does not reflect any agency decision on the substantive merits of the petition.</t>
+          <t>The letter acknowledges receipt and filing of the citizen petition requesting the designation of Nicardipine Hydrochloride Premixed Injection as alternative reference listed drugs (RLDs). It clarifies that this acceptance is procedural and does not reflect any agency decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -8514,27 +8354,27 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1. Date of Response: January 25, 2021</t>
+          <t>January 25, 2021</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Section 503B(a)(2)(A)(i) of the FD&amp;C Act (21 U.S.C. § 353b(a)(2)(A)(i)), Section 505 (21 U.S.C. § 355), Section 502(f)(1) (21 U.S.C. § 352(f)(1)), Section 582 (21 U.S.C. § 360eee-1), 21 CFR 207.1(b), 21 CFR 314.81(b)(3)(iii), Section 503B(d)(2)(B) of the FD&amp;C Act, Section 503B(a)(5), 21 CFR 314.50</t>
+          <t>Section 503B(a)(2)(A)(i) of the FD&amp;C Act (21 U.S.C. § 353b(a)(2)(A)(i)), Section 505 (21 U.S.C. § 355), Section 502(f)(1) (21 U.S.C. § 352(f)(1)), Section 582 (21 U.S.C. § 360eee-1), 21 CFR 207.1(b), 21 CFR 314.81(b)(3)(iii), Section 503B(d)(2)(B) of the FD&amp;C Act, Section 503B(a)(5), 21 CFR 314.50</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition because the proposed definition of 'clinical need' would have undermined statutory safeguards and public health protections by allowing bulk drug substances to be compounded without FDA's clinical review. The agency stated that the definition offered by the petitioner would eliminate the FDA’s role in evaluating whether a compounded drug product made from a bulk substance is medically necessary in light of available FDA-approved products. This would bypass important public health protections and weaken the integrity of the drug approval process. The FDA emphasized that clinical need must be evaluated through its existing review framework and cannot be reduced to a prescriber’s intent alone. The agency also noted that its approach was upheld by the Athenex v. Azar court decision and that it followed appropriate procedures in evaluating nominations for the 503B Bulks List.</t>
+          <t>The FDA denied the petition because the proposed definition of 'clinical need' would have undermined statutory safeguards and public health protections by allowing bulk drug substances to be compounded without FDA's clinical review. The agency stated that the definition offered by the petitioner would eliminate the FDA’s role in evaluating whether a compounded drug product made from a bulk substance is medically necessary in light of available FDA-approved products. This would bypass important public health protections and weaken the integrity of the drug approval process. The FDA emphasized that clinical need must be evaluated through its existing review framework and cannot be reduced to a prescriber’s intent alone. The agency also noted that its approach was upheld by the Athenex v. Azar court decision and that it followed appropriate procedures in evaluating nominations for the 503B Bulks List.</t>
         </is>
       </c>
     </row>
@@ -8546,27 +8386,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1. Date of Response: March 29, 2021</t>
+          <t>March 29, 2021</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff (DMS), Office of Operations</t>
+          <t>Dockets Management Staff (DMS), Office of Operations</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Interim Response (no final decision yet)</t>
+          <t>Interim Response (no final decision yet)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA acknowledged receipt of the citizen petition regarding the safety of Acetazolamide for Injection. The interim response stated that the agency has not yet reached a final decision due to the need for more time to fully evaluate the petition’s requests and supporting information. The agency indicated it would respond fully once its review is complete.</t>
+          <t>The FDA acknowledged receipt of the citizen petition regarding the safety of Acetazolamide for Injection. The interim response stated that the agency has not yet reached a final decision due to the need for more time to fully evaluate the petition’s requests and supporting information. The agency indicated it would respond fully once its review is complete.</t>
         </is>
       </c>
     </row>
@@ -8578,27 +8418,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1. Date of Response: May 25, 2021</t>
+          <t>May 25, 2021</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied (product was not withdrawn for safety or efficacy reasons)</t>
+          <t>Denied (product was not withdrawn for safety or efficacy reasons)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA determined that the drug Manganese Sulfate, injectable, Eq 0.1 mg manganese/mL, was not withdrawn from sale for reasons related to safety or effectiveness. Therefore, the product will remain listed in the 'Discontinued Drug Product List' section of the Orange Book. This indicates that the drug's discontinuation does not affect its eligibility as a reference listed drug for generic drug applications.</t>
+          <t>The FDA determined that the drug Manganese Sulfate, injectable, Eq 0.1 mg manganese/mL, was not withdrawn from sale for reasons related to safety or effectiveness. Therefore, the product will remain listed in the 'Discontinued Drug Product List' section of the Orange Book. This indicates that the drug's discontinuation does not affect its eligibility as a reference listed drug for generic drug applications.</t>
         </is>
       </c>
     </row>
@@ -8610,27 +8450,27 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1. Date of Response: June 22, 2021</t>
+          <t>June 22, 2021</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Devices and Radiological Health (CDRH)</t>
+          <t>Center for Devices and Radiological Health (CDRH)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30, 21 CFR 895.21(d)(1), Section 516 of the FD&amp;C Act</t>
+          <t>21 CFR 10.30, 21 CFR 895.21(d)(1), Section 516 of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition requesting enforcement action against manufacturers of certain dental devices. The agency concluded that the petition did not provide sufficient evidence to support claims that the devices presented an unreasonable risk to public health. FDA also stated that it considers multiple factors, including scientific evidence and risk analysis, before initiating enforcement actions. Additionally, the petition's requested action to ban the product did not meet the legal standard required under Section 516 of the FD&amp;C Act.</t>
+          <t>The FDA denied the petition requesting enforcement action against manufacturers of certain dental devices. The agency concluded that the petition did not provide sufficient evidence to support claims that the devices presented an unreasonable risk to public health. FDA also stated that it considers multiple factors, including scientific evidence and risk analysis, before initiating enforcement actions. Additionally, the petition's requested action to ban the product did not meet the legal standard required under Section 516 of the FD&amp;C Act.</t>
         </is>
       </c>
     </row>
@@ -8642,27 +8482,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1. Date of Response: November 16, 2022</t>
+          <t>November 16, 2022</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 U.S.C. § 353(b)(3), 21 C.F.R. § 310.200(b), 21 U.S.C. § 355 (Sections 505(a), 505(d)), 21 U.S.C. § 360bbb-3 (Section 564), 21 C.F.R. § 314.50(d)(5), 21 C.F.R. § 314.71, 21 C.F.R. § 314.125(b), 21 C.F.R. § 314.126, Section 503(b)(1) of the FD&amp;C Act</t>
+          <t>21 U.S.C. § 353(b)(3), 21 C.F.R. § 310.200(b), 21 U.S.C. § 355 (Sections 505(a), 505(d)), 21 U.S.C. § 360bbb-3 (Section 564), 21 C.F.R. § 314.50(d)(5), 21 C.F.R. § 314.71, 21 C.F.R. § 314.125(b), 21 C.F.R. § 314.126, Section 503(b)(1) of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition to switch Plaquenil (hydroxychloroquine sulfate) and its equivalents from prescription to over-the-counter status and to approve it for prophylaxis of COVID-19. The petition was denied because: (1) a petition is not the appropriate pathway to request a new indication; (2) the petitioner is not the NDA holder and cannot submit a supplemental application; (3) no evidence was submitted demonstrating the safety or effectiveness of hydroxychloroquine for COVID-19 prophylaxis; (4) the petition did not include required consumer study data to support a prescription-to-OTC switch; and (5) serious risks associated with hydroxychloroquine use remain, including cardiac toxicity and other adverse effects, which require professional supervision.</t>
+          <t>(1) a petition is not the appropriate pathway to request a new indication; (2) the petitioner is not the NDA holder and cannot submit a supplemental application; (3) no evidence was submitted demonstrating the safety or effectiveness of hydroxychloroquine for COVID-19 prophylaxis; (4) the petition did not include required consumer study data to support a prescription-to-OTC switch; and (5) serious risks associated with hydroxychloroquine use remain, including cardiac toxicity and other adverse effects, which require professional supervision.</t>
         </is>
       </c>
     </row>
@@ -8674,27 +8514,27 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1. Date of Response: July 27, 2023</t>
+          <t>July 27, 2023</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER), Office of Generic Drugs</t>
+          <t>Center for Drug Evaluation and Research (CDER), Office of Generic Drugs</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Approved</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Section 505(j)(2)(C) of the FD&amp;C Act, 21 CFR 314.93, 21 CFR 314.94(a)(3)(iii), Section 505(j)(2)(A) and (B), Section 505(j)(2)(A)(iv)</t>
+          <t>Section 505(j)(2)(C) of the FD&amp;C Act, 21 CFR 314.93, 21 CFR 314.94(a)(3)(iii), Section 505(j)(2)(A) and (B), Section 505(j)(2)(A)(iv)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA approved the petition to allow submission of an Abbreviated New Drug Application (ANDA) for Baclofen Tablets, 15 mg, a strength not previously approved for the listed drug Lioresal® (10 mg and 20 mg). The agency determined that the proposed change in strength does not pose questions of safety or effectiveness, aligns with current dosing recommendations, and would not require significant labeling changes. If bioequivalence is demonstrated, the product can be expected to have the same therapeutic effect as the reference listed drug. Therefore, no new investigations are necessary to support the safety and effectiveness of the new strength.</t>
+          <t>The FDA approved the petition to allow submission of an Abbreviated New Drug Application (ANDA) for Baclofen Tablets, 15 mg, a strength not previously approved for the listed drug Lioresal® (10 mg and 20 mg). The agency determined that the proposed change in strength does not pose questions of safety or effectiveness, aligns with current dosing recommendations, and would not require significant labeling changes. If bioequivalence is demonstrated, the product can be expected to have the same therapeutic effect as the reference listed drug. Therefore, no new investigations are necessary to support the safety and effectiveness of the new strength.</t>
         </is>
       </c>
     </row>
@@ -8706,27 +8546,27 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1. Date of Response: October 13, 2020</t>
+          <t>October 13, 2020</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff (DMS), Office of Operations</t>
+          <t>Dockets Management Staff (DMS), Office of Operations</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Acknowledged (no substantive decision made)</t>
+          <t>Acknowledged (no substantive decision made)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges receipt and procedural filing of the petition requesting that Vasopressin Injection USP in specified formulations be declared suitable for submission as an ANDA. The FDA clarified that the acceptance of the petition is procedural and does not indicate any decision on its substantive merits.</t>
+          <t>The letter acknowledges receipt and procedural filing of the petition requesting that Vasopressin Injection USP in specified formulations be declared suitable for submission as an ANDA. The FDA clarified that the acceptance of the petition is procedural and does not indicate any decision on its substantive merits.</t>
         </is>
       </c>
     </row>
@@ -8738,27 +8578,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1. Date of Response: May 12, 2022</t>
+          <t>May 12, 2022</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Office of the Commissioner, Associate Commissioner for Policy</t>
+          <t>Office of the Commissioner, Associate Commissioner for Policy</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR § 10.33, 21 CFR § 10.25, 21 CFR § 10.3(a)</t>
+          <t>21 CFR § 10.33, 21 CFR § 10.25, 21 CFR § 10.3(a)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the Petition for Reconsideration submitted by Siri &amp; Glimstad LLP on behalf of the Informed Consent Action Network (ICAN) regarding the Phase 3 clinical trial design for the Ad26.COV2.S COVID-19 vaccine. The agency found that the petitioner failed to demonstrate that relevant information or views in the administrative record had not been previously or adequately considered, which is a required condition under 21 CFR § 10.33(d)(1). The FDA reviewed and addressed all original concerns in its prior response, including those related to adverse event monitoring, pediatric sample size, germline transmission testing, T-cell reactivity testing, and HIV incidence monitoring. Because the petitioner did not meet the first of four regulatory criteria, the FDA did not consider the remaining criteria and denied the request.</t>
+          <t>The FDA denied the Petition for Reconsideration submitted by Siri &amp; Glimstad LLP on behalf of the Informed Consent Action Network (ICAN) regarding the Phase 3 clinical trial design for the Ad26.COV2.S COVID-19 vaccine. The agency found that the petitioner failed to demonstrate that relevant information or views in the administrative record had not been previously or adequately considered, which is a required condition under 21 CFR § 10.33(d)(1). The FDA reviewed and addressed all original concerns in its prior response, including those related to adverse event monitoring, pediatric sample size, germline transmission testing, T-cell reactivity testing, and HIV incidence monitoring. Because the petitioner did not meet the first of four regulatory criteria, the FDA did not consider the remaining criteria and denied the request.</t>
         </is>
       </c>
     </row>
@@ -8770,27 +8610,27 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1. Date of Response: October 20, 2020</t>
+          <t>October 20, 2020</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff (DMS), Office of Operations</t>
+          <t>Dockets Management Staff (DMS), Office of Operations</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Acknowledged (no substantive decision made)</t>
+          <t>Acknowledged (no substantive decision made)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges receipt and procedural filing of the petition submitted by Aurora Pharmaceutical, Inc., requesting permission to submit an Abbreviated New Animal Drug Application (ANADA) for a generic firocoxib oral solution differing in dosage form and strength from the reference listed new animal drug (RLNAD). The FDA clarified that this acceptance is procedural and does not imply any decision on the petition’s substantive merits.</t>
+          <t>The letter acknowledges receipt and procedural filing of the petition submitted by Aurora Pharmaceutical, Inc., requesting permission to submit an Abbreviated New Animal Drug Application (ANADA) for a generic firocoxib oral solution differing in dosage form and strength from the reference listed new animal drug (RLNAD). The FDA clarified that this acceptance is procedural and does not imply any decision on the petition’s substantive merits.</t>
         </is>
       </c>
     </row>
@@ -8802,27 +8642,27 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1. Date of Response: October 26, 2020</t>
+          <t>October 26, 2020</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff (DMS), Office of Operations</t>
+          <t>Dockets Management Staff (DMS), Office of Operations</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Acknowledged (no substantive decision made)</t>
+          <t>Acknowledged (no substantive decision made)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter confirms procedural receipt and filing of the petition requesting that FDA determine whether Bortezomib for Injection, 2.5 mg/vial, has been withdrawn from sale for reasons of safety or effectiveness. The FDA clarified that this acknowledgment does not indicate any evaluation or decision on the substantive content of the petition.</t>
+          <t>The letter confirms procedural receipt and filing of the petition requesting that FDA determine whether Bortezomib for Injection, 2.5 mg/vial, has been withdrawn from sale for reasons of safety or effectiveness. The FDA clarified that this acknowledgment does not indicate any evaluation or decision on the substantive content of the petition.</t>
         </is>
       </c>
     </row>
@@ -8834,27 +8674,27 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1. Date of Response: October 27, 2020</t>
+          <t>October 27, 2020</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff (DMS), Office of Operations</t>
+          <t>Dockets Management Staff (DMS), Office of Operations</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Acknowledged (no substantive decision made)</t>
+          <t>Acknowledged (no substantive decision made)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA acknowledged receipt and procedural filing of the petition requesting designation of ANDA 201355 (Nitrofurantoin Oral Suspension, 25 mg/5 mL) as a reference standard (RS) to support the submission of future ANDAs. The agency clarified that this acknowledgment does not constitute a decision on the petition's merits.</t>
+          <t>The FDA acknowledged receipt and procedural filing of the petition requesting designation of ANDA 201355 (Nitrofurantoin Oral Suspension, 25 mg/5 mL) as a reference standard (RS) to support the submission of future ANDAs. The agency clarified that this acknowledgment does not constitute a decision on the petition's merits.</t>
         </is>
       </c>
     </row>
@@ -8866,27 +8706,27 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1. Date of Response: May 17, 2021</t>
+          <t>May 17, 2021</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 U.S.C. § 355(b)(2), 21 U.S.C. § 355(j), 21 CFR 314.3, 21 CFR 314.50, 21 CFR 314.54, 21 CFR 314.94, 21 CFR 314.101</t>
+          <t>21 U.S.C. § 355(b)(2), 21 U.S.C. § 355(j), 21 CFR 314.3, 21 CFR 314.50, 21 CFR 314.54, 21 CFR 314.94, 21 CFR 314.101</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition from Fresenius Kabi requesting that any 505(b)(2) or ANDA for levothyroxine sodium intravenous solution must reference NDA 210632. The agency concluded that Custopharm’s product (NDA 214253) is not pharmaceutically equivalent to any Fresenius product under NDA 210632 due to differences in strength (total drug content and concentration). As a result, Custopharm is not required to identify NDA 210632 as a listed drug. FDA emphasized that there is no requirement for a 505(b)(2) applicant to rely on the 'closest pharmaceutical equivalent' if the products are not actually pharmaceutically equivalent. The agency also clarified that Custopharm properly filed its application under the 505(b)(2) pathway and was not required to certify patents listed for NDA 210632. Therefore, the FDA found no grounds to refuse filing or approval of Custopharm's application and denied the petition in its entirety.</t>
+          <t>The FDA denied the petition from Fresenius Kabi requesting that any 505(b)(2) or ANDA for levothyroxine sodium intravenous solution must reference NDA 210632. The agency concluded that Custopharm’s product (NDA 214253) is not pharmaceutically equivalent to any Fresenius product under NDA 210632 due to differences in strength (total drug content and concentration). As a result, Custopharm is not required to identify NDA 210632 as a listed drug. FDA emphasized that there is no requirement for a 505(b)(2) applicant to rely on the 'closest pharmaceutical equivalent' if the products are not actually pharmaceutically equivalent. The agency also clarified that Custopharm properly filed its application under the 505(b)(2) pathway and was not required to certify patents listed for NDA 210632. Therefore, the FDA found no grounds to refuse filing or approval of Custopharm's application and denied the petition in its entirety.</t>
         </is>
       </c>
     </row>
@@ -8898,27 +8738,27 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1. Date of Response: April 19, 2021</t>
+          <t>April 19, 2021</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Food Safety and Applied Nutrition (CFSAN)</t>
+          <t>Center for Food Safety and Applied Nutrition (CFSAN)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Interim Response (no final decision yet)</t>
+          <t>Interim Response (no final decision yet)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA issued an interim response acknowledging receipt of the citizen petition submitted by Natural Products Association. The agency stated that it has not yet reached a final decision due to the need for additional time to fully evaluate the issues raised in the petition. The FDA committed to responding fully once its review is complete.</t>
+          <t>The FDA issued an interim response acknowledging receipt of the citizen petition submitted by Natural Products Association. The agency stated that it has not yet reached a final decision due to the need for additional time to fully evaluate the issues raised in the petition. The FDA committed to responding fully once its review is complete.</t>
         </is>
       </c>
     </row>
@@ -8930,27 +8770,27 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1. Date of Response: September 5, 2023</t>
+          <t>September 5, 2023</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Biologics Evaluation and Research (CBER)</t>
+          <t>Center for Biologics Evaluation and Research (CBER)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e)(3), 21 CFR 601.2(a), 21 CFR 201.56, 21 CFR 201.57, 21 CFR 201.100(d), 21 CFR 601.12(f), Section 351 of the Public Health Service (PHS) Act, Section 502 of the FD&amp;C Act</t>
+          <t>21 CFR 10.30(e)(3), 21 CFR 601.2(a), 21 CFR 201.56, 21 CFR 201.57, 21 CFR 201.100(d), 21 CFR 601.12(f), Section 351 of the Public Health Service (PHS) Act, Section 502 of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition requesting that manufacturers of acellular pertussis-containing vaccines be required to amend their package inserts to disclose that the vaccines do not prevent infection and transmission. The agency explained that its vaccine licensure standards do not require prevention of infection or transmission—only that a vaccine is safe and effective for its intended use. The currently licensed vaccines are indicated for prevention of pertussis disease, not infection. The existing labeling is accurate and complies with statutory and regulatory requirements. FDA found no evidence of a widespread public misconception requiring a labeling change and concluded that the petitioner’s arguments and supporting studies did not justify the requested amendment.</t>
+          <t>The FDA denied the petition requesting that manufacturers of acellular pertussis-containing vaccines be required to amend their package inserts to disclose that the vaccines do not prevent infection and transmission. The agency explained that its vaccine licensure standards do not require prevention of infection or transmission—only that a vaccine is safe and effective for its intended use. The currently licensed vaccines are indicated for prevention of pertussis disease, not infection. The existing labeling is accurate and complies with statutory and regulatory requirements. FDA found no evidence of a widespread public misconception requiring a labeling change and concluded that the petitioner’s arguments and supporting studies did not justify the requested amendment.</t>
         </is>
       </c>
     </row>
@@ -8962,27 +8802,27 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1. Date of Response: October 30, 2020</t>
+          <t>October 30, 2020</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff (DMS), Office of Operations</t>
+          <t>Dockets Management Staff (DMS), Office of Operations</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Acknowledged (no substantive decision made)</t>
+          <t>Acknowledged (no substantive decision made)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges procedural receipt and filing of the petition requesting FDA to declare that a drug product containing Ticagrelor 90 mg in an orally disintegrating tablet form is suitable for submission as an Abbreviated New Drug Application (ANDA). The agency clarified that acceptance for filing is procedural and does not reflect any substantive evaluation or decision.</t>
+          <t>The letter acknowledges procedural receipt and filing of the petition requesting FDA to declare that a drug product containing Ticagrelor 90 mg in an orally disintegrating tablet form is suitable for submission as an Abbreviated New Drug Application (ANDA). The agency clarified that acceptance for filing is procedural and does not reflect any substantive evaluation or decision.</t>
         </is>
       </c>
     </row>
@@ -8994,27 +8834,27 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1. Date of Response: April 2, 2021</t>
+          <t>April 2, 2021</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied (product not withdrawn for safety or effectiveness reasons)</t>
+          <t>Denied (product not withdrawn for safety or effectiveness reasons)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA determined that Cutivate (fluticasone propionate) ointment, 0.005%, was not withdrawn from sale for reasons related to safety or effectiveness. As a result, the product will remain listed in the 'Discontinued Drug Product List' section of the Orange Book, indicating it is still eligible to serve as a reference listed drug for generic drug applications.</t>
+          <t>The FDA determined that Cutivate (fluticasone propionate) ointment, 0.005%, was not withdrawn from sale for reasons related to safety or effectiveness. As a result, the product will remain listed in the 'Discontinued Drug Product List' section of the Orange Book, indicating it is still eligible to serve as a reference listed drug for generic drug applications.</t>
         </is>
       </c>
     </row>
@@ -9026,27 +8866,27 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1. Date of Response: November 5, 2020</t>
+          <t>November 5, 2020</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff (DMS), Office of Operations</t>
+          <t>Dockets Management Staff (DMS), Office of Operations</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Acknowledged (no substantive decision made)</t>
+          <t>Acknowledged (no substantive decision made)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges procedural receipt and filing of the petition requesting permission to submit an Abbreviated New Drug Application (ANDA) for Carvedilol bilayered extended release tablets using Coreg CR capsules as the Reference Listed Drug. The FDA clarified that acceptance for filing is procedural and does not reflect any evaluation or decision on the petition's substantive merits.</t>
+          <t>The letter acknowledges procedural receipt and filing of the petition requesting permission to submit an Abbreviated New Drug Application (ANDA) for Carvedilol bilayered extended release tablets using Coreg CR capsules as the Reference Listed Drug. The FDA clarified that acceptance for filing is procedural and does not reflect any evaluation or decision on the petition's substantive merits.</t>
         </is>
       </c>
     </row>
@@ -9058,27 +8898,27 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1. Date of Response: June 7, 2021</t>
+          <t>June 7, 2021</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied (product not withdrawn for safety or effectiveness reasons)</t>
+          <t>Denied (product not withdrawn for safety or effectiveness reasons)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA determined that Atrovent (ipratropium bromide), metered spray, 0.021 mcg/spray and 0.042 mcg/spray, was not withdrawn from sale for reasons related to safety or effectiveness. Consequently, the product will remain listed in the 'Discontinued Drug Product List' section of the Orange Book, indicating its continued eligibility as a reference listed drug for generic applications.</t>
+          <t>The FDA determined that Atrovent (ipratropium bromide), metered spray, 0.021 mcg/spray and 0.042 mcg/spray, was not withdrawn from sale for reasons related to safety or effectiveness. Consequently, the product will remain listed in the 'Discontinued Drug Product List' section of the Orange Book, indicating its continued eligibility as a reference listed drug for generic applications.</t>
         </is>
       </c>
     </row>
@@ -9090,27 +8930,27 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1. Date of Response: November 5, 2020</t>
+          <t>November 5, 2020</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff (DMS), Office of Operations</t>
+          <t>Dockets Management Staff (DMS), Office of Operations</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Acknowledged (no substantive decision made)</t>
+          <t>Acknowledged (no substantive decision made)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges procedural receipt and filing of the petition requesting that Succinylcholine Chloride Injection in specified prefilled syringe formats be declared suitable for submission as an Abbreviated New Drug Application (ANDA). The FDA clarified that this acceptance is procedural and does not reflect a decision on the substantive merits of the petition.</t>
+          <t>The letter acknowledges procedural receipt and filing of the petition requesting that Succinylcholine Chloride Injection in specified prefilled syringe formats be declared suitable for submission as an Abbreviated New Drug Application (ANDA). The FDA clarified that this acceptance is procedural and does not reflect a decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -9122,27 +8962,27 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1. Date of Response: December 11, 2020</t>
+          <t>December 11, 2020</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Biologics Evaluation and Research (CBER)</t>
+          <t>Center for Biologics Evaluation and Research (CBER)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR § 10.30(e)(3), 21 CFR § 10.35(e), 21 CFR § 312.2, 21 CFR § 312.42, 21 CFR § 601.2(a), 21 CFR § 601.2(d), 21 CFR § 601.4(a), 21 U.S.C. § 262, 21 U.S.C. § 321(g)(1)(B), 21 U.S.C. § 355(i)(3), 21 U.S.C. § 360bbb-3</t>
+          <t>21 CFR § 10.30(e)(3), 21 CFR § 10.35(e), 21 CFR § 312.2, 21 CFR § 312.42, 21 CFR § 601.2(a), 21 CFR § 601.2(d), 21 CFR § 601.4(a), 21 U.S.C. § 262, 21 U.S.C. § 321(g)(1)(B), 21 U.S.C. § 355(i)(3), 21 U.S.C. § 360bbb-3</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied the petition and administrative stay request submitted by Siri &amp; Glimstad LLP on behalf of ICAN, which sought amendments to the Phase 3 clinical trial designs of several COVID-19 vaccines. The petition requested the inclusion of endpoints such as reduction in severe disease, limitation on PCR cycle thresholds, measurement of transmission interruption, and T-cell reactivity. The FDA determined that these changes were not scientifically justified, would delay critical trials unnecessarily, and were not required by law. The agency emphasized that the current trial designs met all regulatory and scientific standards for safety and efficacy assessment, and that requiring the proposed changes would not be in the public interest, nor aligned with regulatory norms or public health priorities during a pandemic. The FDA further clarified its statutory and regulatory authority over INDs and clinical trials, and affirmed that its review processes already ensure robust data integrity and patient safety.</t>
+          <t>The FDA denied the petition and administrative stay request submitted by Siri &amp; Glimstad LLP on behalf of ICAN, which sought amendments to the Phase 3 clinical trial designs of several COVID-19 vaccines. The petition requested the inclusion of endpoints such as reduction in severe disease, limitation on PCR cycle thresholds, measurement of transmission interruption, and T-cell reactivity. The FDA determined that these changes were not scientifically justified, would delay critical trials unnecessarily, and were not required by law. The agency emphasized that the current trial designs met all regulatory and scientific standards for safety and efficacy assessment, and that requiring the proposed changes would not be in the public interest, nor aligned with regulatory norms or public health priorities during a pandemic. The FDA further clarified its statutory and regulatory authority over INDs and clinical trials, and affirmed that its review processes already ensure robust data integrity and patient safety.</t>
         </is>
       </c>
     </row>
@@ -9154,27 +8994,27 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1. Date of Response: November 13, 2020</t>
+          <t>November 13, 2020</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff (DMS), Office of Operations</t>
+          <t>Dockets Management Staff (DMS), Office of Operations</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Acknowledged (no substantive decision made)</t>
+          <t>Acknowledged (no substantive decision made)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The letter acknowledges procedural receipt and filing of the petition requesting that Vancomycin Hydrochloride for Oral Solution EQ 125 mg (base)/5 mL be declared suitable for submission as an Abbreviated New Drug Application (ANDA). The FDA clarified that acceptance for filing is a procedural matter and does not indicate any decision on the petition’s substantive merits.</t>
+          <t>The letter acknowledges procedural receipt and filing of the petition requesting that Vancomycin Hydrochloride for Oral Solution EQ 125 mg (base)/5 mL be declared suitable for submission as an Abbreviated New Drug Application (ANDA). The FDA clarified that acceptance for filing is a procedural matter and does not indicate any decision on the petition’s substantive merits.</t>
         </is>
       </c>
     </row>
@@ -9186,27 +9026,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1. Date of Response: May 12, 2021</t>
+          <t>May 12, 2021</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Interim Response (no final decision yet)</t>
+          <t>Interim Response (no final decision yet)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e)(2)</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA issued an interim response stating that it has not yet resolved the issues raised in the citizen petition concerning the approval of roxadustat (FG-4592). The petition requested the agency to withhold approval of any New Drug Application for roxadustat until further safety data is submitted and to consider requiring a boxed warning on the label. The FDA noted that the petition raises complex issues requiring extensive review and analysis, and assured that a full response will be issued once a decision is made.</t>
+          <t>The FDA issued an interim response stating that it has not yet resolved the issues raised in the citizen petition concerning the approval of roxadustat (FG-4592). The petition requested the agency to withhold approval of any New Drug Application for roxadustat until further safety data is submitted and to consider requiring a boxed warning on the label. The FDA noted that the petition raises complex issues requiring extensive review and analysis, and assured that a full response will be issued once a decision is made.</t>
         </is>
       </c>
     </row>
@@ -9218,27 +9058,27 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1. Date of Response: May 11, 2021</t>
+          <t>May 11, 2021</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Interim Response (no final decision yet)</t>
+          <t>Interim Response (no final decision yet)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.30(e)(2)</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA issued an interim response stating that it has not yet resolved the issues raised in the citizen petition submitted by Encore Dermatology. The petition requested the FDA to refuse approval of Glenmark’s ANDA for a generic clobetasol propionate product due to significant formulation changes affecting safety and effectiveness. It also requested that any such products be submitted as NDAs with additional supporting data or, if approved as ANDAs, include comparative clinical endpoint studies and safety data. The FDA cited competing priorities as the reason for the delay in issuing a final decision.</t>
+          <t>The FDA issued an interim response stating that it has not yet resolved the issues raised in the citizen petition submitted by Encore Dermatology. The petition requested the FDA to refuse approval of Glenmark’s ANDA for a generic clobetasol propionate product due to significant formulation changes affecting safety and effectiveness. It also requested that any such products be submitted as NDAs with additional supporting data or, if approved as ANDAs, include comparative clinical endpoint studies and safety data. The FDA cited competing priorities as the reason for the delay in issuing a final decision.</t>
         </is>
       </c>
     </row>
@@ -9250,27 +9090,27 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1. Date of Response: December 14, 2022</t>
+          <t>December 14, 2022</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Granted in part and denied in part</t>
+          <t>Granted in part and denied in part</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 201.56(a), 21 CFR 201.57(c)(1), 21 CFR 201.57(c)(3)(i), 21 CFR 201.57(c)(18), 21 CFR 201.100(c), 21 CFR 314.80(a), 21 CFR 809.3, 21 CFR 862.3364, 21 CFR 201.57(c)(13), 21 CFR 10.30(e)(3)</t>
+          <t>21 CFR 201.56(a), 21 CFR 201.57(c)(1), 21 CFR 201.57(c)(3)(i), 21 CFR 201.57(c)(18), 21 CFR 201.100(c), 21 CFR 314.80(a), 21 CFR 809.3, 21 CFR 862.3364, 21 CFR 201.57(c)(13), 21 CFR 10.30(e)(3)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA partially granted the petition by approving updates to Xeloda’s labeling regarding DPD (dihydropyrimidine dehydrogenase) deficiency, including enhanced WARNINGS AND PRECAUTIONS, PATIENT COUNSELING INFORMATION, and a new PHARMACOGENOMICS section. These changes clarify risks and testing considerations for patients with DPYD variants. However, the agency denied requests to include a BOXED WARNING or to mandate universal DPD screening, citing insufficient evidence on the accuracy and benefits of current tests, potential harms from inaccurate results, and concerns about test generalizability across diverse populations. Requests for similar changes to fluorouracil labeling were also denied pending further review.</t>
+          <t>The FDA partially granted the petition by approving updates to Xeloda’s labeling regarding DPD (dihydropyrimidine dehydrogenase) deficiency, including enhanced WARNINGS AND PRECAUTIONS, PATIENT COUNSELING INFORMATION, and a new PHARMACOGENOMICS section. These changes clarify risks and testing considerations for patients with DPYD variants. However, the agency denied requests to include a BOXED WARNING or to mandate universal DPD screening, citing insufficient evidence on the accuracy and benefits of current tests, potential harms from inaccurate results, and concerns about test generalizability across diverse populations. Requests for similar changes to fluorouracil labeling were also denied pending further review.</t>
         </is>
       </c>
     </row>
@@ -9282,27 +9122,27 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1. Date of Response: December 11, 2020</t>
+          <t>December 11, 2020</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Biologics Evaluation and Research (CBER)</t>
+          <t>Center for Biologics Evaluation and Research (CBER)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR §§ 10.30(e)(3), 10.35(e), 312.2, 312.20(a), 312.42, 601.2(d); 21 U.S.C. §§ 355(i)(3), 360bbb-3, 262(a)(2)(C)(i)(I), 321(g)(1)(B)</t>
+          <t>21 CFR §§ 10.30(e)(3), 10.35(e), 312.2, 312.20(a), 312.42, 601.2(d); 21 U.S.C. §§ 355(i)(3), 360bbb-3, 262(a)(2)(C)(i)(I), 321(g)(1)(B)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA denied both the citizen petition and the petition for stay of action submitted by Siri &amp; Glimstad LLP on behalf of Dr. Sin Hang Lee. The petition requested that all positive COVID-19 PCR results used to determine vaccine efficacy in the Pfizer Phase 3 trial be verified by Sanger sequencing due to concerns about false positives from high cycle threshold values. The FDA responded that the requested confirmatory step lacks scientific merit. PCR tests authorized for use have demonstrated sufficient sensitivity and specificity, and Sanger sequencing is not required for confirmation. The agency also emphasized that EUA and licensure decisions for COVID-19 vaccines are based on rigorous data review and standards of safety, efficacy, and manufacturing quality. Additionally, the petition for administrative stay failed to meet the regulatory criteria, as the petitioner did not demonstrate irreparable injury, sound public policy grounds, or that delay would not harm public health interests. FDA concluded that clinical trials should not be halted based on unsupported claims lacking scientific justification.</t>
+          <t>The FDA denied both the citizen petition and the petition for stay of action submitted by Siri &amp; Glimstad LLP on behalf of Dr. Sin Hang Lee. The petition requested that all positive COVID-19 PCR results used to determine vaccine efficacy in the Pfizer Phase 3 trial be verified by Sanger sequencing due to concerns about false positives from high cycle threshold values. The FDA responded that the requested confirmatory step lacks scientific merit. PCR tests authorized for use have demonstrated sufficient sensitivity and specificity, and Sanger sequencing is not required for confirmation. The agency also emphasized that EUA and licensure decisions for COVID-19 vaccines are based on rigorous data review and standards of safety, efficacy, and manufacturing quality. Additionally, the petition for administrative stay failed to meet the regulatory criteria, as the petitioner did not demonstrate irreparable injury, sound public policy grounds, or that delay would not harm public health interests. FDA concluded that clinical trials should not be halted based on unsupported claims lacking scientific justification.</t>
         </is>
       </c>
     </row>
@@ -9314,27 +9154,27 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1. Date of Response: November 25, 2020</t>
+          <t>November 25, 2020</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Dockets Management Staff (DMS), Office of Operations</t>
+          <t>Dockets Management Staff (DMS), Office of Operations</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Acknowledged (no substantive decision made)</t>
+          <t>Acknowledged (no substantive decision made)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: Not Mentioned</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA acknowledged procedural receipt and filing of the petition requesting the agency to allow the filing of an Abbreviated New Drug Application (ANDA) for Cefpodoxime Proxetil Tablets with the addition of a 50 mg tablet strength. The agency emphasized that this acceptance is procedural and does not reflect any decision on the substantive merits of the petition.</t>
+          <t>The FDA acknowledged procedural receipt and filing of the petition requesting the agency to allow the filing of an Abbreviated New Drug Application (ANDA) for Cefpodoxime Proxetil Tablets with the addition of a 50 mg tablet strength. The agency emphasized that this acceptance is procedural and does not reflect any decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
@@ -9346,27 +9186,27 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1. Date of Response: December 30, 2022</t>
+          <t>December 30, 2022</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Dismissed in part and denied in part</t>
+          <t>Dismissed in part and denied in part</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 U.S.C. § 384(j)(2), 21 CFR § 10.25(a), 21 CFR § 10.30(e)(3)</t>
+          <t>21 U.S.C. § 384(j)(2), 21 CFR § 10.25(a), 21 CFR § 10.30(e)(3)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA dismissed as moot the portion of the petition requesting withdrawal of the Personal Importation RFP and a halt to approval of Individual Waiver Importation Plans (IWIPs), as HHS had already withdrawn the relevant documents. The remaining requests were denied on the grounds that they were either legally improper for a citizen petition (e.g., asking FDA to comply with legal requirements), or irrelevant since section 804(j) is not currently in effect and no related implementation is underway. FDA concluded that addressing hypothetical procedural implementations would not be an efficient use of agency resources at this time.</t>
+          <t>The FDA dismissed as moot the portion of the petition requesting withdrawal of the Personal Importation RFP and a halt to approval of Individual Waiver Importation Plans (IWIPs), as HHS had already withdrawn the relevant documents. The remaining requests were denied on the grounds that they were either legally improper for a citizen petition (e.g., asking FDA to comply with legal requirements), or irrelevant since section 804(j) is not currently in effect and no related implementation is underway. FDA concluded that addressing hypothetical procedural implementations would not be an efficient use of agency resources at this time.</t>
         </is>
       </c>
     </row>
@@ -9730,27 +9570,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1. Date of Response: November 3, 2023</t>
+          <t>November 3, 2023</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2. Responding FDA Center: Center for Veterinary Medicine (CVM)</t>
+          <t>Center for Veterinary Medicine (CVM)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>3. Response to Petition: Denied</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>4. Cited Statutes or Regulations: 21 CFR 10.35(e), 21 U.S.C. 360b(d)(1)(I), 21 CFR 500.82(b), 21 CFR 500.86, 21 CFR 530.11(b), 21 U.S.C. 348(c)(3)(A), 21 U.S.C. 379e(b)(5)(B), 21 U.S.C. 321(p), 21 CFR 558.450(e)(3)</t>
+          <t>21 CFR 10.35(e), 21 U.S.C. 360b(d)(1)(I), 21 CFR 500.82(b), 21 CFR 500.86, 21 CFR 530.11(b), 21 U.S.C. 348(c)(3)(A), 21 U.S.C. 379e(b)(5)(B), 21 U.S.C. 321(p), 21 CFR 558.450(e)(3)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>5. Justification for Response: The FDA determined that a stay is not in the public interest and fails three of the four required factors under 21 CFR 10.35(e). The petition did not demonstrate irreparable harm, sound public policy, or warrant delay. Specifically, carbadox remains marketable and constitutes a minor portion of Phibro’s revenue; public policy demands strict adherence to the Delaney Clause requiring no carcinogenic residues in edible tissues; and Phibro has had over a decade to conduct the necessary studies to support its claims. Therefore, the agency denied the stay petition.</t>
+          <t>The FDA determined that a stay is not in the public interest and fails three of the four required factors under 21 CFR 10.35(e). The petition did not demonstrate irreparable harm, sound public policy, or warrant delay. Specifically, carbadox remains marketable and constitutes a minor portion of Phibro’s revenue; public policy demands strict adherence to the Delaney Clause requiring no carcinogenic residues in edible tissues; and Phibro has had over a decade to conduct the necessary studies to support its claims. Therefore, the agency denied the stay petition.</t>
         </is>
       </c>
     </row>

--- a/outputs_responses.xlsx
+++ b/outputs_responses.xlsx
@@ -654,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -710,7 +710,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>September 14, 2015</t>
+          <t>October 27, 2015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -720,17 +720,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The FDA denied the citizen petition.</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 201.57(c)(9)(i), 21 CFR 201.80(f)(6)(i), 21 CFR 201.56(b), 21 CFR 201.57(c)(9), 21 CFR 201.80, 21 CFR part 314.80(c)(1)(i), 21 CFR part 803 Subpart E, Section 519(b) of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The FDA reviewed the petition and concluded that the available data did not support a change in pregnancy risk category for ondansetron, nor did it justify notifications to OB/GYNs regarding safety or efficacy concerns for the use of ondansetron in treating nausea and vomiting of pregnancy (NVP). The FDA found insufficient evidence to support claims of increased risks to the fetus, neonate, or mother and also noted that ondansetron is not approved for treating NVP, so efficacy comparisons with other treatments were not warranted.</t>
+          <t>The FDA denied the petition based on a comprehensive review of multiple studies and data sources, concluding that the available evidence does not demonstrate a sufficient risk to justify changing ondansetron’s pregnancy category or issuing special safety communications. The cited studies showing possible risks (e.g., cleft palate, cardiovascular malformations) had methodological limitations, and larger, more robust studies (e.g., Pasternak et al.) did not confirm these associations. FDA also found no sufficient safety signal regarding the use of ondansetron with infusion pumps in pregnant women. Consequently, the FDA found no need for new warnings or regulatory actions.</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>August 4, 2014</t>
+          <t>October 30, 2015</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -816,17 +816,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The FDA denied the citizen petition.</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 10.30(e)(3), 21 CFR 807.81(a)(3), 21 U.S.C. § 360c(a)(1)(B), 21 CFR 807.87(l), 21 CFR 820.30(g), 21 CFR 820.100(a)(1), 21 CFR 820.198(a), 21 CFR 820.198(c), 21 CFR 820.70(a), 21 CFR 820.70(b), 21 CFR 820.200(c), 21 CFR 820.250(a), 21 CFR 820.75(a), 21 CFR 820.90(a), 21 CFR 820.100(a), 21 CFR 820.198(b), 21 CFR 820.30(i)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The FDA denied the petition, concluding that the issues raised in the petition did not warrant changes in the FDA's regulations or procedures for medical devices. The FDA emphasized its existing regulatory framework and found that the petition did not provide sufficient evidence or justification for reconsideration of the current policies.</t>
+          <t>The FDA denied the petition after concluding that the petitioner failed to demonstrate that the manufacturer’s device modifications required a new 510(k) submission. FDA determined that the changes cited did not significantly affect the safety or effectiveness of the device and were properly documented under the manufacturer’s existing quality system. The agency reviewed inspectional findings, complaint records, and quality system documentation and found them consistent with regulatory requirements. Additionally, FDA found no evidence that the device was misbranded or that the manufacturer violated FDA regulations requiring premarket notification.</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>March 10, 2016</t>
+          <t>March 4, 2016</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The FDA issued an interim response to the petition.</t>
+          <t>Interim Response – Final response not yet issued</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The FDA provided an interim response, indicating that the issues raised in the petition require further review and analysis. The Agency stated that it would need additional time to assess the matters presented in the petition before issuing a final decision.</t>
+          <t>The FDA issued an interim response stating that it has not yet reached a decision on the petition due to the need for more time to review the issues raised. The agency acknowledged receipt of the petition and committed to responding as soon as it reached a decision.</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>September 1, 2015</t>
+          <t>November 2, 2015</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The FDA denied the citizen petition.</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 10.30, 21 CFR 314.70, 21 CFR 314.3(b), 21 CFR 314.80, 21 CFR 314.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The FDA denied the petition because the requested actions were not supported by the available data or the Agency's regulatory framework. The FDA concluded that the petition did not provide sufficient evidence to justify the changes or actions requested in the petition.</t>
+          <t>The FDA denied the petition after determining that the petitioner did not provide sufficient evidence to support the requested labeling changes or risk disclosures for the drug products. FDA concluded that the available scientific data did not substantiate the alleged safety concerns and that the current regulatory framework and monitoring systems were adequate to address any potential risks. The agency also emphasized that labeling decisions must be based on reliable scientific evidence.</t>
         </is>
       </c>
     </row>
@@ -1158,27 +1158,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>July 6, 2021</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
+          <t>CDER (Center for Drug Evaluation and Research)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 10.30, section 505(j) of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>FDA concluded that the petitioner did not provide sufficient evidence to support the requested changes and that current regulatory requirements and scientific standards remain appropriate.</t>
         </is>
       </c>
     </row>
@@ -1286,44 +1286,44 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>November 25, 2014 :contentReference[oaicite:0]{index=0}&amp;#8203;:contentReference[oaicite:1]{index=1}</t>
+          <t>November 25, 2014</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Center for Food Safety and Applied Nutrition (CFSAN) :contentReference[oaicite:2]{index=2}&amp;#8203;:contentReference[oaicite:3]{index=3}</t>
+          <t>CFSAN</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Denied – FDA denied the 2013 citizen petition in its entirety :contentReference[oaicite:4]{index=4}&amp;#8203;:contentReference[oaicite:5]{index=5}</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21 CFR 1240.61; 21 CFR 10.40(a)(2); 21 CFR 10.30(e)(3); 42 U.S.C. § 264(a) :contentReference[oaicite:6]{index=6}</t>
+          <t>21 CFR 1240.61; 21 CFR 10.30(e)(3); 21 CFR 10.40(a)(2); 42 U.S.C. § 264(a) (PHSA §361(a)); Federal Food, Drug, and Cosmetic Act (FDCA) sections 301(a), 301(b), 301(c), 301(k) (21 U.S.C. §§ 331(a)-(c), (k)); 21 U.S.C. § 342(a)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Petition presented no reasonable grounds or evidence to modify prior denial; raw milk still poses demonstrated safety risks, and amending 21 CFR 1240.61 would not serve public health objectives :contentReference[oaicite:7]{index=7}</t>
+          <t>FDA denied the petition to allow interstate distribution of raw milk, concluding that raw milk poses significant public health risks due to potential pathogen contamination. The petitioner failed to provide new scientific evidence demonstrating the safety of raw milk or justifying the requested regulatory changes. FDA found that pasteurization remains necessary for public health protection and that state regulation or voluntary standards do not adequately ensure raw milk safety.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0701-0004_Citizen_Petition_Denial_Letter_from_FDA_CFSAN_to_O.pdf</t>
+          <t>FDA-2013-P-0766-0006_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>November 25, 2014</t>
+          <t>February 19, 2016</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CFSAN</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1333,24 +1333,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21 CFR 1240.61; 21 CFR 10.30(e)(3); 21 CFR 10.40(a)(2); 42 U.S.C. § 264(a) (PHSA §361(a)); Federal Food, Drug, and Cosmetic Act (FDCA) sections 301(a), 301(b), 301(c), 301(k) (21 U.S.C. §§ 331(a)-(c), (k)); 21 U.S.C. § 342(a)</t>
+          <t>21 U.S.C. 355(j); 21 CFR 314.94(a); 21 CFR 320.1(e); 21 CFR 320.23(b); 21 CFR 320.24(b); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); Physical Attributes Guidance</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FDA denied the petition to allow interstate distribution of raw milk, concluding that raw milk poses significant public health risks due to potential pathogen contamination. The petitioner failed to provide new scientific evidence demonstrating the safety of raw milk or justifying the requested regulatory changes. FDA found that pasteurization remains necessary for public health protection and that state regulation or voluntary standards do not adequately ensure raw milk safety.</t>
+          <t>FDA denied the petition because the current bioequivalence requirements based on the parent drug, albendazole, are scientifically sufficient; the agency found no need to require bioequivalence testing based on the metabolite albendazole sulfoxide. FDA also concluded that labeling for generic albendazole products does not need to identically match the original pediatric instructions from Albenza labeling and that differences, if any, can be evaluated during ANDA review. Finally, FDA found no evidence of significant choking risk associated with 200 mg tablets and determined that compliance with the Physical Attributes Guidance would sufficiently ensure patient safety without the need for additional simulated use testing.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0766-0006_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-0768-0005_Letter_from_FDA_CDER_from_Salus_Pharma_LLC.pdf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>February 19, 2016</t>
+          <t>February 18, 2015</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1365,24 +1365,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21 U.S.C. 355(j); 21 CFR 314.94(a); 21 CFR 320.1(e); 21 CFR 320.23(b); 21 CFR 320.24(b); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); Physical Attributes Guidance</t>
+          <t>21 CFR 314.94(a)(9)(iii); 21 CFR 320.24; 21 CFR 314.127(a)(6); 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FDA denied the petition because the current bioequivalence requirements based on the parent drug, albendazole, are scientifically sufficient; the agency found no need to require bioequivalence testing based on the metabolite albendazole sulfoxide. FDA also concluded that labeling for generic albendazole products does not need to identically match the original pediatric instructions from Albenza labeling and that differences, if any, can be evaluated during ANDA review. Finally, FDA found no evidence of significant choking risk associated with 200 mg tablets and determined that compliance with the Physical Attributes Guidance would sufficiently ensure patient safety without the need for additional simulated use testing.</t>
+          <t>FDA denied the petition because it determined that Salus Pharma's request for in vivo bioequivalence testing for generic potassium chloride oral solutions was not warranted. FDA concluded that in vitro bioequivalence studies are sufficient for these solutions based on their pharmaceutical characteristics (e.g., simple aqueous solutions) and history of safe and effective use, and requiring in vivo studies would be unnecessary and inconsistent with established regulatory practice.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0768-0005_Letter_from_FDA_CDER_from_Salus_Pharma_LLC.pdf</t>
+          <t>FDA-2013-P-0799-0003_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>February 18, 2015</t>
+          <t>Not Explicitly Mentioned (likely around early 2015 based on context)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1392,29 +1392,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21 CFR 314.94(a)(9)(iii); 21 CFR 320.24; 21 CFR 314.127(a)(6); 21 U.S.C. 355(j)</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); 21 CFR 314.94(a)(9)(iii)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it determined that Salus Pharma's request for in vivo bioequivalence testing for generic potassium chloride oral solutions was not warranted. FDA concluded that in vitro bioequivalence studies are sufficient for these solutions based on their pharmaceutical characteristics (e.g., simple aqueous solutions) and history of safe and effective use, and requiring in vivo studies would be unnecessary and inconsistent with established regulatory practice.</t>
+          <t>FDA approved the petition because the proposed change in drug strength (from 250 mg to 187.5 mg and 375 mg) does not pose questions of safety or effectiveness. The uses, dosage form, and route of administration are the same as the listed drug product. The proposed strengths are consistent with dosing recommendations in the labeling of the reference product, and if bioequivalence requirements are met, the products can be expected to have the same therapeutic effect without requiring significant labeling changes or additional investigations.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0799-0003_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
+          <t>FDA-2013-P-0846-0003_Citizen_Petition_Denial_Reponse_Letter_from_FDA_CD.pdf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Not Explicitly Mentioned (likely around early 2015 based on context)</t>
+          <t>November 17, 2014</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1424,29 +1424,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); 21 CFR 314.94(a)(9)(iii)</t>
+          <t>Section 505(j) of the FD&amp;C Act; 21 CFR 314.3; Section 505(j)(7) of the FD&amp;C Act; Section 505(j)(2)(A)(iv) of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FDA approved the petition because the proposed change in drug strength (from 250 mg to 187.5 mg and 375 mg) does not pose questions of safety or effectiveness. The uses, dosage form, and route of administration are the same as the listed drug product. The proposed strengths are consistent with dosing recommendations in the labeling of the reference product, and if bioequivalence requirements are met, the products can be expected to have the same therapeutic effect without requiring significant labeling changes or additional investigations.</t>
+          <t>FDA denied the petition because the Israeli-approved version of KUVAN is not a listed drug under the Federal Food, Drug, and Cosmetic Act, and therefore cannot be used as a reference standard for bioequivalence studies. The agency emphasized that small differences between a foreign-approved product and the U.S. RLD could affect critical performance characteristics, and FDA policy does not allow bioequivalence studies using foreign versions unless equivalence to the U.S. RLD has been demonstrated.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0846-0003_Citizen_Petition_Denial_Reponse_Letter_from_FDA_CD.pdf</t>
+          <t>FDA-2013-P-0847-0003_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>November 17, 2014</t>
+          <t>Not Explicitly Mentioned (likely March 2024 based on signature timestamp)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1456,93 +1456,93 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Section 505(j) of the FD&amp;C Act; 21 CFR 314.3; Section 505(j)(7) of the FD&amp;C Act; Section 505(j)(2)(A)(iv) of the FD&amp;C Act</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); 21 CFR 314.94(a)(9)(iii)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FDA denied the petition because the Israeli-approved version of KUVAN is not a listed drug under the Federal Food, Drug, and Cosmetic Act, and therefore cannot be used as a reference standard for bioequivalence studies. The agency emphasized that small differences between a foreign-approved product and the U.S. RLD could affect critical performance characteristics, and FDA policy does not allow bioequivalence studies using foreign versions unless equivalence to the U.S. RLD has been demonstrated.</t>
+          <t>FDA approved the petition because the proposed change in strength from 4 mg to 8 mg does not pose questions of safety or effectiveness. The uses, dose, dosage form, and route of administration remain the same as the listed drug product. The change is consistent with dosing recommendations in the listed drug’s labeling, and if bioequivalence is demonstrated, the proposed product can be expected to have the same therapeutic effect without requiring significant labeling changes or additional investigations.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0847-0003_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
+          <t>FDA-2013-P-0862-0006_Denial_Response_Letter_from_FDA_CVM_to_Spec_Pharma.pdf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Not Explicitly Mentioned (likely March 2024 based on signature timestamp)</t>
+          <t>October 28, 2014</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CDER</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); 21 CFR 314.94(a)(9)(iii)</t>
+          <t>21 CFR 514.1(a); 21 CFR 514.100(a)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>FDA approved the petition because the proposed change in strength from 4 mg to 8 mg does not pose questions of safety or effectiveness. The uses, dose, dosage form, and route of administration remain the same as the listed drug product. The change is consistent with dosing recommendations in the listed drug’s labeling, and if bioequivalence is demonstrated, the proposed product can be expected to have the same therapeutic effect without requiring significant labeling changes or additional investigations.</t>
+          <t>FDA denied the petition because Luitpold Pharmaceuticals is the applicant of record for the Beta Beta ANDA, and Luitpold provided certifications through FDA Form 356v affirming the validity of its submission. FDA policy allows reliance on the applicant’s certifications and does not require resolution of private ownership disputes before proceeding with regulatory review. The Agency concluded that it was appropriate to continue its review of Beta Vet without requiring Spec Pharma’s consent.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0862-0006_Denial_Response_Letter_from_FDA_CVM_to_Spec_Pharma.pdf</t>
+          <t>FDA-2013-P-0885-0003_Interim_Response_from_FDA_CDER__to_AMAG_Pharmaceut.pdf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>October 28, 2014</t>
+          <t>December 4, 2014</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CVM</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Interim Response (Final response pending)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21 CFR 514.1(a); 21 CFR 514.100(a)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FDA denied the petition because Luitpold Pharmaceuticals is the applicant of record for the Beta Beta ANDA, and Luitpold provided certifications through FDA Form 356v affirming the validity of its submission. FDA policy allows reliance on the applicant’s certifications and does not require resolution of private ownership disputes before proceeding with regulatory review. The Agency concluded that it was appropriate to continue its review of Beta Vet without requiring Spec Pharma’s consent.</t>
+          <t>FDA issued an interim response because it had not yet reached a final decision on the petition due to the need for further review and consideration. The Agency indicated that it would respond fully once the review was complete.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0885-0003_Interim_Response_from_FDA_CDER__to_AMAG_Pharmaceut.pdf</t>
+          <t>FDA-2013-P-0886-0005_Response_Letter_from_FDA_CDER_to_Arnall_Golden_Gre.pdf</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>December 4, 2014</t>
+          <t>August 29, 2014</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1552,162 +1552,162 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interim Response (Final response pending)</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 314.161; 21 CFR 314.162; 21 U.S.C. 355(j)(7)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FDA issued an interim response because it had not yet reached a final decision on the petition due to the need for further review and consideration. The Agency indicated that it would respond fully once the review was complete.</t>
+          <t>FDA approved the petition after determining that JADELLE (levonorgestrel implant, 75 mg) was not withdrawn from sale for reasons of safety or effectiveness. FDA reviewed agency records, postmarketing adverse event data, and literature, concluding there was no evidence of safety or effectiveness concerns prompting the withdrawal. As a result, JADELLE will remain listed in the Discontinued Drug Product List, allowing approval of ANDAs referencing the product if all other legal and regulatory requirements are met.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0886-0005_Response_Letter_from_FDA_CDER_to_Arnall_Golden_Gre.pdf</t>
+          <t>FDA-2013-P-0944-0003_Response_Letter_from_FDA_CDRH_to_Jeffrey_G__Thomas.pdf</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>August 29, 2014</t>
+          <t>February 4, 2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CDER</t>
+          <t>CDRH</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Denied (one request denied as moot, all others denied)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>21 CFR 314.161; 21 CFR 314.162; 21 U.S.C. 355(j)(7)</t>
+          <t>21 CFR 814.82; 21 CFR 814.47; Section 515(g)(1) of the FD&amp;C Act; Section 515(e)(3) of the FD&amp;C Act; 21 CFR 801.5; 21 CFR 801.109; 21 CFR 314.161; 21 CFR 314.162; 21 CFR 803.9; 21 CFR 20.63(f)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FDA approved the petition after determining that JADELLE (levonorgestrel implant, 75 mg) was not withdrawn from sale for reasons of safety or effectiveness. FDA reviewed agency records, postmarketing adverse event data, and literature, concluding there was no evidence of safety or effectiveness concerns prompting the withdrawal. As a result, JADELLE will remain listed in the Discontinued Drug Product List, allowing approval of ANDAs referencing the product if all other legal and regulatory requirements are met.</t>
+          <t>FDA denied the petition because the post-approval study was already completed, labeling was found adequate to ensure safe use, no new evidence justified additional warnings, adverse event reporting compliance did not warrant further FDA investigation, the disclosure requests were outside the scope of a citizen petition, and suspension of the PMA was not supported by any evidence showing serious adverse health consequences or death risk.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0944-0003_Response_Letter_from_FDA_CDRH_to_Jeffrey_G__Thomas.pdf</t>
+          <t>FDA-2013-P-0945-0003_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>February 4, 2023</t>
+          <t>April 17, 2020</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CDRH</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Denied (one request denied as moot, all others denied)</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>21 CFR 814.82; 21 CFR 814.47; Section 515(g)(1) of the FD&amp;C Act; Section 515(e)(3) of the FD&amp;C Act; 21 CFR 801.5; 21 CFR 801.109; 21 CFR 314.161; 21 CFR 314.162; 21 CFR 803.9; 21 CFR 20.63(f)</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); Section 505(j)(2)(A) and (B) of the Act; Section 505(j)(2)(A)(iv) of the Act</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FDA denied the petition because the post-approval study was already completed, labeling was found adequate to ensure safe use, no new evidence justified additional warnings, adverse event reporting compliance did not warrant further FDA investigation, the disclosure requests were outside the scope of a citizen petition, and suspension of the PMA was not supported by any evidence showing serious adverse health consequences or death risk.</t>
+          <t>FDA approved the petition because the proposed change in strength from 250 mg to 300 mg does not pose questions of safety or effectiveness. The uses, dose, dosage form, and route of administration are the same as the listed drug. The proposed change is consistent with dosing recommendations in the existing labeling, and if bioequivalence is demonstrated, the new product can be expected to have the same therapeutic effect without requiring significant labeling changes or additional investigations.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0945-0003_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
+          <t>FDA-2013-P-0947-0003_Letter_from_FDA_CDER_to_Hyman_Phelps_and_McNamara_.pdf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>April 17, 2020</t>
+          <t>March 3, 2015</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CDER</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); Section 505(j)(2)(A) and (B) of the Act; Section 505(j)(2)(A)(iv) of the Act</t>
+          <t>21 C.F.R. § 10.30; section 505(j) of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FDA approved the petition because the proposed change in strength from 250 mg to 300 mg does not pose questions of safety or effectiveness. The uses, dose, dosage form, and route of administration are the same as the listed drug. The proposed change is consistent with dosing recommendations in the existing labeling, and if bioequivalence is demonstrated, the new product can be expected to have the same therapeutic effect without requiring significant labeling changes or additional investigations.</t>
+          <t>The petition was denied because the FDA determined that the scientific and legal arguments presented did not support the requested actions. The agency concluded that the requirements for approving an ANDA referencing the listed drug were adequately addressed by existing regulations and guidance, and that additional labeling requirements as proposed were not warranted.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0947-0003_Letter_from_FDA_CDER_to_Hyman_Phelps_and_McNamara_.pdf</t>
+          <t>FDA-2013-P-0949-0008_Response_Letter_from_FDA_CDRH_to_Garrett_Skelly__E.pdf</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>May 30, 2020</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CDER</t>
+          <t>CDRH</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interim Response (Final response pending)</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 10.33(i); 21 CFR 10.30(e); 21 CFR 801.109; 21 CFR 890.9; 21 CFR 820.198; 21 CFR 820.200; Section 520(e) of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FDA issued an interim response because it had not yet reached a final decision on the petition. The Agency stated that it was still reviewing the petition and would respond fully once the review was complete.</t>
+          <t>FDA reaffirmed its prior denial because the reconsideration petition did not raise new issues that warranted a different outcome. The agency maintained that changes in labeling require a new 510(k) submission by the manufacturer, that prosthetists properly fulfill their role under the prescription use requirement, and that allegations regarding fraud and ADA discrimination were either outside the scope of reconsideration or irrelevant to FDA’s statutory authority. The request to revoke premarket clearance and amend regulatory requirements was also denied.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0949-0008_Response_Letter_from_FDA_CDRH_to_Garrett_Skelly__E.pdf</t>
+          <t>FDA-2013-P-0990-0003_Letter_from_FDA_CDER_to_Corporate_Social_Responsib.pdf</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>May 30, 2020</t>
+          <t>December 30, 2014</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CDRH</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1717,61 +1717,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>21 CFR 10.33(i); 21 CFR 10.30(e); 21 CFR 801.109; 21 CFR 890.9; 21 CFR 820.198; 21 CFR 820.200; Section 520(e) of the FD&amp;C Act</t>
+          <t>21 C.F.R. §§ 10.30, 314.80, 314.81; Section 505(k) of the Federal Food, Drug, and Cosmetic Act (FDCA)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FDA reaffirmed its prior denial because the reconsideration petition did not raise new issues that warranted a different outcome. The agency maintained that changes in labeling require a new 510(k) submission by the manufacturer, that prosthetists properly fulfill their role under the prescription use requirement, and that allegations regarding fraud and ADA discrimination were either outside the scope of reconsideration or irrelevant to FDA’s statutory authority. The request to revoke premarket clearance and amend regulatory requirements was also denied.</t>
+          <t>The FDA denied the petition because the requested actions (including withdrawal of marketing approval of certain products and changes to risk communication) were not warranted based on the data and information provided. The agency found no evidence that the products posed a danger to health or that the sponsor failed to meet postmarketing reporting obligations.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0990-0003_Letter_from_FDA_CDER_to_Corporate_Social_Responsib.pdf</t>
+          <t>FDA-2013-P-0997-0005_Petition_Response_Letter_from_FDA_CDRH_to_Thomas_J.pdf</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>June 21, 2020</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CDER</t>
+          <t>CDRH</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interim Response (Final response pending)</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR Part 1030; 21 CFR Part 820; 21 CFR Part 803; 21 CFR Part 801; Sections 501, 502, 519, and 520(f) of the FD&amp;C Act; 21 CFR Parts 1002, 1003, and 1004; Section 531(2) of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FDA issued an interim response stating that it had not yet reached a final decision on the petition and would fully respond once its review of the petition was complete.</t>
+          <t>FDA denied the petition because it failed to provide sufficient justification demonstrating that new performance standards for Nuclear Magnetic Resonance Imaging devices are necessary. The agency stated that existing regulatory controls, including premarket review, good manufacturing practices, adverse event reporting, and participation in consensus standards development, already ensure the safety and effectiveness of these devices.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0997-0005_Petition_Response_Letter_from_FDA_CDRH_to_Thomas_J.pdf</t>
+          <t>FDA-2013-P-0998-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>June 21, 2020</t>
+          <t>February 9, 2015</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CDRH</t>
+          <t>CDER</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1781,19 +1781,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>21 CFR Part 1030; 21 CFR Part 820; 21 CFR Part 803; 21 CFR Part 801; Sections 501, 502, 519, and 520(f) of the FD&amp;C Act; 21 CFR Parts 1002, 1003, and 1004; Section 531(2) of the FD&amp;C Act</t>
+          <t>21 U.S.C. 355(j); 21 CFR 314.94(a); 21 CFR 320.1(e); 21 CFR 320.23(b); 21 CFR 320.24(b); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it failed to provide sufficient justification demonstrating that new performance standards for Nuclear Magnetic Resonance Imaging devices are necessary. The agency stated that existing regulatory controls, including premarket review, good manufacturing practices, adverse event reporting, and participation in consensus standards development, already ensure the safety and effectiveness of these devices.</t>
+          <t>FDA denied the petition because the bioequivalence requirements based on the parent drug, albendazole, were found scientifically sufficient. The agency determined there was no need to require bioequivalence testing based on the metabolite albendazole sulfoxide, and differences in labeling and tablet size for generic products did not warrant additional restrictions or studies beyond existing regulatory standards.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0998-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1000-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1813,24 +1813,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21 U.S.C. 355(j); 21 CFR 314.94(a); 21 CFR 320.1(e); 21 CFR 320.23(b); 21 CFR 320.24(b); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7)</t>
+          <t>21 U.S.C. 355(j); 21 CFR 314.94(a); 21 CFR 320.24(b)(1); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>FDA denied the petition because the bioequivalence requirements based on the parent drug, albendazole, were found scientifically sufficient. The agency determined there was no need to require bioequivalence testing based on the metabolite albendazole sulfoxide, and differences in labeling and tablet size for generic products did not warrant additional restrictions or studies beyond existing regulatory standards.</t>
+          <t>FDA denied the petition because the current bioequivalence testing requirements based on the parent compound (albendazole) were deemed scientifically appropriate and sufficient. The agency concluded that additional testing requirements based on the active metabolite were unnecessary, and that existing regulatory requirements ensure product safety and efficacy.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1000-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1001-0005_Response_Letter_from_FDA_CDER_to_Weill_Cornell_Med.pdf</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>February 9, 2015</t>
+          <t>March 7, 2022</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1845,24 +1845,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>21 U.S.C. 355(j); 21 CFR 314.94(a); 21 CFR 320.24(b)(1); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)</t>
+          <t>21 CFR Part 341; 21 CFR Part 338; 21 CFR Part 336; 21 CFR 201.63; 21 CFR 201.66(c)(5); 21 USC 352(f)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>FDA denied the petition because the current bioequivalence testing requirements based on the parent compound (albendazole) were deemed scientifically appropriate and sufficient. The agency concluded that additional testing requirements based on the active metabolite were unnecessary, and that existing regulatory requirements ensure product safety and efficacy.</t>
+          <t>FDA denied the petition because existing warnings on OTC drugs with anticholinergic effects were deemed sufficient to convey the risks of CNS effects like drowsiness. The agency found that the scientific evidence presented by the petitioner was largely based on prescription drugs, not OTC products, and lacked sufficient specificity to warrant a new mandatory warning for confusion or cognitive impairment. FDA concluded that available postmarketing data and literature did not demonstrate a sufficiently high risk of serious adverse events to justify a labeling change.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1001-0005_Response_Letter_from_FDA_CDER_to_Weill_Cornell_Med.pdf</t>
+          <t>FDA-2013-P-1055-0003_Interim_Response_from_FDA_CDER_to_Actavis_Elizabet.pdf</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>March 7, 2022</t>
+          <t>December 4, 2014</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1872,29 +1872,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Interim Response (Final response pending)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>21 CFR Part 341; 21 CFR Part 338; 21 CFR Part 336; 21 CFR 201.63; 21 CFR 201.66(c)(5); 21 USC 352(f)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FDA denied the petition because existing warnings on OTC drugs with anticholinergic effects were deemed sufficient to convey the risks of CNS effects like drowsiness. The agency found that the scientific evidence presented by the petitioner was largely based on prescription drugs, not OTC products, and lacked sufficient specificity to warrant a new mandatory warning for confusion or cognitive impairment. FDA concluded that available postmarketing data and literature did not demonstrate a sufficiently high risk of serious adverse events to justify a labeling change.</t>
+          <t>FDA issued an interim response because it had not yet reached a final decision on the petition and required additional time for review and consideration before issuing a full response.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1055-0003_Interim_Response_from_FDA_CDER_to_Actavis_Elizabet.pdf</t>
+          <t>FDA-2013-P-1056-0004_Letter_from_FDA_CDER_to__Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>December 4, 2014</t>
+          <t>December 21, 2018</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1914,24 +1914,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FDA issued an interim response because it had not yet reached a final decision on the petition and required additional time for review and consideration before issuing a full response.</t>
+          <t>FDA issued an interim response indicating that additional time was needed to review and fully respond to the citizen petition. A final decision had not yet been made at the time of the letter.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1056-0004_Letter_from_FDA_CDER_to__Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1079-0010_Petition_Interim_Response_from_FDA_OP_to_MIWG.pdf</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>December 21, 2018</t>
+          <t>July 28, 2017</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CDER</t>
+          <t>Office of Policy (OP)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1941,120 +1941,120 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FDA issued an interim response indicating that additional time was needed to review and fully respond to the citizen petition. A final decision had not yet been made at the time of the letter.</t>
+          <t>FDA issued an interim response because the petition raised complex issues that required further review and analysis. The agency had delayed the effective date of the related final rule and was still reviewing comments received during the extended comment period before making a final decision.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1079-0010_Petition_Interim_Response_from_FDA_OP_to_MIWG.pdf</t>
+          <t>FDA-2013-P-1080-0004_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>July 28, 2017</t>
+          <t>June 2, 2014</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Office of Policy (OP)</t>
+          <t>CDRH</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interim Response (Final response pending)</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e)(2)</t>
+          <t>21 CFR 820.198; 21 CFR 820.1(a); Federal Register Vol 61, No 195 (October 7, 1996); Medtronic, Inc. v. Lohr, 116 S. Ct. 2240 (1996)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>FDA issued an interim response because the petition raised complex issues that required further review and analysis. The agency had delayed the effective date of the related final rule and was still reviewing comments received during the extended comment period before making a final decision.</t>
+          <t>FDA denied the petition because the requested amendment would impose specific requirements on manufacturers for a particular device type, which is inconsistent with the general and flexible framework of 21 CFR Part 820. The Quality System Regulation is designed to apply broadly across all device types without prescribing detailed requirements for individual devices.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1080-0004_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1127-0020_Citizen_Petition_Final_Response_from_FDA_CTP_to_To.pdf</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>June 2, 2014</t>
+          <t>May 5, 2016</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CDRH</t>
+          <t>Center for Tobacco Products (CTP)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>21 CFR 820.198; 21 CFR 820.1(a); Federal Register Vol 61, No 195 (October 7, 1996); Medtronic, Inc. v. Lohr, 116 S. Ct. 2240 (1996)</t>
+          <t>5 U.S.C. 551 et seq. (Administrative Procedure Act); 21 CFR 10.30(f); 21 CFR 10.40</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>FDA denied the petition because the requested amendment would impose specific requirements on manufacturers for a particular device type, which is inconsistent with the general and flexible framework of 21 CFR Part 820. The Quality System Regulation is designed to apply broadly across all device types without prescribing detailed requirements for individual devices.</t>
+          <t>FDA granted the petition to initiate rulemaking to deem certain non-cigarette tobacco products subject to regulation under Chapter IX of the Federal Food, Drug, and Cosmetic Act, as amended by the Family Smoking Prevention and Tobacco Control Act. FDA had already published a proposed rule in April 2014 and finalized the rule, extending many cigarette and smokeless tobacco restrictions to all tobacco products.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1127-0020_Citizen_Petition_Final_Response_from_FDA_CTP_to_To.pdf</t>
+          <t>FDA-2013-P-1153-0017_Memorandum_of_Meeting_from_FDA_CDER_re_Meeting_wit.pdf</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>May 5, 2016</t>
+          <t>May 1, 2014</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Center for Tobacco Products (CTP)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Other (Listening session; no final decision rendered in this document)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5 U.S.C. 551 et seq. (Administrative Procedure Act); 21 CFR 10.30(f); 21 CFR 10.40</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FDA granted the petition to initiate rulemaking to deem certain non-cigarette tobacco products subject to regulation under Chapter IX of the Federal Food, Drug, and Cosmetic Act, as amended by the Family Smoking Prevention and Tobacco Control Act. FDA had already published a proposed rule in April 2014 and finalized the rule, extending many cigarette and smokeless tobacco restrictions to all tobacco products.</t>
+          <t>The meeting was held to hear NCPDP’s concerns regarding nonproprietary naming of biological products, particularly the impact of naming deviations on drug compendia systems, patient safety, and healthcare interoperability. FDA clarified the session was for listening only and did not involve answering questions or elaborating on guidance beyond the public domain.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1153-0017_Memorandum_of_Meeting_from_FDA_CDER_re_Meeting_wit.pdf</t>
+          <t>FDA-2013-P-1199-0004_Citizen_Petition_Response_from_FDA_CDER_to_CorePha.pdf</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>May 1, 2014</t>
+          <t>March 17, 2014</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2064,24 +2064,24 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Not Mentioned (Meeting Memorandum Only)</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 10.30(e)(3); 21 CFR 314.94(a)(9)(iii); 21 CFR 320.24</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Not applicable — the document is a meeting memorandum summarizing a listening session with the National Council for Prescription Drug Programs (NCPDP) regarding concerns about nonproprietary naming of biological products and its impact on healthcare systems. No regulatory decision or petition ruling was issued.</t>
+          <t>FDA denied the petition because it determined that in vitro bioequivalence studies are appropriate and sufficient for potassium chloride oral solutions, given their simple aqueous nature and history of safe use. The agency concluded that requiring in vivo studies would be unnecessary and inconsistent with established scientific standards.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1199-0004_Citizen_Petition_Response_from_FDA_CDER_to_CorePha.pdf</t>
+          <t>FDA-2013-P-1203-0003_Suitability_Petition_Approval_Letter_from_FDA_CDER.pdf</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2096,29 +2096,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e)(3); 21 CFR 314.94(a)(9)(iii); 21 CFR 320.24</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it determined that in vitro bioequivalence studies are appropriate and sufficient for potassium chloride oral solutions, given their simple aqueous nature and history of safe use. The agency concluded that requiring in vivo studies would be unnecessary and inconsistent with established scientific standards.</t>
+          <t>FDA approved the petition because the proposed change in strength from a 200 mL infusion bottle to a 500 mL infusion bag at the same 2 mg/mL concentration does not raise safety or effectiveness concerns. The proposed product shares the same uses, dosage form, dose, and route of administration as the listed drug, and if bioequivalence is demonstrated, it is expected to have the same therapeutic effect without requiring significant labeling changes or additional clinical investigations.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1203-0003_Suitability_Petition_Approval_Letter_from_FDA_CDER.pdf</t>
+          <t>FDA-2013-P-1286-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>March 17, 2014</t>
+          <t>February 9, 2015</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2128,24 +2128,24 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii)</t>
+          <t>21 CFR 314.94(a); 21 CFR 320.1(e); 21 CFR 320.24(b); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FDA approved the petition because the proposed change in strength from a 200 mL infusion bottle to a 500 mL infusion bag at the same 2 mg/mL concentration does not raise safety or effectiveness concerns. The proposed product shares the same uses, dosage form, dose, and route of administration as the listed drug, and if bioequivalence is demonstrated, it is expected to have the same therapeutic effect without requiring significant labeling changes or additional clinical investigations.</t>
+          <t>FDA denied the petition because it found that existing requirements for bioequivalence testing based on the parent drug substance are scientifically sufficient and appropriate. FDA concluded that additional bioequivalence testing based on metabolites was unnecessary and that labeling differences raised in the petition did not justify changing the current standards for approval of generic versions of the referenced drug.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1286-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1287-0004_Citizen_Petition_Dennial_Response_from_FDA_CDER_to.pdf</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2165,19 +2165,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>21 CFR 314.94(a); 21 CFR 320.1(e); 21 CFR 320.24(b); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
+          <t>21 CFR 314.94(a); 21 CFR 320.24(b); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it found that existing requirements for bioequivalence testing based on the parent drug substance are scientifically sufficient and appropriate. FDA concluded that additional bioequivalence testing based on metabolites was unnecessary and that labeling differences raised in the petition did not justify changing the current standards for approval of generic versions of the referenced drug.</t>
+          <t>FDA denied the petition because the bioequivalence requirements based on the parent drug were considered scientifically sufficient. The agency concluded that additional bioequivalence testing based on metabolites was unnecessary and that the labeling concerns raised did not justify changing current standards for the approval of generic versions of the drug.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1287-0004_Citizen_Petition_Dennial_Response_from_FDA_CDER_to.pdf</t>
+          <t>FDA-2013-P-1288-0007_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2202,14 +2202,14 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FDA denied the petition because the bioequivalence requirements based on the parent drug were considered scientifically sufficient. The agency concluded that additional bioequivalence testing based on metabolites was unnecessary and that the labeling concerns raised did not justify changing current standards for the approval of generic versions of the drug.</t>
+          <t>FDA denied the petition because it determined that bioequivalence testing based on the parent drug is scientifically sufficient. The agency found no need for additional metabolite-based bioequivalence studies or additional restrictions, concluding that the current standards adequately ensure generic drug safety and effectiveness.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1288-0007_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1289-0006_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2234,14 +2234,14 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it determined that bioequivalence testing based on the parent drug is scientifically sufficient. The agency found no need for additional metabolite-based bioequivalence studies or additional restrictions, concluding that the current standards adequately ensure generic drug safety and effectiveness.</t>
+          <t>FDA denied the petition because it concluded that bioequivalence testing based on the parent drug was scientifically appropriate and sufficient. The agency determined that additional metabolite-based bioequivalence studies and labeling restrictions were not necessary to ensure the safety and effectiveness of generic products.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1289-0006_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1293-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2266,19 +2266,19 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it concluded that bioequivalence testing based on the parent drug was scientifically appropriate and sufficient. The agency determined that additional metabolite-based bioequivalence studies and labeling restrictions were not necessary to ensure the safety and effectiveness of generic products.</t>
+          <t>FDA denied the petition because it found that bioequivalence testing based on the parent drug is scientifically sufficient. The agency determined that requiring additional bioequivalence studies based on metabolites or imposing further labeling restrictions was unnecessary to ensure the safety and efficacy of generic drug products.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1293-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1294-0005_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>February 9, 2015</t>
+          <t>June 5, 2015</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2293,184 +2293,184 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>21 CFR 314.94(a); 21 CFR 320.24(b); 21 CFR 320.1(e); 21 CFR 314.127(a)(6)(i); 21 CFR 314.127(a)(7); 21 U.S.C. 355(j)</t>
+          <t>21 CFR 314.126; 21 CFR 201.57(c)(5); 21 CFR 201.80; Section 505(b)(1) of the FD&amp;C Act; Section 505(c) of the FD&amp;C Act; Section 505(d) of the FD&amp;C Act</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it found that bioequivalence testing based on the parent drug is scientifically sufficient. The agency determined that requiring additional bioequivalence studies based on metabolites or imposing further labeling restrictions was unnecessary to ensure the safety and efficacy of generic drug products.</t>
+          <t>FDA denied the petition because while it agreed that objective evidence is important to define the patient population for injectable iron therapy outside of chronic kidney disease (CKD), it declined to mandate a run-in study design. FDA maintained that various scientifically sound methodologies, such as review of medical records, could adequately document intolerance or unsatisfactory response to oral iron. The Agency also denied the request to impose automatic labeling contraindications based on study exclusions, explaining that contraindications must be based on clinical evidence that the risk clearly outweighs any possible benefit.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1294-0005_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1296-0003_Letter_from_FDA_CDER_to_Lannett_Company__Inc_.pdf</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>June 5, 2015</t>
+          <t>Not Explicitly Stated (context suggests around April 9, 2019)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CDER</t>
+          <t>CDER (Office of Generic Drugs)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>21 CFR 314.126; 21 CFR 201.57(c)(5); 21 CFR 201.80; Section 505(b)(1) of the FD&amp;C Act; Section 505(c) of the FD&amp;C Act; Section 505(d) of the FD&amp;C Act</t>
+          <t>Section 505(j)(2)(C) of the FD&amp;C Act; Section 505(j)(2)(A) and (B) of the FD&amp;C Act; Section 505B of the FD&amp;C Act (PREA); 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>FDA denied the petition because while it agreed that objective evidence is important to define the patient population for injectable iron therapy outside of chronic kidney disease (CKD), it declined to mandate a run-in study design. FDA maintained that various scientifically sound methodologies, such as review of medical records, could adequately document intolerance or unsatisfactory response to oral iron. The Agency also denied the request to impose automatic labeling contraindications based on study exclusions, explaining that contraindications must be based on clinical evidence that the risk clearly outweighs any possible benefit.</t>
+          <t>FDA approved the petition because the proposed change in dosage form from extended-release capsules to extended-release tablets does not pose questions of safety or effectiveness. The proposed product shares the same uses, dose, and route of administration as the listed drug, and if bioequivalence is demonstrated, the product can be expected to have the same therapeutic effect. Additionally, pediatric studies were not required because the product does not provide a meaningful therapeutic benefit over existing therapies for pediatric patients under age 12 and is properly labeled for use in older pediatric populations.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1296-0003_Letter_from_FDA_CDER_to_Lannett_Company__Inc_.pdf</t>
+          <t>FDA-2013-P-1297-0025_Response_to_Citizen_Petition_from_FDA_CDRH_to_Kevi.pdf</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Not Explicitly Stated (context suggests around April 9, 2019)</t>
+          <t>March 7, 2022</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CDER (Office of Generic Drugs)</t>
+          <t>CDRH</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the FD&amp;C Act; Section 505(j)(2)(A) and (B) of the FD&amp;C Act; Section 505B of the FD&amp;C Act (PREA); 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii)</t>
+          <t>Section 201(h) of the FD&amp;C Act; 21 CFR 801.4; 21 CFR 10.30(e)(1); 21 CFR 10.30(k)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>FDA approved the petition because the proposed change in dosage form from extended-release capsules to extended-release tablets does not pose questions of safety or effectiveness. The proposed product shares the same uses, dose, and route of administration as the listed drug, and if bioequivalence is demonstrated, the product can be expected to have the same therapeutic effect. Additionally, pediatric studies were not required because the product does not provide a meaningful therapeutic benefit over existing therapies for pediatric patients under age 12 and is properly labeled for use in older pediatric populations.</t>
+          <t>FDA denied the petition because it determined that addressing the request would require extensive resource commitments not justified by the relatively narrow public health impact of the issue. The Agency concluded that determining the intended use of Harmony Cone Ear Candles would be resource-intensive and that FDA's limited resources are better spent on broader public health priorities. Additionally, the request to stay enforcement actions and the request for a public hearing were denied.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1297-0025_Response_to_Citizen_Petition_from_FDA_CDRH_to_Kevi.pdf</t>
+          <t>FDA-2013-P-1374-0005_Interim_Response_Lette_from_FDA_CDRH_to_Pharmists_.pdf</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>March 7, 2022</t>
+          <t>March 7, 2014</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CDRH</t>
+          <t>Center for Devices and Radiological Health (CDRH)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Section 201(h) of the FD&amp;C Act; 21 CFR 801.4; 21 CFR 10.30(e)(1); 21 CFR 10.30(k)</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it determined that addressing the request would require extensive resource commitments not justified by the relatively narrow public health impact of the issue. The Agency concluded that determining the intended use of Harmony Cone Ear Candles would be resource-intensive and that FDA's limited resources are better spent on broader public health priorities. Additionally, the request to stay enforcement actions and the request for a public hearing were denied.</t>
+          <t>FDA issued an interim response stating that it has not yet reached a decision on the citizen petition submitted by Pharmists, Inc. due to the need for further review and analysis. The agency committed to responding to the petition's request once a decision has been made.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1297-0025_Response_to_Citizen_Petition_from_FDA_CDRH_to_Kevi.pdf</t>
+          <t>FDA-2013-P-1376-0004_Final_Response_from_FDA_CDER_to_Buchanan_Ingersoll.pdf</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>March 7, 2022</t>
+          <t>August 10, 2017</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Center for Devices and Radiological Health (CDRH)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Partially Approved</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e), 21 CFR 801.4, 21 CFR 10.30(k), 21 U.S.C. 321(h)</t>
+          <t>21 CFR 314.50, 21 CFR 314.94, 21 CFR 320.24, 21 CFR 10.30, 21 CFR 10.45, 21 CFR 314.70(b)(2), 21 CFR 211.110, 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FDA denied the petition because evaluating the intended use of Harmony Cone Ear Candles (HCEC) to determine if they are devices would require significant Agency resources better allocated elsewhere. Additionally, the request to stay enforcement action was outside the scope of the citizen petition process, and FDA had not initiated any enforcement actions during the petition’s pendency. The agency emphasized the limited public health impact and resource prioritization in declining the petition.</t>
+          <t>FDA dismissed the Exclusivity Petition as moot because any exclusivity would have expired. FDA partially granted the Testing and Bioequivalence Petitions by agreeing that certain testing and study designs for digoxin (an NTI drug) were appropriate, recommending four-way crossover bioequivalence studies using reference-scaled average bioequivalence methodology. However, FDA denied requests to impose fixed narrower bioequivalence intervals (90–111.11%), to revise drug substance assay ranges, and to downgrade TE codes for existing generic digoxin products, citing scientific rationale, current bioequivalence practices, and lack of supporting data for therapeutic nonequivalence.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1374-0005_Interim_Response_Lette_from_FDA_CDRH_to_Pharmists_.pdf</t>
+          <t>FDA-2013-P-1377-0004_Final_Response_from_FDA_CDER_to_Buchanan_Ingersoll.pdf</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>March 7, 2014</t>
+          <t>August 10, 2017</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Center for Devices and Radiological Health (CDRH)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partially Approved</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e)(2)</t>
+          <t>21 CFR 314.50, 21 CFR 314.94, 21 CFR 320.24, 21 CFR 10.30, 21 CFR 10.45, 21 CFR 314.70(b)(2), 21 CFR 211.110, 21 U.S.C. 355(j)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>FDA issued an interim response stating that it has not yet reached a decision on the citizen petition submitted by Pharmists, Inc. due to the need for further review and analysis. The agency committed to responding to the petition's request once a decision has been made.</t>
+          <t>FDA dismissed the Exclusivity Petition as moot because the requested exclusivity would have expired. FDA partially granted the Testing and Bioequivalence Petitions by recommending updated bioequivalence study designs for digoxin as a narrow therapeutic index (NTI) drug, including four-way crossover studies with reference-scaled average bioequivalence (RSABE) methodology. FDA denied requests to impose fixed narrower bioequivalence intervals (90–111.11%), to narrow drug substance assay ranges (95–105%), and to downgrade therapeutic equivalence (TE) codes for approved generics, citing scientific evidence supporting the RSABE approach and lack of data to justify changes.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1376-0004_Final_Response_from_FDA_CDER_to_Buchanan_Ingersoll.pdf</t>
+          <t>FDA-2013-P-1379-0004_Letter_from_FDA_CDER_to_Lachman_Consultant_Service.pdf</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>August 10, 2017</t>
+          <t>July 8, 2014</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2480,29 +2480,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Partially Approved</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>21 CFR 314.50, 21 CFR 314.94, 21 CFR 320.24, 21 CFR 10.30, 21 CFR 10.45, 21 CFR 314.70(b)(2), 21 CFR 211.110, 21 U.S.C. 355(j)</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>FDA dismissed the Exclusivity Petition as moot because any exclusivity would have expired. FDA partially granted the Testing and Bioequivalence Petitions by agreeing that certain testing and study designs for digoxin (an NTI drug) were appropriate, recommending four-way crossover bioequivalence studies using reference-scaled average bioequivalence methodology. However, FDA denied requests to impose fixed narrower bioequivalence intervals (90–111.11%), to revise drug substance assay ranges, and to downgrade TE codes for existing generic digoxin products, citing scientific rationale, current bioequivalence practices, and lack of supporting data for therapeutic nonequivalence.</t>
+          <t>FDA approved the petition to allow submission of an ANDA for Ondansetron Orally Disintegrating Tablets USP, 4 mg and 8 mg, packaged in unit-dose blister packs, even though the reference listed drug is packaged in child-resistant packaging. The Agency determined that this difference in packaging does not affect the drug’s safety or effectiveness, and therefore does not preclude ANDA submission without additional clinical investigations.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1377-0004_Final_Response_from_FDA_CDER_to_Buchanan_Ingersoll.pdf</t>
+          <t>FDA-2013-P-1398-0013_Memorandum_of_Meeting_from_FDA_CDER_re_Meeting_wit.pdf</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>August 10, 2017</t>
+          <t>May 1, 2014</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2512,29 +2512,29 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Partially Approved</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>21 CFR 314.50, 21 CFR 314.94, 21 CFR 320.24, 21 CFR 10.30, 21 CFR 10.45, 21 CFR 314.70(b)(2), 21 CFR 211.110, 21 U.S.C. 355(j)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>FDA dismissed the Exclusivity Petition as moot because the requested exclusivity would have expired. FDA partially granted the Testing and Bioequivalence Petitions by recommending updated bioequivalence study designs for digoxin as a narrow therapeutic index (NTI) drug, including four-way crossover studies with reference-scaled average bioequivalence (RSABE) methodology. FDA denied requests to impose fixed narrower bioequivalence intervals (90–111.11%), to narrow drug substance assay ranges (95–105%), and to downgrade therapeutic equivalence (TE) codes for approved generics, citing scientific evidence supporting the RSABE approach and lack of data to justify changes.</t>
+          <t>The document is a memorandum summarizing a listening session between FDA and the National Council for Prescription Drug Programs (NCPDP) regarding concerns about nonproprietary naming of biological products. The meeting was informational only, and FDA did not make any decisions or take action regarding the citizen petitions discussed. The summary was posted to the public dockets for transparency.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1379-0004_Letter_from_FDA_CDER_to_Lachman_Consultant_Service.pdf</t>
+          <t>FDA-2013-P-1507-0004_Letter_from_FDA_CDER_to_PharmD.pdf</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>July 8, 2014</t>
+          <t>July 26, 2019</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2544,29 +2544,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act</t>
+          <t>21 CFR 10.30, 21 CFR 10.45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>FDA approved the petition to allow submission of an ANDA for Ondansetron Orally Disintegrating Tablets USP, 4 mg and 8 mg, packaged in unit-dose blister packs, even though the reference listed drug is packaged in child-resistant packaging. The Agency determined that this difference in packaging does not affect the drug’s safety or effectiveness, and therefore does not preclude ANDA submission without additional clinical investigations.</t>
+          <t>FDA denied the petition because it requested the Agency to ban certain homeopathic drugs without presenting sufficient evidence to demonstrate that regulatory action was warranted. FDA stated that it exercises enforcement discretion over homeopathic products based on public health risk and other factors and that enforcement priorities are addressed through broader regulatory policy rather than individual citizen petitions.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1398-0013_Memorandum_of_Meeting_from_FDA_CDER_re_Meeting_wit.pdf</t>
+          <t>FDA-2013-P-1508-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>May 1, 2014</t>
+          <t>July 26, 2019</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2576,29 +2576,29 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 10.30, 21 CFR 10.45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>The document is a memorandum summarizing a listening session between FDA and the National Council for Prescription Drug Programs (NCPDP) regarding concerns about nonproprietary naming of biological products. The meeting was informational only, and FDA did not make any decisions or take action regarding the citizen petitions discussed. The summary was posted to the public dockets for transparency.</t>
+          <t>FDA denied the petition because it requested that FDA ban all homeopathic drugs from the market without providing adequate scientific evidence or legal justification. FDA reiterated that it regulates homeopathic products through a risk-based enforcement approach, focusing on products that pose the greatest risk to public health, rather than issuing a blanket ban as requested.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1507-0004_Letter_from_FDA_CDER_to_PharmD.pdf</t>
+          <t>FDA-2013-P-1509-0003_Interim_Response_Letter_from_FDA_CDER_to_Dr_S_Albe.pdf</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>July 26, 2019</t>
+          <t>June 18, 2014</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2608,29 +2608,29 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>21 CFR 10.30, 21 CFR 10.45</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it requested the Agency to ban certain homeopathic drugs without presenting sufficient evidence to demonstrate that regulatory action was warranted. FDA stated that it exercises enforcement discretion over homeopathic products based on public health risk and other factors and that enforcement priorities are addressed through broader regulatory policy rather than individual citizen petitions.</t>
+          <t>FDA issued an interim response stating that it has not yet reached a decision on the citizen petition submitted by Dr. S. Albert regarding the regulation of certain prescription drugs. The Agency explained that it requires additional time to fully evaluate the issues raised and committed to responding once a final decision is made.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1508-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
+          <t>FDA-2013-P-1515-0004_Citizen_Petition_Response_from_FDA_CDER_to_Lachman.pdf</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>July 26, 2019</t>
+          <t>September 23, 2014</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2640,34 +2640,34 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Denied</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>21 CFR 10.30, 21 CFR 10.45</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>FDA denied the petition because it requested that FDA ban all homeopathic drugs from the market without providing adequate scientific evidence or legal justification. FDA reiterated that it regulates homeopathic products through a risk-based enforcement approach, focusing on products that pose the greatest risk to public health, rather than issuing a blanket ban as requested.</t>
+          <t>FDA approved the petition to allow submission of an ANDA referencing Seroquel XR (quetiapine fumarate extended-release tablets) with differences in labeling related to exclusivity-protected information. FDA concluded that the differences in labeling (specifically, removal of indications protected by exclusivity) do not render the proposed generic product less safe or effective for the conditions of use that remain and therefore, no additional clinical investigations were necessary.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1509-0003_Interim_Response_Letter_from_FDA_CDER_to_Dr_S_Albe.pdf</t>
+          <t>FDA-2013-P-1552-0002_Letter_from_FDA_CDRH_to_Hearing_Industries_Associa.pdf</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>June 18, 2014</t>
+          <t>December 5, 2013</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Devices and Radiological Health (CDRH)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2677,24 +2677,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e)(2)</t>
+          <t>21 CFR 874.3305</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>FDA issued an interim response stating that it has not yet reached a decision on the citizen petition submitted by Dr. S. Albert regarding the regulation of certain prescription drugs. The Agency explained that it requires additional time to fully evaluate the issues raised and committed to responding once a final decision is made.</t>
+          <t>The letter acknowledges receipt of the petition requesting the reclassification of Wireless Air Conduction Hearing Aids from class II to class I but does not provide a substantive decision on the petition's merits. It only confirms that FDA received the petition.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1515-0004_Citizen_Petition_Response_from_FDA_CDER_to_Lachman.pdf</t>
+          <t>FDA-2013-P-1606-0003_Interim_Response_from_FDA_CDER_to_Pharmacists_Plan.pdf</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>September 23, 2014</t>
+          <t>February 3, 2014</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2704,34 +2704,34 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act</t>
+          <t>21 CFR 10.30(e)(2)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>FDA approved the petition to allow submission of an ANDA referencing Seroquel XR (quetiapine fumarate extended-release tablets) with differences in labeling related to exclusivity-protected information. FDA concluded that the differences in labeling (specifically, removal of indications protected by exclusivity) do not render the proposed generic product less safe or effective for the conditions of use that remain and therefore, no additional clinical investigations were necessary.</t>
+          <t>FDA issued an interim response stating that it has not yet reached a decision on the citizen petition submitted by Pharmacists Planning Services, Inc. The Agency explained that additional time is needed for thorough review and analysis of the petition's issues and committed to responding once a final decision has been made.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1552-0002_Letter_from_FDA_CDRH_to_Hearing_Industries_Associa.pdf</t>
+          <t>FDA-2013-P-1612-0408_Correction_from_FDA_DDM.pdf</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>December 5, 2013</t>
+          <t>February 4, 2014</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Center for Devices and Radiological Health (CDRH)</t>
+          <t>Division of Dockets Management (DDM)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2741,29 +2741,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>21 CFR 874.3305</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>The letter acknowledges receipt of the petition requesting the reclassification of Wireless Air Conduction Hearing Aids from class II to class I but does not provide a substantive decision on the petition's merits. It only confirms that FDA received the petition.</t>
+          <t>The letter acknowledges receipt and filing of the petition requesting FDA to overturn the decision to rescind the Special Protocol Assessment for VASCEPA and delay the PDUFA date for the ANCHOR sNDA. It clarifies that acceptance for filing is a procedural action and does not reflect any decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1606-0003_Interim_Response_from_FDA_CDER_to_Pharmacists_Plan.pdf</t>
+          <t>FDA-2013-P-1614-0003_Interim_Response_from_FDA_CFSAN_to_Global_Shea_All.pdf</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>February 3, 2014</t>
+          <t>August 11, 2015</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
+          <t>Center for Food Safety and Applied Nutrition (CFSAN)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2773,24 +2773,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e)(2)</t>
+          <t>21 CFR 10.30(e)(2), 21 CFR 163.123, 21 CFR 163.124, 21 CFR 163.130</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>FDA issued an interim response stating that it has not yet reached a decision on the citizen petition submitted by Pharmacists Planning Services, Inc. The Agency explained that additional time is needed for thorough review and analysis of the petition's issues and committed to responding once a final decision has been made.</t>
+          <t>FDA issued an interim response stating that it has not yet reached a decision on the petition requesting amendment of the standards of identity for chocolate to allow optional use of shea-based ingredients. The delay was due to competing agency priorities, and FDA committed to completing its review and considering regulatory amendments as warranted.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1612-0408_Correction_from_FDA_DDM.pdf</t>
+          <t>FDA-2013-P-1636-0002_Acknowledgement_Letter_from_FDA_DDM_to_Lannett_Com.pdf</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>February 4, 2014</t>
+          <t>December 16, 2013</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2810,133 +2810,69 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>The letter acknowledges receipt and filing of the petition requesting FDA to overturn the decision to rescind the Special Protocol Assessment for VASCEPA and delay the PDUFA date for the ANCHOR sNDA. It clarifies that acceptance for filing is a procedural action and does not reflect any decision on the substantive merits of the petition.</t>
+          <t>The letter acknowledges receipt and filing of the petition requesting a determination that ANDAs may be submitted for Hydromorphone Hydrochloride tablets (1 mg, scored) and Hydromorphone Hydrochloride Oral Solution (1 mg per 5 ml). It clarifies that acceptance of the petition for filing is a procedural matter and does not reflect an agency decision on the substantive merits of the petition.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1614-0003_Interim_Response_from_FDA_CFSAN_to_Global_Shea_All.pdf</t>
+          <t>FDA-2013-P-1637-0004_Citizen_Petition_Approval_Letter_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>August 11, 2015</t>
+          <t>November 14, 2014</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Center for Food Safety and Applied Nutrition (CFSAN)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>21 CFR 10.30(e)(2), 21 CFR 163.123, 21 CFR 163.124, 21 CFR 163.130</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>FDA issued an interim response stating that it has not yet reached a decision on the petition requesting amendment of the standards of identity for chocolate to allow optional use of shea-based ingredients. The delay was due to competing agency priorities, and FDA committed to completing its review and considering regulatory amendments as warranted.</t>
+          <t>FDA approved Lemtrada (alemtuzumab) for the treatment of multiple sclerosis (MS), thereby granting the relief requested in the petition. The petition had emphasized the urgent need for additional MS treatments due to the severity of the disorder and limitations of existing therapies. FDA’s approval rendered the remaining issues raised in the petition moot.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1636-0002_Acknowledgement_Letter_from_FDA_DDM_to_Lannett_Com.pdf</t>
+          <t>FDA-2013-P-1711-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>December 16, 2013</t>
+          <t>June 12, 2014</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Division of Dockets Management (DDM)</t>
+          <t>Center for Drug Evaluation and Research (CDER)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Denied</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 CFR 10.30, 21 CFR 10.45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
-        <is>
-          <t>The letter acknowledges receipt and filing of the petition requesting a determination that ANDAs may be submitted for Hydromorphone Hydrochloride tablets (1 mg, scored) and Hydromorphone Hydrochloride Oral Solution (1 mg per 5 ml). It clarifies that acceptance of the petition for filing is a procedural matter and does not reflect an agency decision on the substantive merits of the petition.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>FDA-2013-P-1637-0004_Citizen_Petition_Approval_Letter_from_FDA_CDER_to_.pdf</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>November 14, 2014</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Not Mentioned</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>FDA approved Lemtrada (alemtuzumab) for the treatment of multiple sclerosis (MS), thereby granting the relief requested in the petition. The petition had emphasized the urgent need for additional MS treatments due to the severity of the disorder and limitations of existing therapies. FDA’s approval rendered the remaining issues raised in the petition moot.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>FDA-2013-P-1711-0003_Citizen_Petition_Denial_Response_from_FDA_CDER_to_.pdf</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>June 12, 2014</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Denied</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>21 CFR 10.30, 21 CFR 10.45</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
         <is>
           <t>FDA denied the petition requesting the withdrawal of approval of all prescription drugs containing hydrocodone combined with another active ingredient, citing that the petitioner failed to present sufficient evidence demonstrating that such a withdrawal would be scientifically justified. FDA emphasized that decisions regarding withdrawal of drug approvals are made based on a thorough review of all relevant scientific data.</t>
         </is>
@@ -7719,7 +7655,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Center for Drug Evaluation and Research (CDER)</t>
+          <t>CDER (Center for Drug Evaluation and Research)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -7734,7 +7670,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>The FDA denied the petition because it did not provide sufficient scientific evidence or legal basis to support the requested actions.</t>
         </is>
       </c>
     </row>

--- a/outputs_responses.xlsx
+++ b/outputs_responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\OneDrive\Desktop\bclt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38034A6C-646E-4AD0-8D44-EDDAD389A2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EB0364-7228-44B2-8A85-BBAD00F92731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="1335">
   <si>
     <t>File Name</t>
   </si>
@@ -2975,6 +2975,1059 @@
   </si>
   <si>
     <t>FDA denied the petition requesting a regulation on the use of animals that died otherwise than by slaughter in pet food, citing existing regulatory frameworks under 21 CFR part 507. These already require hazard analysis and preventive controls for pet food manufacturers, including addressing hazards such as pentobarbital. The agency stated the petition lacked detail on the proposed regulation's wording, purpose, or benefits, and emphasized existing enforcement mechanisms and outreach efforts as sufficient.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0105-0007_Response_Letter_from_FDA_CDER_to_Graviti_Pharmaceu.pdf</t>
+  </si>
+  <si>
+    <t>April 5, 2024</t>
+  </si>
+  <si>
+    <t>Denied (Glucotrol Tablets 5 mg and 10 mg were not withdrawn for safety or effectiveness reasons)</t>
+  </si>
+  <si>
+    <t>FDA reviewed its records and concluded that the drug products in question were not withdrawn from sale due to safety or effectiveness concerns; therefore, they will remain listed in the 'Discontinued Drug Product List' of the Orange Book</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0109-0019_Interim_Response_Letter_from_FDA_CDER_to_Bausch_Lo.pdf</t>
+  </si>
+  <si>
+    <t>June 24, 2024</t>
+  </si>
+  <si>
+    <t>Interim response – FDA has not yet made a final decision on the petition</t>
+  </si>
+  <si>
+    <t>21 C.F.R. § 10.30(e)(2)</t>
+  </si>
+  <si>
+    <t>The FDA has not reached a decision on the petition due to the need to address other Agency priorities and resource constraints; the Agency will respond as soon as possible</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0227-0004_Final_Response_Letter_from_FDA_CDER_to_Zydus_Pharm.pdf</t>
+  </si>
+  <si>
+    <t>May 21, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 C.F.R. § 314.93; 21 C.F.R. § 314.94(a)(3)(iii)</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed change in strength does not pose questions of safety or effectiveness, aligns with the listed drug’s labeling recommendations, and does not require new investigations; if bioequivalence is demonstrated, the proposed product can be expected to have the same therapeutic effect</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0279-0007_Final_Response_Letter_from_FDA_CDRH_to_Hyman__Phel.pdf</t>
+  </si>
+  <si>
+    <t>May 31, 2024</t>
+  </si>
+  <si>
+    <t>21 C.F.R. § 10.33; 21 C.F.R. § 10.35; 21 C.F.R. Part 16; Section 510(k) of the FD&amp;C Act; 21 C.F.R. Part 807 Subpart E</t>
+  </si>
+  <si>
+    <t>The FDA found that the 510(k) clearance for Nautilus Nitrile Exam Gloves was based on invalid and duplicated biocompatibility data nearly identical to another unrelated submission; the justification offered by Nautilus (clerical error) was deemed implausible due to extensive evidence of duplication and manipulation; the agency concluded there was no genuine and substantial issue of fact and that allowing a stay or amendment would not serve public health or justice</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0422-0011_Final_Response_Letter_from_FDA_CDER_to_Method_Phar.pdf</t>
+  </si>
+  <si>
+    <t>August 27, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); Section 505B of the FD&amp;C Act (PREA)</t>
+  </si>
+  <si>
+    <t>The proposed changes in strength and dosage form do not raise safety or effectiveness concerns, are consistent with labeled dosing recommendations, and would not require significant labeling changes; FDA also determined that although PREA applies, no pediatric studies are needed because the drug is already fully labeled for all pediatric age groups</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0425-0008_Final_Response_Letter_from_FDA_CDER_to_RegCon_Solu.pdf</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93; 21 CFR 314.93(e)(1)(i); Section 505B of the FD&amp;C Act (PREA); Section 505(j)(2)(A) of the FD&amp;C Act</t>
+  </si>
+  <si>
+    <t>The proposed change from lyophilized powder to ready-to-use solution dosage form triggered Pediatric Research Equity Act (PREA) requirements; FDA determined that clinical trials are required for pediatric patients aged 12 to &lt;17, and denied the waiver request for this age group; since such trials are needed, the petition is not eligible for approval under the ANDA pathway</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0427-0007_Final_Response_Letter_from_FDA_CDER_to_DDReg_Pharm.pdf</t>
+  </si>
+  <si>
+    <t>July 31, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93; 21 CFR 314.93(e)(1)(i) and (iv); Section 505B of the FD&amp;C Act (PREA); Section 505(j)(2)(A) of the FD&amp;C Act</t>
+  </si>
+  <si>
+    <t>The proposed changes in dosage form (to pessary), strength (400 mg vs. 90 mg), and indication/dosing regimen raise safety and effectiveness concerns and may require significant labeling changes; additionally, FDA determined that these are not permissible changes under the suitability petition pathway; therefore, the petition does not meet the statutory or regulatory requirements for approval</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0435-0004_Final_Response_Letter_from_FDA_CDER_to_Zydus_Pharm.pdf</t>
+  </si>
+  <si>
+    <t>May 20, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93(e)(1)(v); 21 CFR 10.33; 21 CFR 10.20</t>
+  </si>
+  <si>
+    <t>FDA denied the petition because the reference listed drug (Nuplazid 17 mg) has been voluntarily withdrawn from sale and the Agency has not yet determined whether the withdrawal was for safety or effectiveness reasons; therefore, the petition cannot be approved under 21 CFR 314.93(e)(1)(v)</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0521-0005_Interim_Response_Letter_from_FDA_CDER_to_Kasowitz_.pdf</t>
+  </si>
+  <si>
+    <t>July 15, 2024</t>
+  </si>
+  <si>
+    <t>The petition raises complex issues requiring extensive review and analysis; therefore, the FDA has not reached a decision and will respond once the review is complete</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0522-0004_Interim_Response_Letter_from_FDA_CDER_to_Kasowitz_.pdf</t>
+  </si>
+  <si>
+    <t>The FDA has not yet resolved the petition because it raises complex issues requiring extensive review and analysis by agency officials; a final response will be provided once a decision has been made</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0526-0010_Response_Letter_from_FDA_CDER_to_Lupin_Inc_.pdf</t>
+  </si>
+  <si>
+    <t>July 24, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93; 21 CFR 314.93(e)(1)(i); Section 505B of the FD&amp;C Act (PREA); Section 505(j)(2)(A)</t>
+  </si>
+  <si>
+    <t>The proposed change from tablet to oral suspension dosage form triggered PREA requirements; FDA determined that clinical trials are required for pediatric patients due to the potential therapeutic benefit in treating DVT and PE; the request for a waiver of pediatric studies was denied, making the petition ineligible for approval under the ANDA pathway</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0545-0007_Final_Response_Letter_from_FDA_CDER_to_Hyman__Phel.pdf</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93; 21 CFR 314.93(e)(1)(i); 21 CFR 314.93(e)(1)(iv); Section 505B of the FD&amp;C Act (PREA); Section 505(j)(2)(A)</t>
+  </si>
+  <si>
+    <t>The proposed oral solution dosage form and 2 mg/mL strength differ from the reference listed drug’s labeling and pose questions of safety and effectiveness, requiring investigations and significant labeling changes; the proposed dosing regimen (12 mg/day) also deviates from the RLD’s (15 mg/day), increasing the risk of medication errors; therefore, the petition does not meet the statutory and regulatory criteria for approval</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0666-0002_Acknowledgement_Letter_from_FDA_DMS_to_Royal_Diamo.pdf</t>
+  </si>
+  <si>
+    <t>February 6, 2024</t>
+  </si>
+  <si>
+    <t>Other – Acknowledgement of receipt; no decision issued on the petition’s substance</t>
+  </si>
+  <si>
+    <t>21 CFR 10.75</t>
+  </si>
+  <si>
+    <t>The letter acknowledges receipt and filing of the petition and clarifies that this is a procedural action only; it does not reflect any decision on the merits of the petition</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0667-0013_Final_Approval_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
+  </si>
+  <si>
+    <t>June 4, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93; 21 CFR 314.93(e)(1); Section 505(j)(2)(A) and (B); Section 505(j)(2)(A)(iv); 21 CFR 314.94(a)(3)(iii)</t>
+  </si>
+  <si>
+    <t>The proposed change in strength (3 g/100 mL) does not raise safety or effectiveness concerns, aligns with the listed drug’s labeling, and does not require new investigations; FDA concluded that the change would not jeopardize safe or effective use nor necessitate significant labeling changes</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0761-0005_Final_Response_Letter_from_FDA_CDER_to_Pharmobedie.pdf</t>
+  </si>
+  <si>
+    <t>October 18, 2024</t>
+  </si>
+  <si>
+    <t>Approved – Determination made that the drug was not withdrawn for safety or effectiveness reasons</t>
+  </si>
+  <si>
+    <t>FDA determined that TAVIST (clemastine fumarate) tablet, 2.68 mg, was not withdrawn from sale for reasons of safety or effectiveness; therefore, it will remain listed in the 'Discontinued Drug Product List' section of the Orange Book</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0805-0004_Response_Letter_from_FDA_CDER_to_Hyman__Phelps___M.pdf</t>
+  </si>
+  <si>
+    <t>August 28, 2024</t>
+  </si>
+  <si>
+    <t>FDA determined that Fentanyl Citrate Injection (EQ 2.5 mg base/50 mL and EQ 5 mg base/100 mL) was not withdrawn from sale for reasons of safety or effectiveness; therefore, the products will remain listed in the 'Discontinued Drug Product List' section of the Orange Book</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0806-2474_Interim_Response_from_FDA_CFSAN_to_Center_for_Scie.pdf</t>
+  </si>
+  <si>
+    <t>August 9, 2024</t>
+  </si>
+  <si>
+    <t>The FDA was unable to reach a decision within 180 days of receiving the petition, which requests clarification on the applicability of menu labeling regulations to third-party platforms; review is ongoing</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0827-0005_Final_Response_Letter_from_FDA_CDER_to_Aurobindo_P.pdf</t>
+  </si>
+  <si>
+    <t>March 15, 2024</t>
+  </si>
+  <si>
+    <t>FDA determined that Duexis (ibuprofen and famotidine) tablet, 800 mg and 26.6 mg, was not withdrawn from sale for reasons of safety or effectiveness; therefore, it will remain listed in the 'Discontinued Drug Product List' section of the Orange Book</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0889-0004_Final_Response_Letter_from_FDA_CVM_to_Aurora_Pharm.pdf</t>
+  </si>
+  <si>
+    <t>May 2, 2024</t>
+  </si>
+  <si>
+    <t>Section 512(n)(3) of the FD&amp;C Act; 21 CFR 514.5</t>
+  </si>
+  <si>
+    <t>The proposed change from chewable to oral solution dosage form for afoxolaner does not require new investigations to demonstrate safety or effectiveness; thus, it qualifies under a suitability petition and is approved accordingly</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-0973-0003_Interim_Response_Letter_from_FDA_CDER_to_Robin_Web.pdf</t>
+  </si>
+  <si>
+    <t>August 15, 2024</t>
+  </si>
+  <si>
+    <t>FDA has not resolved the petition due to prioritization of other agency matters; the Agency will respond once review is complete</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1058-0003_Interim_Response_Letter_from_FDA_CDER_to_Aimed_All.pdf</t>
+  </si>
+  <si>
+    <t>21 CFR 10.30(e)(2); 21 CFR 10.115</t>
+  </si>
+  <si>
+    <t>The petition raises complex issues requiring extensive review and analysis by Agency officials; FDA will respond once a final decision has been reached</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1130-0004_Interim_Response_Letter_from_FDA_CDER_to_Valisure_.pdf</t>
+  </si>
+  <si>
+    <t>21 CFR 10.30(e)(2); 21 U.S.C. § 372(a); 21 U.S.C. § 374(a); 21 U.S.C. § 375(b)</t>
+  </si>
+  <si>
+    <t>The petition raises complex issues regarding benzene contamination in benzoyl peroxide products, requiring extensive review and analysis by FDA officials; a final decision will be issued once review is complete</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1131-0005_Response_Letter_from_FDA_CDER_to_Fresenius_Kabi_US.pdf</t>
+  </si>
+  <si>
+    <t>FDA reviewed its records and concluded that Diltiazem Hydrochloride in Dextrose 5% solution (125 mg/125 mL and 250 mg/250 mL, both 1 mg/mL) was not withdrawn from sale for safety or effectiveness reasons; therefore, the drug will remain listed in the 'Discontinued Drug Product List' section of the Orange Book</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1378-0003_Interim_Response_Letter_from_FDA_CDER_to_Organon_U.pdf</t>
+  </si>
+  <si>
+    <t>August 14, 2024</t>
+  </si>
+  <si>
+    <t>The petition raises complex issues concerning ANDA standards and guidance revisions for NEXPLANON (etonogestrel implant), requiring extensive review and analysis; FDA will respond once a decision has been reached</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1379-0020_180_Day_Interim_Response_from_FDA_CFSAN_to_Physici.pdf</t>
+  </si>
+  <si>
+    <t>September 16, 2024</t>
+  </si>
+  <si>
+    <t>FDA has not been able to reach a decision on the petition within 180 days due to other agency priorities and limited resource availability; a decision will be issued upon completion of the review</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1380-0003_Final_Response_Letter_from_FDA_CVM_to_Kohl_Harring.pdf</t>
+  </si>
+  <si>
+    <t>August 29, 2024</t>
+  </si>
+  <si>
+    <t>5 U.S.C. § 552(a)(2)(D); 29 U.S.C. § 794d(a) (Section 508 of the Rehabilitation Act of 1973)</t>
+  </si>
+  <si>
+    <t>CVM stated that it complies with FOIA posting requirements when the conditions under 5 U.S.C. § 552(a)(2)(D) are met, and records will be posted once they are converted into a Section 508-compliant format to ensure accessibility for individuals with disabilities; thus, the petition was denied</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1403-0008_Response_Letter_from_FDA_CDER_to_Pharmobedient_Con.pdf</t>
+  </si>
+  <si>
+    <t>September 30, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93; 21 CFR 314.93(e)(1)(i); Section 505B of the FD&amp;C Act (PREA); Section 505(j)(2)(A); 21 CFR 10.33; 21 CFR 10.20</t>
+  </si>
+  <si>
+    <t>FDA denied the petition because the proposed change in dosage form (from capsules to orally disintegrating tablets) triggers pediatric study requirements under PREA; the proposed products may offer meaningful therapeutic benefits in pediatric patients, especially those under 50 kg, but the current labeling does not support pediatric use for this group; since the request for a waiver was denied and clinical trials are required, the petition cannot proceed under the ANDA pathway</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1440-0003_Interim_Response_Letter_from_FDA_CDER_to_pH_D_Femi.pdf</t>
+  </si>
+  <si>
+    <t>September 17, 2024</t>
+  </si>
+  <si>
+    <t>FDA has not yet resolved the petition due to the need to address other Agency priorities; the Agency will respond as soon as possible</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1441-0013_Final_Response_Letter_from_FDA_CDER_to_Epic_Pharma.pdf</t>
+  </si>
+  <si>
+    <t>February 13, 2025</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); Section 505(j)(2)(A) and (B); Section 505(j)(2)(A)(iv)</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed changes in strength and dosage form (to 200 mg/20 mL and 350 mg/35 mL, both 10 mg/mL) do not pose questions of safety or effectiveness; the uses and route of administration are the same as the listed drug, and the proposed changes align with labeling recommendations; bioequivalence must be demonstrated, but no new investigations are required</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1483-0007_Final_Response_Letter_from_FDA_CDER_to_Hyman__Phel.pdf</t>
+  </si>
+  <si>
+    <t>August 1, 2024</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed change in strength (total drug content) from the listed drug product does not raise questions of safety or effectiveness; the uses, dose, dosage form, and route of administration remain the same; the proposed change aligns with labeling recommendations, and no new investigations are needed if bioequivalence is demonstrated</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1570-0004_180_Day_Response_Letter_from_FDA_CFSAN_to_Bongards.pdf</t>
+  </si>
+  <si>
+    <t>September 19, 2024</t>
+  </si>
+  <si>
+    <t>FDA has not reached a decision on the petition due to other agency priorities and limited availability of resources; the agency will notify the petitioner once the review is complete</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1715-0004_Interim_Response_Letter_from_FDA_CDER_to_AbbVie_In.pdf</t>
+  </si>
+  <si>
+    <t>FDA has not resolved the petition due to the need to address other Agency priorities; the Agency will respond as soon as possible</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1716-0005_Response_Letter_from_FDA_CVM_to_Aurora_Pharmaceuti.pdf</t>
+  </si>
+  <si>
+    <t>June 27, 2024</t>
+  </si>
+  <si>
+    <t>Section 512(n)(3) and 512(n)(3)(C) of the FD&amp;C Act; 21 CFR Part 10; 21 CFR 10.33(e); 21 CFR 10.25(a)</t>
+  </si>
+  <si>
+    <t>The petition proposed a meloxicam oral solution with a 10-fold increase in strength (5 mg/mL vs. 0.5 mg/mL in the RLNAD), raising concerns about potential user error and safety due to the similarity in appearance of the two concentrations and incorrect dosage delivery; these concerns would require additional investigations to demonstrate safety, making the petition ineligible under the suitability provision</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1717-0003_Final_Response_Letter_from_FDA_CVM_to_Kohl_Harring.pdf</t>
+  </si>
+  <si>
+    <t>October 3, 2024</t>
+  </si>
+  <si>
+    <t>CVM explained that it complies with FOIA posting requirements when the threshold for frequent requests is met and the records have been released; however, records must be converted to Section 508-compliant formats to ensure accessibility for individuals with disabilities before posting; based on this policy, the petition was denied</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1788-0008_Response_Letter_from_FDA_CDER_to_Pharmobedient_Con.pdf</t>
+  </si>
+  <si>
+    <t>July 25, 2024</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed strength change (from 4 mg to 2 mg) does not raise safety or effectiveness concerns, aligns with dosing recommendations in the labeling of the listed drug, and would not require significant labeling changes or additional investigations if bioequivalence is demonstrated; therefore, the petition is approved</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1810-0008_Final_Response_Letter_from_FDA_CDER_to_Pharmobedie.pdf</t>
+  </si>
+  <si>
+    <t>August 23, 2024</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed change in strength (from 50 mg/vial to 100 mg/vial) does not pose questions of safety or effectiveness; the uses, dose, dosage form, and route of administration are the same as the listed drug; the proposed strength is consistent with dosing recommendations; if bioequivalence is shown, the new strength is expected to have the same therapeutic effect without requiring significant labeling changes or new investigations</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1870-0007_Final_Response_Letter_from_FDA_CDER_to_Newcastle_B.pdf</t>
+  </si>
+  <si>
+    <t>October 15, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii); Section 505B of the FD&amp;C Act (PREA); Section 505(j)(2)(A) and (B); Section 505(j)(2)(A)(iv)</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed change in strength and dosage form (to orally disintegrating tablets of 5 mg, 10 mg, 15 mg, and 20 mg) does not raise questions of safety or effectiveness, aligns with labeling of the reference listed drug, and does not require new investigations; the product is also appropriately labeled for pediatric patients 7 years and older, and pediatric studies for those under 7 are impracticable, thus a waiver is granted</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1871-0007_Interim_Response_Letter_from_FDA_CDER_to_Advanced_.pdf</t>
+  </si>
+  <si>
+    <t>October 7, 2024</t>
+  </si>
+  <si>
+    <t>FDA has not resolved the issues raised in the petition due to the need to address other Agency priorities; the Agency will respond as soon as possible</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1913-0006_Final_Response_Letter_from_FDA_CDER_to_Fast_Track_.pdf</t>
+  </si>
+  <si>
+    <t>August 20, 2024</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed change in strength (to 50 mg/5 mL, 10 mg/mL) does not raise questions of safety or effectiveness; the uses, dose, dosage form, and route of administration remain the same as the listed drug; the proposed strength is consistent with labeling recommendations and, if bioequivalence is demonstrated, no significant labeling changes or new investigations are required</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1916-1820_Final_Response_Letter_from_FDA_CVM_to_Association_.pdf</t>
+  </si>
+  <si>
+    <t>Denied (in part as moot, in part as outside the scope of the citizen petition process)</t>
+  </si>
+  <si>
+    <t>21 CFR 10.30(e)(2)(iii); 21 CFR 10.30(b)(3); 21 CFR 10.3(a); 21 CFR 10.30(j)</t>
+  </si>
+  <si>
+    <t>The petition was dismissed in part as moot because FDA had already published a public summary addressing the requested information regarding adverse events linked to Purina pet food; the remaining request was denied as it fell outside the scope of permissible administrative actions under the citizen petition process, since requests for updates to investigations and public dissemination of non-record-based information are not administrative actions</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1960-0003_Final_Response_Letter_from_FDA_ORA_to_Kohl_Harring.pdf</t>
+  </si>
+  <si>
+    <t>October 11, 2024</t>
+  </si>
+  <si>
+    <t>Office of Regulatory Affairs (ORA)</t>
+  </si>
+  <si>
+    <t>5 U.S.C. § 552(a)(2)(D); 21 CFR 10.30(e)(3); 21 CFR 10.30(b)(3)</t>
+  </si>
+  <si>
+    <t>FDA denied the petition because, although at least three FOIA requests had been received for the Lystn, LLC records, the agency had not yet released those records publicly — a prerequisite for mandatory posting under 5 U.S.C. § 552(a)(2)(D); once the records are reviewed and released under FOIA, they will be posted accordingly</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-1988-0004_Interim_Response_Letter_from_FDA_CDER_to_HealthyWo.pdf</t>
+  </si>
+  <si>
+    <t>October 16, 2024</t>
+  </si>
+  <si>
+    <t>The petition raises complex issues requiring extensive review and analysis by FDA officials; the agency will respond once a decision is reached</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2084-0006_Interim_Response_Letter_from_FDA_HFP_to_PETA_Found.pdf</t>
+  </si>
+  <si>
+    <t>October 22, 2024</t>
+  </si>
+  <si>
+    <t>Human Foods Program (HFP)</t>
+  </si>
+  <si>
+    <t>FDA has not been able to reach a decision on the petition within the 180-day timeframe due to other agency priorities and limited availability of resources; the agency will notify the petitioner once the review is complete</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2085-0007_Final_Response_Letter_from_FDA_CDER_to_Hospira_Inc.pdf</t>
+  </si>
+  <si>
+    <t>August 12, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93(e)(1)(vi); 21 CFR 314.94(a)(9)(iii); 21 CFR 10.33; 21 CFR 10.20; 21 CFR 314.93(a)-(b)</t>
+  </si>
+  <si>
+    <t>FDA denied the petition because a pharmaceutically equivalent drug product (Vancomycin Hydrochloride for Injection, 1.25 g base/vial) has already been approved under NDA 209481; under 21 CFR 314.93(e)(1)(vi), a suitability petition cannot be approved if a drug product is already approved in an NDA for the change described; a change in excipients in a parenteral product is not a permissible change under section 505(j)(2)(C) of the FD&amp;C Act</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2148-0004_Final_Response_Letter_from_FDA_CDER_to_Neşe_Deveno.pdf</t>
+  </si>
+  <si>
+    <t>May 30, 2024</t>
+  </si>
+  <si>
+    <t>21 CFR 14.25(a); 21 CFR 14.29; 21 CFR 14.29(b)(2)</t>
+  </si>
+  <si>
+    <t>FDA granted the request to convene an advisory committee meeting and extended the open public hearing (OPH) from one hour to one hour and 45 minutes due to high interest. However, the request to prioritize input from certain stakeholders was denied, as FDA does not give preferential scheduling to any group. The committee will discuss the benefit-risk profile of MDMA capsules submitted by Lykos Therapeutics for treating PTSD</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2150-0009_Response_Letter_from_FDA_CDER_to_Parenteral_Techno.pdf</t>
+  </si>
+  <si>
+    <t>October 9, 2024</t>
+  </si>
+  <si>
+    <t>21 U.S.C. § 352; 21 U.S.C. § 352(a); 21 U.S.C. § 352(f); 21 CFR § 201.5; 21 CFR §§ 201.66(a), 201.66(c)(6); 21 CFR 10.30(k); Section 505G of the FD&amp;C Act</t>
+  </si>
+  <si>
+    <t>The petition was denied because requests to initiate enforcement actions are not appropriate subjects for citizen petitions under 21 CFR 10.30(k). Although the FDA acknowledged the concerns raised about OTC acetaminophen labeling for infants, it noted that such decisions are discretionary and outside the scope of the citizen petition process. However, the FDA stated it intends to propose a safety-related order to update pediatric acetaminophen labeling under the OTC monograph process pursuant to Section 505G of the FD&amp;C Act</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2151-0126_Interim_Response_Letter_from_FDA_HFP_to_UnidosUS.pdf</t>
+  </si>
+  <si>
+    <t>November 4, 2024</t>
+  </si>
+  <si>
+    <t>FDA has not been able to reach a decision on the petition due to other agency priorities and limited availability of resources; the agency will notify the petitioner once the review is complete</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2215-0003_Interim_Response_Letter_from_FDA_CDRH_to_Metaltron.pdf</t>
+  </si>
+  <si>
+    <t>October 28, 2024</t>
+  </si>
+  <si>
+    <t>FDA has not reached a decision because the petition raises issues requiring further review and analysis; the agency will respond once a decision has been made</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2220-0005_Final_Response_Letter_from_FDA_CDER_to_Encube_Ethi.pdf</t>
+  </si>
+  <si>
+    <t>FDA determined that Pennsaid (diclofenac sodium) topical solution, 2%, was not withdrawn from sale for reasons of safety or effectiveness and therefore will remain listed in the 'Discontinued Drug Product List' section of the Orange Book</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2242-0002_Acknowledgment_Letter_from_FDA_DMS_to_David_Behar_.pdf</t>
+  </si>
+  <si>
+    <t>May 7, 2024</t>
+  </si>
+  <si>
+    <t>Dockets Management Staff (DMS)</t>
+  </si>
+  <si>
+    <t>Acknowledged (no decision on substantive merits)</t>
+  </si>
+  <si>
+    <t>21 CFR 10.30</t>
+  </si>
+  <si>
+    <t>The petition dated April 28, 2024, was received and processed under 21 CFR 10.30; however, acceptance for filing is procedural and does not reflect a decision on the petition's substantive merits</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2272-0005_Response_Letter_from_FDA_CDER_to_Aurobindo_Pharma_.pdf</t>
+  </si>
+  <si>
+    <t>FDA determined that Invega (paliperidone) extended-release tablet, 1.5 mg, was not withdrawn from sale for reasons of safety or effectiveness, and therefore it will remain listed in the 'Discontinued Drug Product List' section of the Orange Book</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2314-0005_Response_Letter_from_FDA_CDER_to_Aurobindo_Pharma_.pdf</t>
+  </si>
+  <si>
+    <t>October 2, 2024</t>
+  </si>
+  <si>
+    <t>FDA determined that Augmentin XR (amoxicillin; clavulanate potassium) Extended-release Tablets, 1 gm; EQ 62.5 mg base, was not withdrawn from sale for reasons of safety or effectiveness and therefore will remain listed in the 'Discontinued Drug Product List' section of the Orange Book</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2326-0009_Response_Letter_from_FDA_CDER_to_Hyman__Phelps___M.pdf</t>
+  </si>
+  <si>
+    <t>August 16, 2024</t>
+  </si>
+  <si>
+    <t>21 U.S.C. 355(b)(2), 21 CFR 314.3(b), 21 CFR § 314.110(a), 21 CFR parts 210 and 211, section 505(d), section 501(a)(2)(B), ICH Q7 guidance</t>
+  </si>
+  <si>
+    <t>The FDA denied the petition on the grounds that rescission of tentative approval for Yutrepia was not warranted, as Liquidia's current API supplier, Yonsung, is the actual manufacturer and LGM is not physically handling the drug. LGM's obligations under a Consent Decree were deemed irrelevant to the current manufacturing supply chain, and thus did not justify issuing a complete response letter or withholding approval.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2379-0009_Interim_Response_Letter_from_FDA_CDER_to_The_Human.pdf</t>
+  </si>
+  <si>
+    <t>November 1, 2024</t>
+  </si>
+  <si>
+    <t>FDA has not reached a decision due to the need to address other agency priorities. The response acknowledges the petition's request to clarify requirements for drug approval in accordance with the FDCA and FDORA, including the acceptance of data from new alternative methods (NAMs), and states that a final response will be issued as soon as possible</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2461-0003_Interim_Response_from_FDA_CTP_to_Ho_Chunk__Inc__on.pdf</t>
+  </si>
+  <si>
+    <t>November 12, 2024</t>
+  </si>
+  <si>
+    <t>21 CFR 10.30(e)(2)(iv)</t>
+  </si>
+  <si>
+    <t>FDA has not reached a decision within 180 days due to the complexity of the issues raised, which require additional review and consideration. The petition requests an exemption for tribally-owned cigarette manufacturers from proposed tobacco manufacturing regulations, and FDA is continuing its review in the context of other program priorities.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2482-0002_Acknowledgment_Letter_from_FDA_DMS_to_Age_Reversal.pdf</t>
+  </si>
+  <si>
+    <t>May 22, 2024</t>
+  </si>
+  <si>
+    <t>Dockets Management Staff (DMS), FDA/Office of Operations (OO)</t>
+  </si>
+  <si>
+    <t>The petition dated May 7, 2024, was received and assigned a docket number. Acceptance for filing is procedural and does not indicate any decision on the petition's substantive merits.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2513-0004_Final_Response_Letter_from_FDA_CDER_to_Innogenix__.pdf</t>
+  </si>
+  <si>
+    <t>September 5, 2024</t>
+  </si>
+  <si>
+    <t>Not explicitly cited; determination was based on internal FDA review and Orange Book policy</t>
+  </si>
+  <si>
+    <t>FDA reviewed its records and determined that Flagyl (metronidazole) Tablets, 250 mg and 500 mg, were not withdrawn for reasons of safety or effectiveness. Therefore, they will remain listed in the 'Discontinued Drug Product List' section of the Orange Book.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2514-0004_Final_Response_Letter_from_FDA_CDER_to_Zydus_Pharm.pdf</t>
+  </si>
+  <si>
+    <t>November 13, 2024</t>
+  </si>
+  <si>
+    <t>FDA determined that Nuplazid (pimavanserin tartrate) tablet, EQ 17 mg base, was not withdrawn from sale for safety or effectiveness reasons. Therefore, it will remain listed in the 'Discontinued Drug Product List' section of the Orange Book.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2515-0005_Final_Response_Letter_from_FDA_CDER_to_Encube_Ethi.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 20, 2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center for Drug Evaluation and Research (CDER), Office of Regulatory Policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDA determined that FORTESTA (testosterone) gel 10 mg/0.5 g actuation was not withdrawn for reasons of safety or effectiveness and will remain in the Orange Book’s Discontinued Drug Product List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDA reviewed its records and found no evidence of safety or effectiveness concerns related to FORTESTA’s withdrawal; therefore, the drug’s discontinued status is maintained and a Federal Register notice will announce this determination </t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2625-0004_Response_Letter_from_FDA_ORA_to_J_R_Imports_LLC_Re.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 18, 2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office of Regulatory Affairs (ORA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petition for reconsideration and stay of Import Alert #99‑41 is denied </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 C.F.R. §§ 10.25, 10.30, 10.33, 10.35, 10.3; 21 C.F.R. §§ 1.505, 1.506, 1.507, 1.514; 21 U.S.C. §§ 381, 384a; Section 301 FSMA; Import Alert #99‑41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JR Imports repeatedly failed to develop and follow Foreign Supplier Verification Program (FSVP) plans despite multiple inspections, warning letters, and Form 483 observations; petition offered no new or inadequately considered information, did not establish irreparable injury, and public‑health interests in safe imported food outweigh firm’s request; therefore FDA denies reconsideration and stay and maintains listing on Import Alert #99‑41 </t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2730-0003_Response_Letter_from_FDA_CBER_to_Kenneth_D__Eichen.pdf</t>
+  </si>
+  <si>
+    <t>July 12, 2024</t>
+  </si>
+  <si>
+    <t>42 U.S.C. § 262(a) (Public Health Service Act § 351(a)); 21 CFR 600.3(s); Section 505(d) of the FD&amp;C Act; Section 115(a) of the FDAMA; 21 CFR 314.126; Section 506(c)(1)(A) and 506(c)(2)(D) of the FD&amp;C Act; 21 CFR 601.41</t>
+  </si>
+  <si>
+    <t>FDA concluded that Sarepta provided substantial evidence of effectiveness to support traditional approval of ELEVIDYS for ambulatory patients aged 4 and older and accelerated approval for non-ambulatory patients aged 4 and older with DMD. The EMBARK study, though not meeting its primary endpoint, demonstrated clinically meaningful benefits. Micro-dystrophin levels supported predicted clinical benefit in non-ambulatory individuals. FDA found the benefit-risk profile favorable given the serious nature of the disease and the unmet medical need. Petitioner's assertions did not justify denying approval or reevaluating ELEVIDYS’s favorable risk-benefit determination.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2752-0008_Response_Letter_from_FDA_CDER_to_Hyman__Phelps___M.pdf</t>
+  </si>
+  <si>
+    <t>November 6, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.93(e)(1); 21 CFR 314.94(a)(3)(iii); Section 505(j)(2)(A) and (B); Section 505(j)(2)(A)(iv)</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed change in strength (total drug content) does not raise questions of safety or effectiveness. The uses, dose, dosage form, and route of administration are the same as those of the listed drug, and the change is consistent with the listed drug's labeling. If shown to be bioequivalent, the proposed drug products are expected to have the same therapeutic effect as the reference listed drug. No new investigations are needed to demonstrate safety or effectiveness.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2753-0008_Response_Letter_from_FDA_CDER_to_Hyman__Phelps___M.pdf</t>
+  </si>
+  <si>
+    <t>October 17, 2024</t>
+  </si>
+  <si>
+    <t>FDA found that the proposed change in strength does not raise safety or effectiveness concerns. The proposed drug products share the same use, dose, dosage form, and route of administration as the listed drug. The change is consistent with the RLD’s labeling, and if the products are shown to be bioequivalent, they are expected to have the same therapeutic effect. Therefore, additional investigations are not required to establish safety or effectiveness.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2757-0008_Response_Letter_from_FDA_CDER_to_Hyman__Phelps___M.pdf</t>
+  </si>
+  <si>
+    <t>December 10, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.93(e)(1)(iv); 21 CFR 10.20; 21 CFR 10.33</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed change in strength introduces new risks, including medication errors, inappropriate use, expired drug use, and potential overdose. Addressing these issues would require significant labeling changes to multiple sections including Dosage and Administration, Overdosage, and Warnings and Precautions. Because these changes raise safety and effectiveness concerns not present with the reference listed drug, the petition is denied.</t>
+  </si>
+  <si>
+    <t>505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93</t>
+  </si>
+  <si>
+    <t>Request to permit the submission of an ANDA for Oxytocin Injection pharmacy bulk packages with different strengths than the reference listed drug</t>
+  </si>
+  <si>
+    <t>FDA concluded that the proposed strengths introduce new safety and effectiveness concerns, including potential for medication errors such as product preparation errors, inappropriate use, expired drug usage, and wrong dose errors—necessitating significant changes to labeling (Dosage and Administration, Overdosage, Warnings and Precautions)</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2778-0013_Final_Response_Letter_from_FDA_CDER_to_Pharmobedie.pdf</t>
+  </si>
+  <si>
+    <t>December 23, 2024</t>
+  </si>
+  <si>
+    <t>505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 505B of the Act (Pediatric Research Equity Act)</t>
+  </si>
+  <si>
+    <t>The FDA denied the petition because the proposed change in dosage form triggers the Pediatric Research Equity Act (PREA), which requires pediatric clinical trials; a full waiver of these requirements was also denied, making the product ineligible for approval via an ANDA.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2779-0012_Response_Letter_from_FDA_CDER_to_Hyman__Phelps___M.pdf</t>
+  </si>
+  <si>
+    <t>January 21, 2025</t>
+  </si>
+  <si>
+    <t>505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93(e)(1)(i), (iv); 505(j)(2)(A)</t>
+  </si>
+  <si>
+    <t>The proposed change in strength to 12.5 mg raises questions of safety and effectiveness not addressed by the reference listed drug (RLD) labeling. Investigations are required to show safety and efficacy. The proposed strength also introduces potential for medication errors, requiring significant labeling changes to address safety concerns.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2843-0002_Acknowledgment_Letter_from_FDA_DMS_to_Zach_Richard.pdf</t>
+  </si>
+  <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
+    <t>DMS (Division of Dockets Management Services)</t>
+  </si>
+  <si>
+    <t>Acknowledged</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2846-0004_Final_Response_Letter_from_FDA_CDRH_to_Pyrexar_Med.pdf</t>
+  </si>
+  <si>
+    <t>Section 513(e), Section 513(f)(1), Section 513(f)(3), Section 520(m), Section 513(a)(1)(B) of the FD&amp;C Act; 21 CFR 860.130(e); 21 CFR 860.123(a)(7)</t>
+  </si>
+  <si>
+    <t>The petition was misfiled under section 513(e) instead of the correct section 513(f)(3); the petitioner failed to provide sufficient information for FDA to determine that special controls would provide reasonable assurance of safety and effectiveness; supporting evidence cited was not adequately detailed or properly included as source documents; the intended use was unclear and did not match the approved indication under the HDE.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2885-0007_Final_Response_Letter_from_FDA_CDER_to_Hyman__Phel.pdf</t>
+  </si>
+  <si>
+    <t>505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii)</t>
+  </si>
+  <si>
+    <t>The proposed change in strength from the listed drug product does not pose questions of safety or effectiveness. The proposed drug products have the same use, dose, dosage form, and route of administration as the listed drug. The change is consistent with the labeling of the listed drug, and if bioequivalence is demonstrated, the proposed products are expected to have the same therapeutic effect. Therefore, investigations are not necessary to demonstrate safety and effectiveness.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2909-0007_Final_Response_Letter_from_FDA_CDER_to_Hyman__Phel.pdf</t>
+  </si>
+  <si>
+    <t>The FDA determined that the proposed change in strength (from 2 mg and 8 mg to 4 mg and 12 mg) does not pose questions of safety or effectiveness, aligns with the listed drug’s labeling, maintains the same use, dose, dosage form, and route of administration, and, if bioequivalence is met, can be expected to have the same therapeutic effect.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2932-0007_Response_Letter_from_FDA_CDER_to_Newcastle_Bioscie.pdf</t>
+  </si>
+  <si>
+    <t>December 20, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; Section 505B of the Act (Pediatric Research Equity Act - PREA); Section 505B(k) of the Act</t>
+  </si>
+  <si>
+    <t>The FDA denied the petition because the requested change in dosage form (from tablets to orally disintegrating tablets) triggered the requirement for pediatric studies under PREA. The agency determined that clinical trials are necessary for pediatric patients aged 2 to less than 7 years with HoFH, and a waiver request was denied. Additionally, the petitioner had not obtained orphan drug designation for the proposed product and therefore did not qualify for the PREA orphan exemption.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2933-0002_Acknowledgment_Letter_from_FDA_DMS_to_Chobani_LLC.pdf</t>
+  </si>
+  <si>
+    <t>June 21, 2024</t>
+  </si>
+  <si>
+    <t>CFR 10.30</t>
+  </si>
+  <si>
+    <t>The petition was received and processed; acceptance for filing is procedural and does not reflect a decision on the petition's substantive merits</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2952-0005_Interim_Response_Letter_from_FDA_CDER_to_Sarah_A__.pdf</t>
+  </si>
+  <si>
+    <t>December 16, 2024</t>
+  </si>
+  <si>
+    <t>Interim Response</t>
+  </si>
+  <si>
+    <t>The petition raises complex issues requiring extensive review and analysis by Agency officials; therefore, a final decision has not yet been reached.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-2955-0006_Interim_Response_Letter_from_FDA_CDER_to_Dsquare_L.pdf</t>
+  </si>
+  <si>
+    <t>Interim response – decision not yet made</t>
+  </si>
+  <si>
+    <t>The FDA has not reached a decision due to the need to address other Agency priorities and states that a response will be provided as soon as possible.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3090-0011_Response_Letter_from_FDA_CDER_to_Epic_Pharma__LLC.pdf</t>
+  </si>
+  <si>
+    <t>December 11, 2024</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; Section 505B of the Act (Pediatric Research Equity Act - PREA)</t>
+  </si>
+  <si>
+    <t>The petition was denied because the proposed change in dosage form (from tablets to oral suspension) triggered the need for pediatric studies under PREA. While a partial waiver was granted for patients from birth to less than 1 month old, the FDA denied a waiver for patients aged 1 month to less than 4 years. Therefore, clinical trials are required, making the product ineligible for ANDA approval under a suitability petition.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3188-0007_Final_Response_Letter_from_FDA_CDER_to_Lachman_Con.pdf</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.93(e)(1); 21 CFR 314.94(a)(3)(iii)</t>
+  </si>
+  <si>
+    <t>The proposed change in strength does not pose questions of safety or effectiveness; the proposed product has the same uses, dose, dosage form, and route of administration as the listed drug; the change is consistent with existing labeling; if shown to meet bioequivalence requirements, it is expected to have the same therapeutic effect as the reference drug; no significant labeling changes or new investigations are required.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3292-0013_Suitability_Petition_Approval_from_FDA_CVM_to_Feli.pdf</t>
+  </si>
+  <si>
+    <t>October 8, 2024</t>
+  </si>
+  <si>
+    <t>Section 512(n)(3) and 512(n)(3)(C) of the Federal Food, Drug, and Cosmetic Act (FD&amp;C Act), 21 CFR 514.5</t>
+  </si>
+  <si>
+    <t>The proposed change in dosage form from tablet to oral solution does not require new investigations to demonstrate safety and effectiveness for the intended uses, and thus meets the criteria for approval under a suitability petition.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3293-0011_Final_Response_Letter_from_FDA_CDER_to_Newcastle_B.pdf</t>
+  </si>
+  <si>
+    <t>December 26, 2024</t>
+  </si>
+  <si>
+    <t>505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 314.93(e)(1); 505B of the Act; 505(j)(2)(A)(iv); 21 CFR 314.94(a)(3)(iii)</t>
+  </si>
+  <si>
+    <t>The proposed changes in strength and dosage form (from tablets to orally disintegrating tablets) do not pose questions of safety or effectiveness; uses, dose, and route of administration are the same as the listed drug; proposed changes align with dosing recommendations; bioequivalence, if demonstrated, would ensure same therapeutic effect; pediatric studies were deemed unnecessary for specific age groups due to impracticability.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3357-0004_Final_Response_Letter_from_FDA_CDRH_to_Randall_Hen.pdf</t>
+  </si>
+  <si>
+    <t>January 10, 2025</t>
+  </si>
+  <si>
+    <t>CDRH (Center for Devices and Radiological Health)</t>
+  </si>
+  <si>
+    <t>21 CFR 10.30, 21 U.S.C. § 360f(a), Section 201(h)(1) of the FD&amp;C Act, 21 CFR part 814, 21 CFR part 807 subpart E, 21 CFR 801.4, 21 CFR 809.3, 21 CFR 895.21, 42 CFR part 493</t>
+  </si>
+  <si>
+    <t>FDA found insufficient information to determine whether the paternity tests qualify as devices under the FD&amp;C Act, and even if they were devices, there was not enough evidence to show they pose a substantial deception or risk of illness/injury. FDA also does not have authority to revoke AABB’s CLIA-related accreditation authority, which is under CMS jurisdiction. Requests for enforcement action and market bans were also outside the scope of the citizen petition process or unsupported.</t>
+  </si>
+  <si>
+    <t>21 CFR 10.30(e); 21 CFR 10.30(k); Section 516(a) of the FD&amp;C Act (21 U.S.C. § 360f(a)); Section 201(h)(1) of the FD&amp;C Act (21 U.S.C. § 321(h)(1)); 21 CFR part 814; 21 CFR part 807 subpart E; 21 CFR 801.4; 21 CFR 895.21(a)(1); 21 CFR 895.21(a)(2); 42 CFR part 493; 21 CFR 809.3</t>
+  </si>
+  <si>
+    <t>Insufficient evidence that duo paternity tests are FDA‑regulated devices or pose substantial deception or unreasonable and substantial risk; FDA lacks authority to revoke AABB’s CLIA accreditation or transfer it to ASCLD; enforcement and market‑ban requests lie outside citizen‑petition scope.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3479-0003_Final_Response_Letter_from_FDA_CDER_to_Jingwei_Pha.pdf</t>
+  </si>
+  <si>
+    <t>Section 505(j) of the FD&amp;C Act (21 U.S.C. § 355(j)); Sections 505(j)(2)(A) and 505(j)(4) of the FD&amp;C Act; Section 501(a)(2)(B) of the FD&amp;C Act; 21 CFR 314.3(b); 21 CFR 314.94; 21 CFR 314.127; 21 CFR parts 210 and 211</t>
+  </si>
+  <si>
+    <t>FDA found that existing case‑by‑case ANDA reviews, USP standards, and cGMP regulations already ensure sitagliptin quality and patient safety; biocatalytic manufacture does not pose greater risk, and the petition lacked evidence to justify mandatory certificates, detailed catalyst data, or additional impurity testing for all applicants.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3484-0002_Acknowledgement_Letter_from_FDA_CDRH_to_Foundation.pdf</t>
+  </si>
+  <si>
+    <t>August 5, 2024</t>
+  </si>
+  <si>
+    <t>Other (Acknowledgement of receipt only)</t>
+  </si>
+  <si>
+    <t>FDA acknowledged receipt of the petition requesting reclassification of certain next-generation sequencing oncology panel devices from class III to class II. The letter clarifies that acceptance for filing is procedural and does not reflect a substantive decision.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3563-0005_Final_Response_Letter_from_FDA_CDER_to_Hyman__Phel.pdf</t>
+  </si>
+  <si>
+    <t>Section 505(b)(2) of the FD&amp;C Act (21 U.S.C. § 355(b)(2)); Section 505(c) of the FD&amp;C Act; 21 CFR 314.3; 21 CFR 314.54(a); FDA guidance documents cited include 'Assessing the Effects of Food on Drugs in INDs and NDAs — Clinical Pharmacology Considerations' and 'Good Pharmacovigilance Practices and Pharmacoepidemiologic Assessment'</t>
+  </si>
+  <si>
+    <t>FDA found insufficient evidence that low-volume nasal spray drug products like Valtoco are significantly swallowed or subject to meaningful food effects; the literature and adverse event data did not demonstrate clinically relevant enteral absorption or efficacy issues due to food; FAERS data review revealed no reliable signal for lack of efficacy attributable to food effects.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3567-0007_Response_Letter_from_FDA_CDER_to_Lachman_Consultin.pdf</t>
+  </si>
+  <si>
+    <t>January 28, 2025</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93; 21 CFR 314.93(e)(1)(i); 21 CFR 314.93(e)(1)(iv); 21 CFR 10.20; 21 CFR 10.33</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed changes in strength (25 mg, 50 mg, 100 mg) raise safety and effectiveness concerns not supported by the reference listed drug (RLD) labeling; such changes would require significant labeling modifications and additional investigations to ensure safe and effective use, making them inappropriate for approval under the ANDA petition process.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3571-0009_Final_Response_Letter_from_FDA_CDER_to_Premier_Con.pdf</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; Section 505B of the FD&amp;C Act (PREA); 21 CFR 314.93; 21 CFR 314.94(a)(3)(iii)</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed change from capsule to oral liquid dosage form does not raise safety or effectiveness concerns, is consistent with the listed drug’s labeling, and does not require significant labeling changes or additional investigations; pediatric study requirements under PREA were waived due to lack of meaningful therapeutic benefit and limited pediatric use.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3573-0005_Response_Letter_from_FDA_CDER_to_Premier_Research_.pdf</t>
+  </si>
+  <si>
+    <t>January 15, 2025</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed change from tablet to oral liquid dosage form does not raise concerns regarding safety or effectiveness, aligns with the labeled dosing recommendations, and does not require significant labeling changes; pediatric studies were waived under PREA due to lack of meaningful benefit and expected limited pediatric use.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3699-0004_Response_Letter_from_FDA_CDER_to_Zydus_Pharmaceuti.pdf</t>
+  </si>
+  <si>
+    <t>November 20, 2024</t>
+  </si>
+  <si>
+    <t>FDA determined that IC-GREEN (Indocyanine Green), 25 mg/vial, was not withdrawn from sale for reasons of safety or effectiveness and will remain listed in the Orange Book’s Discontinued Drug Product List.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3761-0003_Final_Response_Letter_from_FDA_CDRH_to_Spark_Biome.pdf</t>
+  </si>
+  <si>
+    <t>December 15, 2024</t>
+  </si>
+  <si>
+    <t>21 CFR 10.30(k); 21 CFR 10.30(b)(3); 21 CFR 10.3(a)</t>
+  </si>
+  <si>
+    <t>FDA denied the petition because requests for enforcement actions, investigations, or related regulatory activities fall outside the scope of citizen petition procedures; such actions are within the agency’s discretion and not subject to petitions from external parties.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3799-0002_Acknowledgement_Letter_from_FDA_DMS_to_Raaha_LLC.pdf</t>
+  </si>
+  <si>
+    <t>Dockets Management Staff (DMS), Office of Operations (OO)</t>
+  </si>
+  <si>
+    <t>FDA acknowledged receipt of the petition dated August 7, 2024, and clarified that acceptance for filing is a procedural step that does not reflect any decision on the substantive merits of the petition.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3820-0011_Interim_Response_Letter_from_FDA_HFP_to_Agent_for_.pdf</t>
+  </si>
+  <si>
+    <t>February 6, 2025</t>
+  </si>
+  <si>
+    <t>Human Foods Program (HFP), Office of Nutrition and Food Labeling</t>
+  </si>
+  <si>
+    <t>Other (Interim Response – No decision yet)</t>
+  </si>
+  <si>
+    <t>FDA stated it has not yet reached a decision on the petition to amend 21 CFR § 101.9(c)(6)(i) to include Isomaltodextrin (Fibryxa®) due to other agency priorities and limited resources; a final decision will be provided upon completion of the review.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3821-0004_Final_Response_Letter_from_FDA_CVM_to_Aurora_Pharm.pdf</t>
+  </si>
+  <si>
+    <t>Section 512(n)(3) and Section 512(n)(3)(C) of the FD&amp;C Act; 21 CFR 514.5</t>
+  </si>
+  <si>
+    <t>FDA approved the suitability petition for afoxolaner oral solution as a generic version of NexGard® chewable tablets, finding that the change in dosage form does not require new investigations to demonstrate safety and effectiveness for the intended uses.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3822-0003_Interim_Response_Letter_from_FDA_CDER_to_Universit.pdf</t>
+  </si>
+  <si>
+    <t>February 4, 2025</t>
+  </si>
+  <si>
+    <t>FDA has not yet resolved the issues raised in the petition concerning the US Pharmacopeia’s modification of biological drug monographs due to their complexity; a final response will be issued once a decision is reached.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3881-0007_Response_Letter_from_FDA_CDER_to_Zydus_Pharmaceuti.pdf</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; Section 505(j)(2)(A) and (B); Section 505(j)(2)(A)(iv); 21 CFR 314.93; 21 CFR 314.93(e)(1); 21 CFR 314.94(a)(3)(iii)</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed change in strength (to 34 mg) for Pimavanserin Tablets does not pose questions of safety or effectiveness, is consistent with labeling, and does not require significant labeling changes or additional investigations; bioequivalence will be assessed during ANDA review.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3905-0008_Response_Letter_from_FDA_CDER_to_Lachman_Consultan.pdf</t>
+  </si>
+  <si>
+    <t>February 12, 2025</t>
+  </si>
+  <si>
+    <t>FDA determined that the proposed change in dosage form from cream to vaginal inserts does not pose safety or effectiveness concerns, is consistent with the labeled dosing of the reference product, and does not require significant labeling changes or new investigations; bioequivalence will be evaluated during ANDA review.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-3997-0006_Interim_Response_Letter_from_FDA_CDER_to_Aylstock_.pdf</t>
+  </si>
+  <si>
+    <t>FDA has not yet resolved the petition requesting market recall of benzoyl peroxide products due to alleged benzene contamination; the issues are complex and require extensive review. Additionally, FDA noted that the petitioner has not yet submitted the testing data referenced in the petition despite multiple requests.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-4015-0003_Final_Response_Letter_from_FDA_CVM_to_Kohl_Harring.pdf</t>
+  </si>
+  <si>
+    <t>November 7, 2024</t>
+  </si>
+  <si>
+    <t>5 U.S.C. § 552(a)(2)(D); 29 U.S.C. § 794d(a); 21 CFR 10.30(b)(3)</t>
+  </si>
+  <si>
+    <t>FDA denied the petition requesting public posting of certain records, stating that such posting is governed by the Freedom of Information Act (FOIA) and Section 508 accessibility requirements; records will be posted when required under FOIA and once made compliant with accessibility standards.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-4126-0006_Letter_from_FDA_CVM_to_Aurora_Pharmaceutical__Inc_.pdf</t>
+  </si>
+  <si>
+    <t>October 10, 2024</t>
+  </si>
+  <si>
+    <t>FDA approved the suitability petition for a generic meloxicam oral solution (3 mg/mL) differing in dosage form and strength from the reference listed drug (Metacam® 1.5 mg/mL), concluding that no new investigations are required to demonstrate safety and effectiveness for the intended uses.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-4134-0009_Response_Letter_from_FDA_CDER_to_Pharmobedient_Con.pdf</t>
+  </si>
+  <si>
+    <t>February 18, 2025</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93; 21 CFR 314.93(e)(1)(iv); 21 CFR 10.20; 21 CFR 10.33</t>
+  </si>
+  <si>
+    <t>FDA denied the petition because the proposed new strength of 37.5 mg for Diclofenac Potassium Tablets raises safety and effectiveness concerns that would necessitate significant labeling changes. The 37.5 mg strength is not supported by the reference listed drug’s labeling and could increase the risk of medication errors and confusion among patients and prescribers.</t>
+  </si>
+  <si>
+    <t>FDA-2024-P-4135-0004_Response_Letter_from_FDA_CDER_to_Fresenius_Kabi_US.pdf</t>
+  </si>
+  <si>
+    <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR 314.93; 21 CFR 314.93(e)(1)(vi); 21 CFR 10.20; 21 CFR 10.33</t>
+  </si>
+  <si>
+    <t>FDA denied the petition because the proposed strength of Vasopressin in 0.9% Sodium Chloride Injection (50 units/50 mL) is already approved under NDAs 217766 and 204485; under 21 CFR 314.93(e)(1)(vi), a petition must be denied if a drug product with the proposed change is already approved in an NDA.</t>
   </si>
 </sst>
 </file>
@@ -3042,16 +4095,16 @@
   <dxfs count="12">
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color rgb="FF000000"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color rgb="FF000000"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3283,15 +4336,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03C91CD5-D3DB-4307-BCCF-763E8246C693}" name="Table15" displayName="Table15" ref="A1:F2" insertRow="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F2" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5F6E498D-D3EB-43FC-B2E8-B283E8134D8E}" name="File Name"/>
-    <tableColumn id="2" xr3:uid="{37676C6B-BDAF-4AB0-9D9A-2127E41FD5BD}" name="Date of Response"/>
-    <tableColumn id="3" xr3:uid="{2A1C76DA-9B61-4C9B-AC81-404E40978190}" name="Responding FDA Center"/>
-    <tableColumn id="4" xr3:uid="{DA48DBD6-0FF5-41C0-B391-1279C3677344}" name="Response to Petition"/>
-    <tableColumn id="5" xr3:uid="{8308B19D-2127-41BD-9F4D-5586A264DF25}" name="Cited Statutes or Regulations"/>
-    <tableColumn id="6" xr3:uid="{FA5A8562-347C-4565-8564-9ADAF774464E}" name="Justification for Response"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="File Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date of Response"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Responding FDA Center"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Response to Petition"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Cited Statutes or Regulations"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Justification for Response"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3616,7 +4669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -6028,8 +7081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9311,11 +10364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911B4C7D-6061-48A4-A2FA-CE17F0E483BD}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" activeCellId="1" sqref="A2:XFD2 C13"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9348,6 +10401,2009 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>986</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>990</v>
+      </c>
+      <c r="E3" t="s">
+        <v>991</v>
+      </c>
+      <c r="F3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>995</v>
+      </c>
+      <c r="F4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B5" t="s">
+        <v>998</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>990</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>990</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C14" t="s">
+        <v>471</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" t="s">
+        <v>990</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C20" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>990</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>990</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>990</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>990</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" t="s">
+        <v>990</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C27" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>990</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" t="s">
+        <v>990</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>990</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C34" t="s">
+        <v>383</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C35" t="s">
+        <v>383</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>990</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>990</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D44" t="s">
+        <v>990</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>527</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D48" t="s">
+        <v>990</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>990</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>989</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>990</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C56" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" t="s">
+        <v>990</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>464</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C62" t="s">
+        <v>646</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C74" t="s">
+        <v>442</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C79" t="s">
+        <v>383</v>
+      </c>
+      <c r="D79" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B85" t="s">
+        <v>722</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E92" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C93" t="s">
+        <v>383</v>
+      </c>
+      <c r="D93" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E94" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E97" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C98" t="s">
+        <v>383</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C99" t="s">
+        <v>383</v>
+      </c>
+      <c r="D99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
